--- a/lib/xlsx/relatorio.xlsx
+++ b/lib/xlsx/relatorio.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1486">
   <si>
     <t>Cidade</t>
   </si>
@@ -82,7 +82,7 @@
     <t>Helionara1998@gmail.com</t>
   </si>
   <si>
-    <t>Rua Itacira 105</t>
+    <t>Rua Itacira, 105</t>
   </si>
   <si>
     <t>Mondubim</t>
@@ -160,7 +160,7 @@
     <t>ea740891@gmail.com</t>
   </si>
   <si>
-    <t>Rua Murillo Guimaraes 361</t>
+    <t>Rua Murillo Guimarães, 361</t>
   </si>
   <si>
     <t>Divineia</t>
@@ -181,7 +181,7 @@
     <t>claracmod@gmail.com</t>
   </si>
   <si>
-    <t>Rua Beta 188</t>
+    <t>Rua Beta, 188</t>
   </si>
   <si>
     <t>Vila Velha</t>
@@ -202,7 +202,7 @@
     <t>leticiacostamarquess@gmail.com</t>
   </si>
   <si>
-    <t>Rua Dinamarca 141</t>
+    <t>Rua Dinamarca, 141</t>
   </si>
   <si>
     <t>Parangaba</t>
@@ -325,7 +325,7 @@
     <t>hevelly01@yahoo.com.br</t>
   </si>
   <si>
-    <t>Rua pedestre 1 661</t>
+    <t>Rua pedestre 1, 661</t>
   </si>
   <si>
     <t>Ancuri</t>
@@ -367,7 +367,7 @@
     <t>Karemcavalcanti@gmail.com</t>
   </si>
   <si>
-    <t>Rua ilha bela 218</t>
+    <t>Rua ilha bela, 218</t>
   </si>
   <si>
     <t>Vila peri</t>
@@ -469,7 +469,7 @@
     <t>Luiza06neves@hotmail.com</t>
   </si>
   <si>
-    <t>Rua liberdade  casa 5</t>
+    <t>Rua liberdade,  casa 5</t>
   </si>
   <si>
     <t>Olho d'agua</t>
@@ -490,7 +490,7 @@
     <t>Lilianbasttosadvogada@gmail.com</t>
   </si>
   <si>
-    <t>Rua coronel Luiz David de Souza 102 ap 308 torre a</t>
+    <t>Rua coronel Luiz David de Souza, 102 ap 308 torre a</t>
   </si>
   <si>
     <t>Presidente kennedy</t>
@@ -556,7 +556,7 @@
     <t>mariaaldefla@gmail.com</t>
   </si>
   <si>
-    <t>Rua idealista / Condominio Atenas 93 / Ap 202 / bloco 6A</t>
+    <t>Rua idealista, Condominio Atenas 93, Ap 202, bloco 6A</t>
   </si>
   <si>
     <t>Jurema</t>
@@ -598,7 +598,7 @@
     <t>lininhapeixoto@hotmail.com</t>
   </si>
   <si>
-    <t>Travessa bom Jesus 1045 / Casa A</t>
+    <t>Travessa bom Jesus, 1045, Casa A</t>
   </si>
   <si>
     <t>Granja Lisboa</t>
@@ -1022,9 +1022,6 @@
   </si>
   <si>
     <t>drezaguij@gmail.com</t>
-  </si>
-  <si>
-    <t>Rua Itacira, 105</t>
   </si>
   <si>
     <t>Jardeir Saldanha Cavalcante</t>
@@ -5639,7 +5636,7 @@
     <col min="9" max="9" width="14.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="16.5" style="1" customWidth="1"/>
     <col min="11" max="11" width="34.8516" style="1" customWidth="1"/>
-    <col min="12" max="12" width="45.6719" style="1" customWidth="1"/>
+    <col min="12" max="12" width="76.1562" style="1" customWidth="1"/>
     <col min="13" max="13" width="22.8516" style="1" customWidth="1"/>
     <col min="14" max="14" width="11.8516" style="1" customWidth="1"/>
     <col min="15" max="15" width="15.5" style="1" customWidth="1"/>
@@ -7962,7 +7959,7 @@
         <v>336</v>
       </c>
       <c r="L44" t="s" s="3">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="M44" t="s" s="3">
         <v>24</v>
@@ -7985,7 +7982,7 @@
         <v>17</v>
       </c>
       <c r="B45" t="s" s="3">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C45" s="4">
         <v>31342</v>
@@ -7997,10 +7994,10 @@
         <v>85997618094</v>
       </c>
       <c r="F45" t="s" s="3">
+        <v>338</v>
+      </c>
+      <c r="G45" t="s" s="3">
         <v>339</v>
-      </c>
-      <c r="G45" t="s" s="3">
-        <v>340</v>
       </c>
       <c r="H45" s="4">
         <v>34011</v>
@@ -8012,13 +8009,13 @@
         <v>8599832688</v>
       </c>
       <c r="K45" t="s" s="3">
+        <v>340</v>
+      </c>
+      <c r="L45" t="s" s="3">
         <v>341</v>
       </c>
-      <c r="L45" t="s" s="3">
+      <c r="M45" t="s" s="3">
         <v>342</v>
-      </c>
-      <c r="M45" t="s" s="3">
-        <v>343</v>
       </c>
       <c r="N45" s="5">
         <v>60311685</v>
@@ -8027,7 +8024,7 @@
         <v>40</v>
       </c>
       <c r="P45" t="s" s="7">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Q45" t="s" s="3">
         <v>92</v>
@@ -8038,7 +8035,7 @@
         <v>17</v>
       </c>
       <c r="B46" t="s" s="3">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C46" s="4">
         <v>34679</v>
@@ -8050,10 +8047,10 @@
         <v>85991201860</v>
       </c>
       <c r="F46" t="s" s="3">
+        <v>345</v>
+      </c>
+      <c r="G46" t="s" s="3">
         <v>346</v>
-      </c>
-      <c r="G46" t="s" s="3">
-        <v>347</v>
       </c>
       <c r="H46" s="4">
         <v>34854</v>
@@ -8065,10 +8062,10 @@
         <v>85994194403</v>
       </c>
       <c r="K46" t="s" s="3">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="L46" t="s" s="3">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M46" t="s" s="3">
         <v>286</v>
@@ -8091,7 +8088,7 @@
         <v>65</v>
       </c>
       <c r="B47" t="s" s="3">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C47" s="4">
         <v>34645</v>
@@ -8103,10 +8100,10 @@
         <v>85994255821</v>
       </c>
       <c r="F47" t="s" s="3">
+        <v>349</v>
+      </c>
+      <c r="G47" t="s" s="3">
         <v>350</v>
-      </c>
-      <c r="G47" t="s" s="3">
-        <v>351</v>
       </c>
       <c r="H47" s="4">
         <v>34703</v>
@@ -8118,22 +8115,22 @@
         <v>85991793417</v>
       </c>
       <c r="K47" t="s" s="3">
+        <v>351</v>
+      </c>
+      <c r="L47" t="s" s="3">
         <v>352</v>
       </c>
-      <c r="L47" t="s" s="3">
+      <c r="M47" t="s" s="3">
         <v>353</v>
       </c>
-      <c r="M47" t="s" s="3">
+      <c r="N47" t="s" s="7">
         <v>354</v>
-      </c>
-      <c r="N47" t="s" s="7">
-        <v>355</v>
       </c>
       <c r="O47" t="s" s="7">
         <v>58</v>
       </c>
       <c r="P47" t="s" s="7">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Q47" t="s" s="3">
         <v>73</v>
@@ -8144,7 +8141,7 @@
         <v>17</v>
       </c>
       <c r="B48" t="s" s="3">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C48" s="4">
         <v>31860</v>
@@ -8156,13 +8153,13 @@
         <v>85991810670</v>
       </c>
       <c r="F48" t="s" s="3">
+        <v>357</v>
+      </c>
+      <c r="G48" t="s" s="3">
         <v>358</v>
       </c>
-      <c r="G48" t="s" s="3">
+      <c r="H48" t="s" s="7">
         <v>359</v>
-      </c>
-      <c r="H48" t="s" s="7">
-        <v>360</v>
       </c>
       <c r="I48" s="6">
         <v>2226959351</v>
@@ -8171,16 +8168,16 @@
         <v>85985355502</v>
       </c>
       <c r="K48" t="s" s="3">
+        <v>360</v>
+      </c>
+      <c r="L48" t="s" s="3">
         <v>361</v>
       </c>
-      <c r="L48" t="s" s="3">
+      <c r="M48" t="s" s="3">
         <v>362</v>
       </c>
-      <c r="M48" t="s" s="3">
+      <c r="N48" t="s" s="7">
         <v>363</v>
-      </c>
-      <c r="N48" t="s" s="7">
-        <v>364</v>
       </c>
       <c r="O48" t="s" s="7">
         <v>26</v>
@@ -8197,22 +8194,22 @@
         <v>17</v>
       </c>
       <c r="B49" t="s" s="3">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C49" s="4">
         <v>35027</v>
       </c>
       <c r="D49" t="s" s="7">
+        <v>365</v>
+      </c>
+      <c r="E49" t="s" s="7">
         <v>366</v>
       </c>
-      <c r="E49" t="s" s="7">
+      <c r="F49" t="s" s="3">
         <v>367</v>
       </c>
-      <c r="F49" t="s" s="3">
+      <c r="G49" t="s" s="3">
         <v>368</v>
-      </c>
-      <c r="G49" t="s" s="3">
-        <v>369</v>
       </c>
       <c r="H49" s="4">
         <v>35742</v>
@@ -8224,13 +8221,13 @@
         <v>85996162363</v>
       </c>
       <c r="K49" t="s" s="3">
+        <v>369</v>
+      </c>
+      <c r="L49" t="s" s="3">
         <v>370</v>
       </c>
-      <c r="L49" t="s" s="3">
+      <c r="M49" t="s" s="3">
         <v>371</v>
-      </c>
-      <c r="M49" t="s" s="3">
-        <v>372</v>
       </c>
       <c r="N49" s="5">
         <v>60520022</v>
@@ -8250,43 +8247,43 @@
         <v>17</v>
       </c>
       <c r="B50" t="s" s="3">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C50" s="4">
         <v>22995</v>
       </c>
       <c r="D50" t="s" s="7">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E50" s="5">
         <v>85999269870</v>
       </c>
       <c r="F50" t="s" s="3">
+        <v>374</v>
+      </c>
+      <c r="G50" t="s" s="3">
         <v>375</v>
-      </c>
-      <c r="G50" t="s" s="3">
-        <v>376</v>
       </c>
       <c r="H50" s="4">
         <v>30226</v>
       </c>
       <c r="I50" t="s" s="3">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J50" s="6">
         <v>85996268040</v>
       </c>
       <c r="K50" t="s" s="3">
+        <v>377</v>
+      </c>
+      <c r="L50" t="s" s="3">
         <v>378</v>
       </c>
-      <c r="L50" t="s" s="3">
+      <c r="M50" t="s" s="3">
         <v>379</v>
       </c>
-      <c r="M50" t="s" s="3">
+      <c r="N50" t="s" s="7">
         <v>380</v>
-      </c>
-      <c r="N50" t="s" s="7">
-        <v>381</v>
       </c>
       <c r="O50" t="s" s="7">
         <v>58</v>
@@ -8303,7 +8300,7 @@
         <v>17</v>
       </c>
       <c r="B51" t="s" s="3">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C51" s="4">
         <v>34001</v>
@@ -8315,10 +8312,10 @@
         <v>85998635901</v>
       </c>
       <c r="F51" t="s" s="3">
+        <v>382</v>
+      </c>
+      <c r="G51" t="s" s="3">
         <v>383</v>
-      </c>
-      <c r="G51" t="s" s="3">
-        <v>384</v>
       </c>
       <c r="H51" s="4">
         <v>31721</v>
@@ -8330,13 +8327,13 @@
         <v>987907791</v>
       </c>
       <c r="K51" t="s" s="3">
+        <v>384</v>
+      </c>
+      <c r="L51" t="s" s="3">
         <v>385</v>
       </c>
-      <c r="L51" t="s" s="3">
+      <c r="M51" t="s" s="3">
         <v>386</v>
-      </c>
-      <c r="M51" t="s" s="3">
-        <v>387</v>
       </c>
       <c r="N51" s="5">
         <v>60764605</v>
@@ -8356,7 +8353,7 @@
         <v>301</v>
       </c>
       <c r="B52" t="s" s="3">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C52" s="4">
         <v>29707</v>
@@ -8368,10 +8365,10 @@
         <v>85989535619</v>
       </c>
       <c r="F52" t="s" s="3">
+        <v>388</v>
+      </c>
+      <c r="G52" t="s" s="3">
         <v>389</v>
-      </c>
-      <c r="G52" t="s" s="3">
-        <v>390</v>
       </c>
       <c r="H52" s="4">
         <v>31645</v>
@@ -8383,13 +8380,13 @@
         <v>85987835619</v>
       </c>
       <c r="K52" t="s" s="3">
+        <v>390</v>
+      </c>
+      <c r="L52" t="s" s="3">
         <v>391</v>
       </c>
-      <c r="L52" t="s" s="3">
+      <c r="M52" t="s" s="3">
         <v>392</v>
-      </c>
-      <c r="M52" t="s" s="3">
-        <v>393</v>
       </c>
       <c r="N52" s="5">
         <v>61910000</v>
@@ -8409,43 +8406,43 @@
         <v>17</v>
       </c>
       <c r="B53" t="s" s="3">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C53" s="4">
         <v>36388</v>
       </c>
       <c r="D53" t="s" s="7">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E53" s="5">
         <v>85987187116</v>
       </c>
       <c r="F53" t="s" s="3">
+        <v>395</v>
+      </c>
+      <c r="G53" t="s" s="3">
         <v>396</v>
-      </c>
-      <c r="G53" t="s" s="3">
-        <v>397</v>
       </c>
       <c r="H53" s="4">
         <v>36613</v>
       </c>
       <c r="I53" t="s" s="3">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J53" s="6">
         <v>85994114034</v>
       </c>
       <c r="K53" t="s" s="3">
+        <v>398</v>
+      </c>
+      <c r="L53" t="s" s="3">
         <v>399</v>
       </c>
-      <c r="L53" t="s" s="3">
+      <c r="M53" t="s" s="3">
         <v>400</v>
       </c>
-      <c r="M53" t="s" s="3">
+      <c r="N53" t="s" s="7">
         <v>401</v>
-      </c>
-      <c r="N53" t="s" s="7">
-        <v>402</v>
       </c>
       <c r="O53" t="s" s="7">
         <v>26</v>
@@ -8462,7 +8459,7 @@
         <v>17</v>
       </c>
       <c r="B54" t="s" s="3">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C54" s="4">
         <v>34930</v>
@@ -8474,10 +8471,10 @@
         <v>85988445628</v>
       </c>
       <c r="F54" t="s" s="3">
+        <v>403</v>
+      </c>
+      <c r="G54" t="s" s="3">
         <v>404</v>
-      </c>
-      <c r="G54" t="s" s="3">
-        <v>405</v>
       </c>
       <c r="H54" s="4">
         <v>35855</v>
@@ -8489,13 +8486,13 @@
         <v>85991047897</v>
       </c>
       <c r="K54" t="s" s="3">
+        <v>405</v>
+      </c>
+      <c r="L54" t="s" s="3">
         <v>406</v>
       </c>
-      <c r="L54" t="s" s="3">
+      <c r="M54" t="s" s="3">
         <v>407</v>
-      </c>
-      <c r="M54" t="s" s="3">
-        <v>408</v>
       </c>
       <c r="N54" s="5">
         <v>60861760</v>
@@ -8515,43 +8512,43 @@
         <v>174</v>
       </c>
       <c r="B55" t="s" s="3">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C55" s="4">
         <v>34811</v>
       </c>
       <c r="D55" t="s" s="7">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E55" s="5">
         <v>85981989809</v>
       </c>
       <c r="F55" t="s" s="3">
+        <v>410</v>
+      </c>
+      <c r="G55" t="s" s="3">
         <v>411</v>
-      </c>
-      <c r="G55" t="s" s="3">
-        <v>412</v>
       </c>
       <c r="H55" s="4">
         <v>35344</v>
       </c>
       <c r="I55" t="s" s="3">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J55" s="6">
         <v>85985022082</v>
       </c>
       <c r="K55" t="s" s="3">
+        <v>413</v>
+      </c>
+      <c r="L55" t="s" s="3">
         <v>414</v>
       </c>
-      <c r="L55" t="s" s="3">
+      <c r="M55" t="s" s="3">
         <v>415</v>
       </c>
-      <c r="M55" t="s" s="3">
+      <c r="N55" t="s" s="7">
         <v>416</v>
-      </c>
-      <c r="N55" t="s" s="7">
-        <v>417</v>
       </c>
       <c r="O55" t="s" s="7">
         <v>40</v>
@@ -8568,7 +8565,7 @@
         <v>65</v>
       </c>
       <c r="B56" t="s" s="3">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C56" s="4">
         <v>35536</v>
@@ -8580,10 +8577,10 @@
         <v>85998409265</v>
       </c>
       <c r="F56" t="s" s="3">
+        <v>418</v>
+      </c>
+      <c r="G56" t="s" s="3">
         <v>419</v>
-      </c>
-      <c r="G56" t="s" s="3">
-        <v>420</v>
       </c>
       <c r="H56" s="4">
         <v>35396</v>
@@ -8595,13 +8592,13 @@
         <v>85999467842</v>
       </c>
       <c r="K56" t="s" s="3">
+        <v>420</v>
+      </c>
+      <c r="L56" t="s" s="3">
         <v>421</v>
       </c>
-      <c r="L56" t="s" s="3">
+      <c r="M56" t="s" s="3">
         <v>422</v>
-      </c>
-      <c r="M56" t="s" s="3">
-        <v>423</v>
       </c>
       <c r="N56" s="5">
         <v>61768110</v>
@@ -8621,7 +8618,7 @@
         <v>17</v>
       </c>
       <c r="B57" t="s" s="3">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C57" s="5">
         <v>17051984</v>
@@ -8633,10 +8630,10 @@
         <v>85987737240</v>
       </c>
       <c r="F57" t="s" s="3">
+        <v>424</v>
+      </c>
+      <c r="G57" t="s" s="3">
         <v>425</v>
-      </c>
-      <c r="G57" t="s" s="3">
-        <v>426</v>
       </c>
       <c r="H57" s="4">
         <v>31240</v>
@@ -8648,10 +8645,10 @@
         <v>85989493230</v>
       </c>
       <c r="K57" t="s" s="3">
+        <v>426</v>
+      </c>
+      <c r="L57" t="s" s="3">
         <v>427</v>
-      </c>
-      <c r="L57" t="s" s="3">
-        <v>428</v>
       </c>
       <c r="M57" t="s" s="3">
         <v>24</v>
@@ -8674,7 +8671,7 @@
         <v>17</v>
       </c>
       <c r="B58" t="s" s="3">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C58" s="5">
         <v>2042005</v>
@@ -8686,10 +8683,10 @@
         <v>88992173996</v>
       </c>
       <c r="F58" t="s" s="3">
+        <v>429</v>
+      </c>
+      <c r="G58" t="s" s="3">
         <v>430</v>
-      </c>
-      <c r="G58" t="s" s="3">
-        <v>431</v>
       </c>
       <c r="H58" s="4">
         <v>34043</v>
@@ -8701,13 +8698,13 @@
         <v>85997342231</v>
       </c>
       <c r="K58" t="s" s="3">
+        <v>430</v>
+      </c>
+      <c r="L58" t="s" s="3">
         <v>431</v>
       </c>
-      <c r="L58" t="s" s="3">
+      <c r="M58" t="s" s="3">
         <v>432</v>
-      </c>
-      <c r="M58" t="s" s="3">
-        <v>433</v>
       </c>
       <c r="N58" s="5">
         <v>60875215</v>
@@ -8727,7 +8724,7 @@
         <v>17</v>
       </c>
       <c r="B59" t="s" s="3">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C59" s="4">
         <v>30472</v>
@@ -8739,10 +8736,10 @@
         <v>85999101390</v>
       </c>
       <c r="F59" t="s" s="3">
+        <v>434</v>
+      </c>
+      <c r="G59" t="s" s="3">
         <v>435</v>
-      </c>
-      <c r="G59" t="s" s="3">
-        <v>436</v>
       </c>
       <c r="H59" s="4">
         <v>33175</v>
@@ -8754,13 +8751,13 @@
         <v>85999169048</v>
       </c>
       <c r="K59" t="s" s="3">
+        <v>436</v>
+      </c>
+      <c r="L59" t="s" s="3">
         <v>437</v>
       </c>
-      <c r="L59" t="s" s="3">
-        <v>438</v>
-      </c>
       <c r="M59" t="s" s="3">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="N59" s="5">
         <v>60875560</v>
@@ -8780,7 +8777,7 @@
         <v>17</v>
       </c>
       <c r="B60" t="s" s="3">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C60" s="5">
         <v>8091992</v>
@@ -8792,10 +8789,10 @@
         <v>85987497257</v>
       </c>
       <c r="F60" t="s" s="3">
+        <v>439</v>
+      </c>
+      <c r="G60" t="s" s="3">
         <v>440</v>
-      </c>
-      <c r="G60" t="s" s="3">
-        <v>441</v>
       </c>
       <c r="H60" s="4">
         <v>27866</v>
@@ -8807,10 +8804,10 @@
         <v>85988701800</v>
       </c>
       <c r="K60" t="s" s="3">
+        <v>441</v>
+      </c>
+      <c r="L60" t="s" s="3">
         <v>442</v>
-      </c>
-      <c r="L60" t="s" s="3">
-        <v>443</v>
       </c>
       <c r="M60" t="s" s="3">
         <v>286</v>
@@ -8833,7 +8830,7 @@
         <v>17</v>
       </c>
       <c r="B61" t="s" s="3">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C61" s="4">
         <v>32709</v>
@@ -8842,13 +8839,13 @@
         <v>3547207320</v>
       </c>
       <c r="E61" t="s" s="7">
+        <v>444</v>
+      </c>
+      <c r="F61" t="s" s="3">
         <v>445</v>
       </c>
-      <c r="F61" t="s" s="3">
+      <c r="G61" t="s" s="3">
         <v>446</v>
-      </c>
-      <c r="G61" t="s" s="3">
-        <v>447</v>
       </c>
       <c r="H61" s="4">
         <v>33562</v>
@@ -8860,10 +8857,10 @@
         <v>85999337048</v>
       </c>
       <c r="K61" t="s" s="3">
+        <v>447</v>
+      </c>
+      <c r="L61" t="s" s="3">
         <v>448</v>
-      </c>
-      <c r="L61" t="s" s="3">
-        <v>449</v>
       </c>
       <c r="M61" t="s" s="3">
         <v>231</v>
@@ -8886,7 +8883,7 @@
         <v>17</v>
       </c>
       <c r="B62" t="s" s="3">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C62" s="4">
         <v>30473</v>
@@ -8898,10 +8895,10 @@
         <v>85988053552</v>
       </c>
       <c r="F62" t="s" s="3">
+        <v>450</v>
+      </c>
+      <c r="G62" t="s" s="3">
         <v>451</v>
-      </c>
-      <c r="G62" t="s" s="3">
-        <v>452</v>
       </c>
       <c r="H62" s="4">
         <v>30744</v>
@@ -8913,16 +8910,16 @@
         <v>85999458237</v>
       </c>
       <c r="K62" t="s" s="3">
+        <v>452</v>
+      </c>
+      <c r="L62" t="s" s="3">
         <v>453</v>
-      </c>
-      <c r="L62" t="s" s="3">
-        <v>454</v>
       </c>
       <c r="M62" t="s" s="3">
         <v>273</v>
       </c>
       <c r="N62" t="s" s="7">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="O62" t="s" s="7">
         <v>26</v>
@@ -8939,7 +8936,7 @@
         <v>17</v>
       </c>
       <c r="B63" t="s" s="3">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C63" s="5">
         <v>18091980</v>
@@ -8951,31 +8948,31 @@
         <v>85988200858</v>
       </c>
       <c r="F63" t="s" s="3">
+        <v>456</v>
+      </c>
+      <c r="G63" t="s" s="3">
         <v>457</v>
-      </c>
-      <c r="G63" t="s" s="3">
-        <v>458</v>
       </c>
       <c r="H63" s="4">
         <v>30597</v>
       </c>
       <c r="I63" t="s" s="3">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J63" s="6">
         <v>85997336780</v>
       </c>
       <c r="K63" t="s" s="3">
+        <v>459</v>
+      </c>
+      <c r="L63" t="s" s="3">
         <v>460</v>
       </c>
-      <c r="L63" t="s" s="3">
+      <c r="M63" t="s" s="3">
         <v>461</v>
       </c>
-      <c r="M63" t="s" s="3">
+      <c r="N63" t="s" s="7">
         <v>462</v>
-      </c>
-      <c r="N63" t="s" s="7">
-        <v>463</v>
       </c>
       <c r="O63" t="s" s="7">
         <v>40</v>
@@ -8992,7 +8989,7 @@
         <v>17</v>
       </c>
       <c r="B64" t="s" s="3">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C64" s="5">
         <v>18101986</v>
@@ -9004,10 +9001,10 @@
         <v>85987321733</v>
       </c>
       <c r="F64" t="s" s="3">
+        <v>464</v>
+      </c>
+      <c r="G64" t="s" s="3">
         <v>465</v>
-      </c>
-      <c r="G64" t="s" s="3">
-        <v>466</v>
       </c>
       <c r="H64" s="4">
         <v>33445</v>
@@ -9019,10 +9016,10 @@
         <v>85999309011</v>
       </c>
       <c r="K64" t="s" s="3">
+        <v>466</v>
+      </c>
+      <c r="L64" t="s" s="3">
         <v>467</v>
-      </c>
-      <c r="L64" t="s" s="3">
-        <v>468</v>
       </c>
       <c r="M64" t="s" s="3">
         <v>325</v>
@@ -9045,7 +9042,7 @@
         <v>17</v>
       </c>
       <c r="B65" t="s" s="3">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C65" s="5">
         <v>12041987</v>
@@ -9057,10 +9054,10 @@
         <v>85996771484</v>
       </c>
       <c r="F65" t="s" s="3">
+        <v>469</v>
+      </c>
+      <c r="G65" t="s" s="3">
         <v>470</v>
-      </c>
-      <c r="G65" t="s" s="3">
-        <v>471</v>
       </c>
       <c r="H65" s="4">
         <v>32604</v>
@@ -9072,13 +9069,13 @@
         <v>85997863197</v>
       </c>
       <c r="K65" t="s" s="3">
+        <v>471</v>
+      </c>
+      <c r="L65" t="s" s="3">
         <v>472</v>
       </c>
-      <c r="L65" t="s" s="3">
-        <v>473</v>
-      </c>
       <c r="M65" t="s" s="3">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="N65" s="5">
         <v>60862040</v>
@@ -9098,7 +9095,7 @@
         <v>17</v>
       </c>
       <c r="B66" t="s" s="3">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C66" s="5">
         <v>17011986</v>
@@ -9110,10 +9107,10 @@
         <v>85988556000</v>
       </c>
       <c r="F66" t="s" s="3">
+        <v>474</v>
+      </c>
+      <c r="G66" t="s" s="3">
         <v>475</v>
-      </c>
-      <c r="G66" t="s" s="3">
-        <v>476</v>
       </c>
       <c r="H66" s="4">
         <v>32246</v>
@@ -9125,10 +9122,10 @@
         <v>85985029244</v>
       </c>
       <c r="K66" t="s" s="3">
+        <v>476</v>
+      </c>
+      <c r="L66" t="s" s="3">
         <v>477</v>
-      </c>
-      <c r="L66" t="s" s="3">
-        <v>478</v>
       </c>
       <c r="M66" t="s" s="3">
         <v>119</v>
@@ -9151,7 +9148,7 @@
         <v>17</v>
       </c>
       <c r="B67" t="s" s="3">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C67" s="4">
         <v>28489</v>
@@ -9163,10 +9160,10 @@
         <v>85999913730</v>
       </c>
       <c r="F67" t="s" s="3">
+        <v>479</v>
+      </c>
+      <c r="G67" t="s" s="3">
         <v>480</v>
-      </c>
-      <c r="G67" t="s" s="3">
-        <v>481</v>
       </c>
       <c r="H67" s="4">
         <v>27704</v>
@@ -9178,13 +9175,13 @@
         <v>85981026547</v>
       </c>
       <c r="K67" t="s" s="3">
+        <v>481</v>
+      </c>
+      <c r="L67" t="s" s="3">
         <v>482</v>
       </c>
-      <c r="L67" t="s" s="3">
+      <c r="M67" t="s" s="3">
         <v>483</v>
-      </c>
-      <c r="M67" t="s" s="3">
-        <v>484</v>
       </c>
       <c r="N67" s="5">
         <v>60415000</v>
@@ -9204,40 +9201,40 @@
         <v>17</v>
       </c>
       <c r="B68" t="s" s="3">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C68" s="4">
         <v>31244</v>
       </c>
       <c r="D68" t="s" s="7">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E68" s="5">
         <v>85992500948</v>
       </c>
       <c r="F68" t="s" s="3">
+        <v>486</v>
+      </c>
+      <c r="G68" t="s" s="3">
         <v>487</v>
-      </c>
-      <c r="G68" t="s" s="3">
-        <v>488</v>
       </c>
       <c r="H68" s="4">
         <v>29926</v>
       </c>
       <c r="I68" t="s" s="3">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="J68" s="6">
         <v>85991859506</v>
       </c>
       <c r="K68" t="s" s="3">
+        <v>489</v>
+      </c>
+      <c r="L68" t="s" s="3">
         <v>490</v>
       </c>
-      <c r="L68" t="s" s="3">
+      <c r="M68" t="s" s="3">
         <v>491</v>
-      </c>
-      <c r="M68" t="s" s="3">
-        <v>492</v>
       </c>
       <c r="N68" s="5">
         <v>60346245</v>
@@ -9257,7 +9254,7 @@
         <v>17</v>
       </c>
       <c r="B69" t="s" s="3">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C69" s="4">
         <v>30967</v>
@@ -9269,10 +9266,10 @@
         <v>85986360644</v>
       </c>
       <c r="F69" t="s" s="3">
+        <v>493</v>
+      </c>
+      <c r="G69" t="s" s="3">
         <v>494</v>
-      </c>
-      <c r="G69" t="s" s="3">
-        <v>495</v>
       </c>
       <c r="H69" s="4">
         <v>31977</v>
@@ -9284,13 +9281,13 @@
         <v>85986608828</v>
       </c>
       <c r="K69" t="s" s="3">
+        <v>495</v>
+      </c>
+      <c r="L69" t="s" s="3">
         <v>496</v>
       </c>
-      <c r="L69" t="s" s="3">
+      <c r="M69" t="s" s="3">
         <v>497</v>
-      </c>
-      <c r="M69" t="s" s="3">
-        <v>498</v>
       </c>
       <c r="N69" s="5">
         <v>60410230</v>
@@ -9310,22 +9307,22 @@
         <v>174</v>
       </c>
       <c r="B70" t="s" s="3">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C70" s="4">
         <v>31620</v>
       </c>
       <c r="D70" t="s" s="7">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E70" s="5">
         <v>85986084288</v>
       </c>
       <c r="F70" t="s" s="3">
+        <v>500</v>
+      </c>
+      <c r="G70" t="s" s="3">
         <v>501</v>
-      </c>
-      <c r="G70" t="s" s="3">
-        <v>502</v>
       </c>
       <c r="H70" s="4">
         <v>33563</v>
@@ -9337,13 +9334,13 @@
         <v>85987593001</v>
       </c>
       <c r="K70" t="s" s="3">
+        <v>502</v>
+      </c>
+      <c r="L70" t="s" s="3">
         <v>503</v>
       </c>
-      <c r="L70" t="s" s="3">
+      <c r="M70" t="s" s="3">
         <v>504</v>
-      </c>
-      <c r="M70" t="s" s="3">
-        <v>505</v>
       </c>
       <c r="N70" s="5">
         <v>60350484</v>
@@ -9360,10 +9357,10 @@
     </row>
     <row r="71" ht="16" customHeight="1">
       <c r="A71" t="s" s="3">
+        <v>505</v>
+      </c>
+      <c r="B71" t="s" s="3">
         <v>506</v>
-      </c>
-      <c r="B71" t="s" s="3">
-        <v>507</v>
       </c>
       <c r="C71" s="4">
         <v>31911</v>
@@ -9375,10 +9372,10 @@
         <v>85981350746</v>
       </c>
       <c r="F71" t="s" s="3">
+        <v>507</v>
+      </c>
+      <c r="G71" t="s" s="3">
         <v>508</v>
-      </c>
-      <c r="G71" t="s" s="3">
-        <v>509</v>
       </c>
       <c r="H71" s="4">
         <v>33476</v>
@@ -9390,13 +9387,13 @@
         <v>85998350900</v>
       </c>
       <c r="K71" t="s" s="3">
+        <v>509</v>
+      </c>
+      <c r="L71" t="s" s="3">
         <v>510</v>
       </c>
-      <c r="L71" t="s" s="3">
+      <c r="M71" t="s" s="3">
         <v>511</v>
-      </c>
-      <c r="M71" t="s" s="3">
-        <v>512</v>
       </c>
       <c r="N71" s="5">
         <v>61760000</v>
@@ -9416,7 +9413,7 @@
         <v>17</v>
       </c>
       <c r="B72" t="s" s="3">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C72" s="5">
         <v>12061981</v>
@@ -9428,10 +9425,10 @@
         <v>81994264606</v>
       </c>
       <c r="F72" t="s" s="3">
+        <v>513</v>
+      </c>
+      <c r="G72" t="s" s="3">
         <v>514</v>
-      </c>
-      <c r="G72" t="s" s="3">
-        <v>515</v>
       </c>
       <c r="H72" s="4">
         <v>29812</v>
@@ -9443,13 +9440,13 @@
         <v>81992731873</v>
       </c>
       <c r="K72" t="s" s="3">
+        <v>515</v>
+      </c>
+      <c r="L72" t="s" s="3">
         <v>516</v>
       </c>
-      <c r="L72" t="s" s="3">
+      <c r="M72" t="s" s="3">
         <v>517</v>
-      </c>
-      <c r="M72" t="s" s="3">
-        <v>518</v>
       </c>
       <c r="N72" s="5">
         <v>60822815</v>
@@ -9469,7 +9466,7 @@
         <v>17</v>
       </c>
       <c r="B73" t="s" s="3">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C73" s="4">
         <v>35476</v>
@@ -9481,10 +9478,10 @@
         <v>85987978141</v>
       </c>
       <c r="F73" t="s" s="3">
+        <v>519</v>
+      </c>
+      <c r="G73" t="s" s="3">
         <v>520</v>
-      </c>
-      <c r="G73" t="s" s="3">
-        <v>521</v>
       </c>
       <c r="H73" s="4">
         <v>36713</v>
@@ -9496,13 +9493,13 @@
         <v>85989053774</v>
       </c>
       <c r="K73" t="s" s="3">
+        <v>521</v>
+      </c>
+      <c r="L73" t="s" s="3">
         <v>522</v>
       </c>
-      <c r="L73" t="s" s="3">
+      <c r="M73" t="s" s="3">
         <v>523</v>
-      </c>
-      <c r="M73" t="s" s="3">
-        <v>524</v>
       </c>
       <c r="N73" s="5">
         <v>60521045</v>
@@ -9522,7 +9519,7 @@
         <v>17</v>
       </c>
       <c r="B74" t="s" s="3">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C74" s="4">
         <v>31324</v>
@@ -9534,10 +9531,10 @@
         <v>85996889476</v>
       </c>
       <c r="F74" t="s" s="3">
+        <v>525</v>
+      </c>
+      <c r="G74" t="s" s="3">
         <v>526</v>
-      </c>
-      <c r="G74" t="s" s="3">
-        <v>527</v>
       </c>
       <c r="H74" s="4">
         <v>28616</v>
@@ -9549,13 +9546,13 @@
         <v>85998600316</v>
       </c>
       <c r="K74" t="s" s="3">
+        <v>527</v>
+      </c>
+      <c r="L74" t="s" s="3">
         <v>528</v>
       </c>
-      <c r="L74" t="s" s="3">
+      <c r="M74" t="s" s="3">
         <v>529</v>
-      </c>
-      <c r="M74" t="s" s="3">
-        <v>530</v>
       </c>
       <c r="N74" s="5">
         <v>60748445</v>
@@ -9575,7 +9572,7 @@
         <v>174</v>
       </c>
       <c r="B75" t="s" s="3">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C75" s="5">
         <v>14011985</v>
@@ -9587,10 +9584,10 @@
         <v>85985134031</v>
       </c>
       <c r="F75" t="s" s="3">
+        <v>531</v>
+      </c>
+      <c r="G75" t="s" s="3">
         <v>532</v>
-      </c>
-      <c r="G75" t="s" s="3">
-        <v>533</v>
       </c>
       <c r="H75" s="4">
         <v>32408</v>
@@ -9602,13 +9599,13 @@
         <v>85981534031</v>
       </c>
       <c r="K75" t="s" s="3">
+        <v>533</v>
+      </c>
+      <c r="L75" t="s" s="3">
         <v>534</v>
       </c>
-      <c r="L75" t="s" s="3">
+      <c r="M75" t="s" s="3">
         <v>535</v>
-      </c>
-      <c r="M75" t="s" s="3">
-        <v>536</v>
       </c>
       <c r="N75" s="5">
         <v>61619230</v>
@@ -9628,7 +9625,7 @@
         <v>17</v>
       </c>
       <c r="B76" t="s" s="3">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C76" s="4">
         <v>31996</v>
@@ -9640,31 +9637,31 @@
         <v>85986042090</v>
       </c>
       <c r="F76" t="s" s="3">
+        <v>537</v>
+      </c>
+      <c r="G76" t="s" s="3">
         <v>538</v>
-      </c>
-      <c r="G76" t="s" s="3">
-        <v>539</v>
       </c>
       <c r="H76" s="4">
         <v>34266</v>
       </c>
       <c r="I76" t="s" s="3">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="J76" s="6">
         <v>85998446166</v>
       </c>
       <c r="K76" t="s" s="3">
+        <v>540</v>
+      </c>
+      <c r="L76" t="s" s="3">
         <v>541</v>
-      </c>
-      <c r="L76" t="s" s="3">
-        <v>542</v>
       </c>
       <c r="M76" t="s" s="3">
         <v>24</v>
       </c>
       <c r="N76" t="s" s="7">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="O76" t="s" s="7">
         <v>26</v>
@@ -9681,7 +9678,7 @@
         <v>17</v>
       </c>
       <c r="B77" t="s" s="3">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C77" s="4">
         <v>30524</v>
@@ -9693,10 +9690,10 @@
         <v>85989499493</v>
       </c>
       <c r="F77" t="s" s="3">
+        <v>544</v>
+      </c>
+      <c r="G77" t="s" s="3">
         <v>545</v>
-      </c>
-      <c r="G77" t="s" s="3">
-        <v>546</v>
       </c>
       <c r="H77" s="4">
         <v>29743</v>
@@ -9708,13 +9705,13 @@
         <v>85989338519</v>
       </c>
       <c r="K77" t="s" s="3">
+        <v>546</v>
+      </c>
+      <c r="L77" t="s" s="3">
         <v>547</v>
       </c>
-      <c r="L77" t="s" s="3">
+      <c r="M77" t="s" s="3">
         <v>548</v>
-      </c>
-      <c r="M77" t="s" s="3">
-        <v>549</v>
       </c>
       <c r="N77" s="5">
         <v>60713055</v>
@@ -9726,7 +9723,7 @@
         <v>173</v>
       </c>
       <c r="Q77" t="s" s="3">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="78" ht="16" customHeight="1">
@@ -9734,7 +9731,7 @@
         <v>17</v>
       </c>
       <c r="B78" t="s" s="3">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C78" s="4">
         <v>33545</v>
@@ -9743,13 +9740,13 @@
         <v>4405981337</v>
       </c>
       <c r="E78" t="s" s="7">
+        <v>551</v>
+      </c>
+      <c r="F78" t="s" s="3">
         <v>552</v>
       </c>
-      <c r="F78" t="s" s="3">
+      <c r="G78" t="s" s="3">
         <v>553</v>
-      </c>
-      <c r="G78" t="s" s="3">
-        <v>554</v>
       </c>
       <c r="H78" s="4">
         <v>36245</v>
@@ -9758,16 +9755,16 @@
         <v>7431633386</v>
       </c>
       <c r="J78" t="s" s="3">
+        <v>554</v>
+      </c>
+      <c r="K78" t="s" s="3">
         <v>555</v>
       </c>
-      <c r="K78" t="s" s="3">
+      <c r="L78" t="s" s="3">
         <v>556</v>
       </c>
-      <c r="L78" t="s" s="3">
+      <c r="M78" t="s" s="3">
         <v>557</v>
-      </c>
-      <c r="M78" t="s" s="3">
-        <v>558</v>
       </c>
       <c r="N78" s="5">
         <v>60872559</v>
@@ -9779,7 +9776,7 @@
         <v>113</v>
       </c>
       <c r="Q78" t="s" s="3">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="79" ht="16" customHeight="1">
@@ -9787,7 +9784,7 @@
         <v>17</v>
       </c>
       <c r="B79" t="s" s="3">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C79" s="4">
         <v>34879</v>
@@ -9799,10 +9796,10 @@
         <v>85996723356</v>
       </c>
       <c r="F79" t="s" s="3">
+        <v>559</v>
+      </c>
+      <c r="G79" t="s" s="3">
         <v>560</v>
-      </c>
-      <c r="G79" t="s" s="3">
-        <v>561</v>
       </c>
       <c r="H79" s="4">
         <v>35041</v>
@@ -9814,10 +9811,10 @@
         <v>85986365402</v>
       </c>
       <c r="K79" t="s" s="3">
+        <v>561</v>
+      </c>
+      <c r="L79" t="s" s="3">
         <v>562</v>
-      </c>
-      <c r="L79" t="s" s="3">
-        <v>563</v>
       </c>
       <c r="M79" t="s" s="3">
         <v>286</v>
@@ -9832,7 +9829,7 @@
         <v>113</v>
       </c>
       <c r="Q79" t="s" s="3">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="80" ht="16" customHeight="1">
@@ -9840,43 +9837,43 @@
         <v>174</v>
       </c>
       <c r="B80" t="s" s="3">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C80" s="4">
         <v>31837</v>
       </c>
       <c r="D80" t="s" s="7">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E80" s="5">
         <v>85992755046</v>
       </c>
       <c r="F80" t="s" s="3">
+        <v>565</v>
+      </c>
+      <c r="G80" t="s" s="3">
         <v>566</v>
-      </c>
-      <c r="G80" t="s" s="3">
-        <v>567</v>
       </c>
       <c r="H80" s="4">
         <v>30147</v>
       </c>
       <c r="I80" t="s" s="3">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="J80" s="6">
         <v>85981750770</v>
       </c>
       <c r="K80" t="s" s="3">
+        <v>568</v>
+      </c>
+      <c r="L80" t="s" s="3">
         <v>569</v>
       </c>
-      <c r="L80" t="s" s="3">
+      <c r="M80" t="s" s="3">
         <v>570</v>
       </c>
-      <c r="M80" t="s" s="3">
+      <c r="N80" t="s" s="7">
         <v>571</v>
-      </c>
-      <c r="N80" t="s" s="7">
-        <v>572</v>
       </c>
       <c r="O80" t="s" s="7">
         <v>26</v>
@@ -9885,7 +9882,7 @@
         <v>27</v>
       </c>
       <c r="Q80" t="s" s="3">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="81" ht="16" customHeight="1">
@@ -9893,43 +9890,43 @@
         <v>17</v>
       </c>
       <c r="B81" t="s" s="3">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C81" s="4">
         <v>33661</v>
       </c>
       <c r="D81" t="s" s="7">
+        <v>573</v>
+      </c>
+      <c r="E81" t="s" s="7">
         <v>574</v>
       </c>
-      <c r="E81" t="s" s="7">
+      <c r="F81" t="s" s="3">
         <v>575</v>
       </c>
-      <c r="F81" t="s" s="3">
+      <c r="G81" t="s" s="3">
         <v>576</v>
-      </c>
-      <c r="G81" t="s" s="3">
-        <v>577</v>
       </c>
       <c r="H81" s="4">
         <v>30529</v>
       </c>
       <c r="I81" t="s" s="3">
+        <v>577</v>
+      </c>
+      <c r="J81" t="s" s="3">
         <v>578</v>
       </c>
-      <c r="J81" t="s" s="3">
+      <c r="K81" t="s" s="3">
         <v>579</v>
       </c>
-      <c r="K81" t="s" s="3">
+      <c r="L81" t="s" s="3">
         <v>580</v>
       </c>
-      <c r="L81" t="s" s="3">
+      <c r="M81" t="s" s="3">
+        <v>342</v>
+      </c>
+      <c r="N81" t="s" s="7">
         <v>581</v>
-      </c>
-      <c r="M81" t="s" s="3">
-        <v>343</v>
-      </c>
-      <c r="N81" t="s" s="7">
-        <v>582</v>
       </c>
       <c r="O81" t="s" s="7">
         <v>26</v>
@@ -9938,7 +9935,7 @@
         <v>113</v>
       </c>
       <c r="Q81" t="s" s="3">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="82" ht="16" customHeight="1">
@@ -9946,7 +9943,7 @@
         <v>301</v>
       </c>
       <c r="B82" t="s" s="3">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C82" s="5">
         <v>3051999</v>
@@ -9958,10 +9955,10 @@
         <v>85986454182</v>
       </c>
       <c r="F82" t="s" s="3">
+        <v>583</v>
+      </c>
+      <c r="G82" t="s" s="3">
         <v>584</v>
-      </c>
-      <c r="G82" t="s" s="3">
-        <v>585</v>
       </c>
       <c r="H82" s="4">
         <v>35364</v>
@@ -9973,13 +9970,13 @@
         <v>85996967090</v>
       </c>
       <c r="K82" t="s" s="3">
+        <v>585</v>
+      </c>
+      <c r="L82" t="s" s="3">
         <v>586</v>
       </c>
-      <c r="L82" t="s" s="3">
-        <v>587</v>
-      </c>
       <c r="M82" t="s" s="3">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="N82" s="5">
         <v>61910000</v>
@@ -9991,7 +9988,7 @@
         <v>113</v>
       </c>
       <c r="Q82" t="s" s="3">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="83" ht="16" customHeight="1">
@@ -9999,7 +9996,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s" s="3">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C83" s="5">
         <v>23071992</v>
@@ -10011,10 +10008,10 @@
         <v>85996358143</v>
       </c>
       <c r="F83" t="s" s="3">
+        <v>588</v>
+      </c>
+      <c r="G83" t="s" s="3">
         <v>589</v>
-      </c>
-      <c r="G83" t="s" s="3">
-        <v>590</v>
       </c>
       <c r="H83" s="4">
         <v>34218</v>
@@ -10026,13 +10023,13 @@
         <v>85994047761</v>
       </c>
       <c r="K83" t="s" s="3">
+        <v>590</v>
+      </c>
+      <c r="L83" t="s" s="3">
         <v>591</v>
       </c>
-      <c r="L83" t="s" s="3">
+      <c r="M83" t="s" s="3">
         <v>592</v>
-      </c>
-      <c r="M83" t="s" s="3">
-        <v>593</v>
       </c>
       <c r="N83" s="5">
         <v>60731532</v>
@@ -10044,7 +10041,7 @@
         <v>113</v>
       </c>
       <c r="Q83" t="s" s="3">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="84" ht="16" customHeight="1">
@@ -10052,7 +10049,7 @@
         <v>17</v>
       </c>
       <c r="B84" t="s" s="3">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C84" s="5">
         <v>14031981</v>
@@ -10064,10 +10061,10 @@
         <v>85999817939</v>
       </c>
       <c r="F84" t="s" s="3">
+        <v>594</v>
+      </c>
+      <c r="G84" t="s" s="3">
         <v>595</v>
-      </c>
-      <c r="G84" t="s" s="3">
-        <v>596</v>
       </c>
       <c r="H84" s="4">
         <v>30656</v>
@@ -10079,13 +10076,13 @@
         <v>85981117939</v>
       </c>
       <c r="K84" t="s" s="3">
+        <v>596</v>
+      </c>
+      <c r="L84" t="s" s="3">
         <v>597</v>
       </c>
-      <c r="L84" t="s" s="3">
+      <c r="M84" t="s" s="3">
         <v>598</v>
-      </c>
-      <c r="M84" t="s" s="3">
-        <v>599</v>
       </c>
       <c r="N84" s="5">
         <v>60810070</v>
@@ -10097,7 +10094,7 @@
         <v>41</v>
       </c>
       <c r="Q84" t="s" s="3">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="85" ht="16" customHeight="1">
@@ -10105,7 +10102,7 @@
         <v>174</v>
       </c>
       <c r="B85" t="s" s="3">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C85" s="5">
         <v>3061987</v>
@@ -10114,13 +10111,13 @@
         <v>2644610370</v>
       </c>
       <c r="E85" t="s" s="7">
+        <v>600</v>
+      </c>
+      <c r="F85" t="s" s="3">
         <v>601</v>
       </c>
-      <c r="F85" t="s" s="3">
+      <c r="G85" t="s" s="3">
         <v>602</v>
-      </c>
-      <c r="G85" t="s" s="3">
-        <v>603</v>
       </c>
       <c r="H85" s="4">
         <v>31147</v>
@@ -10129,16 +10126,16 @@
         <v>746912366</v>
       </c>
       <c r="J85" t="s" s="3">
+        <v>603</v>
+      </c>
+      <c r="K85" t="s" s="3">
         <v>604</v>
       </c>
-      <c r="K85" t="s" s="3">
+      <c r="L85" t="s" s="3">
         <v>605</v>
       </c>
-      <c r="L85" t="s" s="3">
+      <c r="M85" t="s" s="3">
         <v>606</v>
-      </c>
-      <c r="M85" t="s" s="3">
-        <v>607</v>
       </c>
       <c r="N85" s="5">
         <v>61629205</v>
@@ -10150,7 +10147,7 @@
         <v>27</v>
       </c>
       <c r="Q85" t="s" s="3">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="86" ht="16" customHeight="1">
@@ -10158,7 +10155,7 @@
         <v>65</v>
       </c>
       <c r="B86" t="s" s="3">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C86" s="4">
         <v>34829</v>
@@ -10170,10 +10167,10 @@
         <v>85984007430</v>
       </c>
       <c r="F86" t="s" s="3">
+        <v>608</v>
+      </c>
+      <c r="G86" t="s" s="3">
         <v>609</v>
-      </c>
-      <c r="G86" t="s" s="3">
-        <v>610</v>
       </c>
       <c r="H86" s="4">
         <v>36225</v>
@@ -10185,13 +10182,13 @@
         <v>8586827586</v>
       </c>
       <c r="K86" t="s" s="3">
+        <v>610</v>
+      </c>
+      <c r="L86" t="s" s="3">
         <v>611</v>
       </c>
-      <c r="L86" t="s" s="3">
+      <c r="M86" t="s" s="3">
         <v>612</v>
-      </c>
-      <c r="M86" t="s" s="3">
-        <v>613</v>
       </c>
       <c r="N86" s="5">
         <v>61770210</v>
@@ -10200,10 +10197,10 @@
         <v>40</v>
       </c>
       <c r="P86" t="s" s="7">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="Q86" t="s" s="3">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="87" ht="16" customHeight="1">
@@ -10211,7 +10208,7 @@
         <v>17</v>
       </c>
       <c r="B87" t="s" s="3">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C87" s="5">
         <v>18091989</v>
@@ -10223,10 +10220,10 @@
         <v>85987834711</v>
       </c>
       <c r="F87" t="s" s="3">
+        <v>615</v>
+      </c>
+      <c r="G87" t="s" s="3">
         <v>616</v>
-      </c>
-      <c r="G87" t="s" s="3">
-        <v>617</v>
       </c>
       <c r="H87" s="4">
         <v>32151</v>
@@ -10238,16 +10235,16 @@
         <v>85987526198</v>
       </c>
       <c r="K87" t="s" s="3">
+        <v>617</v>
+      </c>
+      <c r="L87" t="s" s="3">
         <v>618</v>
-      </c>
-      <c r="L87" t="s" s="3">
-        <v>619</v>
       </c>
       <c r="M87" t="s" s="3">
         <v>286</v>
       </c>
       <c r="N87" t="s" s="7">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="O87" t="s" s="7">
         <v>26</v>
@@ -10256,7 +10253,7 @@
         <v>113</v>
       </c>
       <c r="Q87" t="s" s="3">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="88" ht="16" customHeight="1">
@@ -10264,7 +10261,7 @@
         <v>17</v>
       </c>
       <c r="B88" t="s" s="3">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C88" s="4">
         <v>31875</v>
@@ -10273,13 +10270,13 @@
         <v>84518014553</v>
       </c>
       <c r="E88" t="s" s="7">
+        <v>621</v>
+      </c>
+      <c r="F88" t="s" s="3">
         <v>622</v>
       </c>
-      <c r="F88" t="s" s="3">
+      <c r="G88" t="s" s="3">
         <v>623</v>
-      </c>
-      <c r="G88" t="s" s="3">
-        <v>624</v>
       </c>
       <c r="H88" s="4">
         <v>29617</v>
@@ -10288,13 +10285,13 @@
         <v>63185024320</v>
       </c>
       <c r="J88" t="s" s="3">
+        <v>624</v>
+      </c>
+      <c r="K88" t="s" s="3">
         <v>625</v>
       </c>
-      <c r="K88" t="s" s="3">
+      <c r="L88" t="s" s="3">
         <v>626</v>
-      </c>
-      <c r="L88" t="s" s="3">
-        <v>627</v>
       </c>
       <c r="M88" t="s" s="3">
         <v>325</v>
@@ -10309,7 +10306,7 @@
         <v>27</v>
       </c>
       <c r="Q88" t="s" s="3">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="89" ht="16" customHeight="1">
@@ -10317,7 +10314,7 @@
         <v>65</v>
       </c>
       <c r="B89" t="s" s="3">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C89" s="5">
         <v>29051988</v>
@@ -10329,10 +10326,10 @@
         <v>85987427727</v>
       </c>
       <c r="F89" t="s" s="3">
+        <v>628</v>
+      </c>
+      <c r="G89" t="s" s="3">
         <v>629</v>
-      </c>
-      <c r="G89" t="s" s="3">
-        <v>630</v>
       </c>
       <c r="H89" s="4">
         <v>35164</v>
@@ -10344,10 +10341,10 @@
         <v>85991126568</v>
       </c>
       <c r="K89" t="s" s="3">
+        <v>630</v>
+      </c>
+      <c r="L89" t="s" s="3">
         <v>631</v>
-      </c>
-      <c r="L89" t="s" s="3">
-        <v>632</v>
       </c>
       <c r="M89" t="s" s="3">
         <v>293</v>
@@ -10362,7 +10359,7 @@
         <v>173</v>
       </c>
       <c r="Q89" t="s" s="3">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="90" ht="16" customHeight="1">
@@ -10370,7 +10367,7 @@
         <v>17</v>
       </c>
       <c r="B90" t="s" s="3">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C90" s="5">
         <v>13061988</v>
@@ -10382,10 +10379,10 @@
         <v>85988506160</v>
       </c>
       <c r="F90" t="s" s="3">
+        <v>633</v>
+      </c>
+      <c r="G90" t="s" s="3">
         <v>634</v>
-      </c>
-      <c r="G90" t="s" s="3">
-        <v>635</v>
       </c>
       <c r="H90" s="4">
         <v>32810</v>
@@ -10397,13 +10394,13 @@
         <v>85996729627</v>
       </c>
       <c r="K90" t="s" s="3">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="L90" t="s" s="3">
+        <v>635</v>
+      </c>
+      <c r="M90" t="s" s="3">
         <v>636</v>
-      </c>
-      <c r="M90" t="s" s="3">
-        <v>637</v>
       </c>
       <c r="N90" s="5">
         <v>60670012</v>
@@ -10415,7 +10412,7 @@
         <v>41</v>
       </c>
       <c r="Q90" t="s" s="3">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="91" ht="16" customHeight="1">
@@ -10423,7 +10420,7 @@
         <v>17</v>
       </c>
       <c r="B91" t="s" s="3">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C91" s="4">
         <v>33420</v>
@@ -10435,7 +10432,7 @@
         <v>85987488622</v>
       </c>
       <c r="F91" t="s" s="3">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G91" t="s" s="3">
         <v>61</v>
@@ -10450,13 +10447,13 @@
         <v>85998579758</v>
       </c>
       <c r="K91" t="s" s="3">
+        <v>639</v>
+      </c>
+      <c r="L91" t="s" s="3">
         <v>640</v>
       </c>
-      <c r="L91" t="s" s="3">
+      <c r="M91" t="s" s="3">
         <v>641</v>
-      </c>
-      <c r="M91" t="s" s="3">
-        <v>642</v>
       </c>
       <c r="N91" s="5">
         <v>60821430</v>
@@ -10476,7 +10473,7 @@
         <v>17</v>
       </c>
       <c r="B92" t="s" s="3">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C92" s="4">
         <v>28721</v>
@@ -10485,13 +10482,13 @@
         <v>78977533368</v>
       </c>
       <c r="E92" t="s" s="7">
+        <v>643</v>
+      </c>
+      <c r="F92" t="s" s="3">
         <v>644</v>
       </c>
-      <c r="F92" t="s" s="3">
+      <c r="G92" t="s" s="3">
         <v>645</v>
-      </c>
-      <c r="G92" t="s" s="3">
-        <v>646</v>
       </c>
       <c r="H92" s="4">
         <v>29923</v>
@@ -10500,19 +10497,19 @@
         <v>66302455391</v>
       </c>
       <c r="J92" t="s" s="3">
+        <v>646</v>
+      </c>
+      <c r="K92" t="s" s="3">
         <v>647</v>
       </c>
-      <c r="K92" t="s" s="3">
+      <c r="L92" t="s" s="3">
         <v>648</v>
-      </c>
-      <c r="L92" t="s" s="3">
-        <v>649</v>
       </c>
       <c r="M92" t="s" s="3">
         <v>64</v>
       </c>
       <c r="N92" t="s" s="7">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="O92" t="s" s="7">
         <v>26</v>
@@ -10529,10 +10526,10 @@
         <v>17</v>
       </c>
       <c r="B93" t="s" s="3">
+        <v>650</v>
+      </c>
+      <c r="C93" t="s" s="7">
         <v>651</v>
-      </c>
-      <c r="C93" t="s" s="7">
-        <v>652</v>
       </c>
       <c r="D93" s="5">
         <v>3931779394</v>
@@ -10541,13 +10538,13 @@
         <v>988112454</v>
       </c>
       <c r="F93" t="s" s="3">
+        <v>652</v>
+      </c>
+      <c r="G93" t="s" s="3">
         <v>653</v>
       </c>
-      <c r="G93" t="s" s="3">
+      <c r="H93" t="s" s="7">
         <v>654</v>
-      </c>
-      <c r="H93" t="s" s="7">
-        <v>655</v>
       </c>
       <c r="I93" s="6">
         <v>4519554390</v>
@@ -10556,13 +10553,13 @@
         <v>85984175816</v>
       </c>
       <c r="K93" t="s" s="3">
+        <v>655</v>
+      </c>
+      <c r="L93" t="s" s="3">
         <v>656</v>
       </c>
-      <c r="L93" t="s" s="3">
-        <v>657</v>
-      </c>
       <c r="M93" t="s" s="3">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="N93" s="5">
         <v>60360220</v>
@@ -10571,7 +10568,7 @@
         <v>26</v>
       </c>
       <c r="P93" t="s" s="7">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Q93" t="s" s="3">
         <v>73</v>
@@ -10582,7 +10579,7 @@
         <v>17</v>
       </c>
       <c r="B94" t="s" s="3">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C94" s="4">
         <v>30130</v>
@@ -10594,10 +10591,10 @@
         <v>85987950907</v>
       </c>
       <c r="F94" t="s" s="3">
+        <v>658</v>
+      </c>
+      <c r="G94" t="s" s="3">
         <v>659</v>
-      </c>
-      <c r="G94" t="s" s="3">
-        <v>660</v>
       </c>
       <c r="H94" s="4">
         <v>33922</v>
@@ -10609,10 +10606,10 @@
         <v>85988501085</v>
       </c>
       <c r="K94" t="s" s="3">
+        <v>660</v>
+      </c>
+      <c r="L94" t="s" s="3">
         <v>661</v>
-      </c>
-      <c r="L94" t="s" s="3">
-        <v>662</v>
       </c>
       <c r="M94" t="s" s="3">
         <v>201</v>
@@ -10635,7 +10632,7 @@
         <v>17</v>
       </c>
       <c r="B95" t="s" s="3">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C95" s="4">
         <v>33449</v>
@@ -10647,10 +10644,10 @@
         <v>85987390001</v>
       </c>
       <c r="F95" t="s" s="3">
+        <v>663</v>
+      </c>
+      <c r="G95" t="s" s="3">
         <v>664</v>
-      </c>
-      <c r="G95" t="s" s="3">
-        <v>665</v>
       </c>
       <c r="H95" s="4">
         <v>33903</v>
@@ -10662,10 +10659,10 @@
         <v>85996181490</v>
       </c>
       <c r="K95" t="s" s="3">
+        <v>665</v>
+      </c>
+      <c r="L95" t="s" s="3">
         <v>666</v>
-      </c>
-      <c r="L95" t="s" s="3">
-        <v>667</v>
       </c>
       <c r="M95" t="s" s="3">
         <v>286</v>
@@ -10688,7 +10685,7 @@
         <v>17</v>
       </c>
       <c r="B96" t="s" s="3">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C96" s="4">
         <v>35089</v>
@@ -10700,13 +10697,13 @@
         <v>85992311183</v>
       </c>
       <c r="F96" t="s" s="3">
+        <v>668</v>
+      </c>
+      <c r="G96" t="s" s="3">
         <v>669</v>
       </c>
-      <c r="G96" t="s" s="3">
+      <c r="H96" t="s" s="7">
         <v>670</v>
-      </c>
-      <c r="H96" t="s" s="7">
-        <v>671</v>
       </c>
       <c r="I96" s="6">
         <v>8636143373</v>
@@ -10715,13 +10712,13 @@
         <v>85996398304</v>
       </c>
       <c r="K96" t="s" s="3">
+        <v>671</v>
+      </c>
+      <c r="L96" t="s" s="3">
         <v>672</v>
       </c>
-      <c r="L96" t="s" s="3">
-        <v>673</v>
-      </c>
       <c r="M96" t="s" s="3">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="N96" s="5">
         <v>60541646</v>
@@ -10741,7 +10738,7 @@
         <v>17</v>
       </c>
       <c r="B97" t="s" s="3">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C97" s="4">
         <v>29617</v>
@@ -10753,10 +10750,10 @@
         <v>85988271294</v>
       </c>
       <c r="F97" t="s" s="3">
+        <v>674</v>
+      </c>
+      <c r="G97" t="s" s="3">
         <v>675</v>
-      </c>
-      <c r="G97" t="s" s="3">
-        <v>676</v>
       </c>
       <c r="H97" s="4">
         <v>30550</v>
@@ -10768,13 +10765,13 @@
         <v>85992364121</v>
       </c>
       <c r="K97" t="s" s="3">
+        <v>676</v>
+      </c>
+      <c r="L97" t="s" s="3">
         <v>677</v>
       </c>
-      <c r="L97" t="s" s="3">
-        <v>678</v>
-      </c>
       <c r="M97" t="s" s="3">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="N97" s="5">
         <v>60347110</v>
@@ -10794,7 +10791,7 @@
         <v>17</v>
       </c>
       <c r="B98" t="s" s="3">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C98" s="5">
         <v>18041990</v>
@@ -10806,10 +10803,10 @@
         <v>85996185519</v>
       </c>
       <c r="F98" t="s" s="3">
+        <v>679</v>
+      </c>
+      <c r="G98" t="s" s="3">
         <v>680</v>
-      </c>
-      <c r="G98" t="s" s="3">
-        <v>681</v>
       </c>
       <c r="H98" s="4">
         <v>35553</v>
@@ -10821,13 +10818,13 @@
         <v>85996185519</v>
       </c>
       <c r="K98" t="s" s="3">
+        <v>681</v>
+      </c>
+      <c r="L98" t="s" s="3">
         <v>682</v>
       </c>
-      <c r="L98" t="s" s="3">
+      <c r="M98" t="s" s="3">
         <v>683</v>
-      </c>
-      <c r="M98" t="s" s="3">
-        <v>684</v>
       </c>
       <c r="N98" s="5">
         <v>60511005</v>
@@ -10847,7 +10844,7 @@
         <v>17</v>
       </c>
       <c r="B99" t="s" s="3">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C99" s="5">
         <v>5041982</v>
@@ -10859,10 +10856,10 @@
         <v>85984391471</v>
       </c>
       <c r="F99" t="s" s="3">
+        <v>685</v>
+      </c>
+      <c r="G99" t="s" s="3">
         <v>686</v>
-      </c>
-      <c r="G99" t="s" s="3">
-        <v>687</v>
       </c>
       <c r="H99" s="4">
         <v>30981</v>
@@ -10874,13 +10871,13 @@
         <v>85985388247</v>
       </c>
       <c r="K99" t="s" s="3">
+        <v>687</v>
+      </c>
+      <c r="L99" t="s" s="3">
         <v>688</v>
       </c>
-      <c r="L99" t="s" s="3">
-        <v>689</v>
-      </c>
       <c r="M99" t="s" s="3">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="N99" s="5">
         <v>60841820</v>
@@ -10889,7 +10886,7 @@
         <v>26</v>
       </c>
       <c r="P99" t="s" s="7">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Q99" t="s" s="3">
         <v>28</v>
@@ -10900,22 +10897,22 @@
         <v>17</v>
       </c>
       <c r="B100" t="s" s="3">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C100" s="4">
         <v>31818</v>
       </c>
       <c r="D100" t="s" s="7">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E100" s="5">
         <v>85991774554</v>
       </c>
       <c r="F100" t="s" s="3">
+        <v>691</v>
+      </c>
+      <c r="G100" t="s" s="3">
         <v>692</v>
-      </c>
-      <c r="G100" t="s" s="3">
-        <v>693</v>
       </c>
       <c r="H100" s="4">
         <v>31680</v>
@@ -10927,13 +10924,13 @@
         <v>85997374125</v>
       </c>
       <c r="K100" t="s" s="3">
+        <v>693</v>
+      </c>
+      <c r="L100" t="s" s="3">
         <v>694</v>
       </c>
-      <c r="L100" t="s" s="3">
+      <c r="M100" t="s" s="3">
         <v>695</v>
-      </c>
-      <c r="M100" t="s" s="3">
-        <v>696</v>
       </c>
       <c r="N100" s="5">
         <v>60525310</v>
@@ -10953,7 +10950,7 @@
         <v>17</v>
       </c>
       <c r="B101" t="s" s="3">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C101" s="4">
         <v>34446</v>
@@ -10965,10 +10962,10 @@
         <v>85999248414</v>
       </c>
       <c r="F101" t="s" s="3">
+        <v>697</v>
+      </c>
+      <c r="G101" t="s" s="3">
         <v>698</v>
-      </c>
-      <c r="G101" t="s" s="3">
-        <v>699</v>
       </c>
       <c r="H101" s="4">
         <v>35544</v>
@@ -10980,13 +10977,13 @@
         <v>85997308395</v>
       </c>
       <c r="K101" t="s" s="3">
+        <v>699</v>
+      </c>
+      <c r="L101" t="s" s="3">
         <v>700</v>
       </c>
-      <c r="L101" t="s" s="3">
+      <c r="M101" t="s" s="3">
         <v>701</v>
-      </c>
-      <c r="M101" t="s" s="3">
-        <v>702</v>
       </c>
       <c r="N101" s="5">
         <v>60025002</v>
@@ -11006,7 +11003,7 @@
         <v>17</v>
       </c>
       <c r="B102" t="s" s="3">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C102" s="4">
         <v>27275</v>
@@ -11018,10 +11015,10 @@
         <v>85991420114</v>
       </c>
       <c r="F102" t="s" s="3">
+        <v>703</v>
+      </c>
+      <c r="G102" t="s" s="3">
         <v>704</v>
-      </c>
-      <c r="G102" t="s" s="3">
-        <v>705</v>
       </c>
       <c r="H102" s="4">
         <v>108979</v>
@@ -11033,13 +11030,13 @@
         <v>85991420114</v>
       </c>
       <c r="K102" t="s" s="3">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="L102" t="s" s="3">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="M102" t="s" s="3">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="N102" s="5">
         <v>60822690</v>
@@ -11048,7 +11045,7 @@
         <v>58</v>
       </c>
       <c r="P102" t="s" s="7">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Q102" t="s" s="3">
         <v>28</v>
@@ -11059,7 +11056,7 @@
         <v>17</v>
       </c>
       <c r="B103" t="s" s="3">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C103" s="4">
         <v>21974</v>
@@ -11071,10 +11068,10 @@
         <v>85999344152</v>
       </c>
       <c r="F103" t="s" s="3">
+        <v>707</v>
+      </c>
+      <c r="G103" t="s" s="3">
         <v>708</v>
-      </c>
-      <c r="G103" t="s" s="3">
-        <v>709</v>
       </c>
       <c r="H103" s="4">
         <v>22100</v>
@@ -11086,13 +11083,13 @@
         <v>85988352036</v>
       </c>
       <c r="K103" t="s" s="3">
+        <v>709</v>
+      </c>
+      <c r="L103" t="s" s="3">
         <v>710</v>
       </c>
-      <c r="L103" t="s" s="3">
+      <c r="M103" t="s" s="3">
         <v>711</v>
-      </c>
-      <c r="M103" t="s" s="3">
-        <v>712</v>
       </c>
       <c r="N103" s="5">
         <v>60712005</v>
@@ -11112,7 +11109,7 @@
         <v>17</v>
       </c>
       <c r="B104" t="s" s="3">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C104" s="4">
         <v>31973</v>
@@ -11124,10 +11121,10 @@
         <v>85999005872</v>
       </c>
       <c r="F104" t="s" s="3">
+        <v>713</v>
+      </c>
+      <c r="G104" t="s" s="3">
         <v>714</v>
-      </c>
-      <c r="G104" t="s" s="3">
-        <v>715</v>
       </c>
       <c r="H104" s="4">
         <v>36196</v>
@@ -11139,16 +11136,16 @@
         <v>85984114131</v>
       </c>
       <c r="K104" t="s" s="3">
+        <v>715</v>
+      </c>
+      <c r="L104" t="s" s="3">
         <v>716</v>
       </c>
-      <c r="L104" t="s" s="3">
+      <c r="M104" t="s" s="3">
         <v>717</v>
       </c>
-      <c r="M104" t="s" s="3">
+      <c r="N104" t="s" s="7">
         <v>718</v>
-      </c>
-      <c r="N104" t="s" s="7">
-        <v>719</v>
       </c>
       <c r="O104" t="s" s="7">
         <v>26</v>
@@ -11165,7 +11162,7 @@
         <v>17</v>
       </c>
       <c r="B105" t="s" s="3">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C105" s="4">
         <v>31731</v>
@@ -11177,10 +11174,10 @@
         <v>85987344955</v>
       </c>
       <c r="F105" t="s" s="3">
+        <v>720</v>
+      </c>
+      <c r="G105" t="s" s="3">
         <v>721</v>
-      </c>
-      <c r="G105" t="s" s="3">
-        <v>722</v>
       </c>
       <c r="H105" s="4">
         <v>34041</v>
@@ -11192,10 +11189,10 @@
         <v>85988349303</v>
       </c>
       <c r="K105" t="s" s="3">
+        <v>722</v>
+      </c>
+      <c r="L105" t="s" s="3">
         <v>723</v>
-      </c>
-      <c r="L105" t="s" s="3">
-        <v>724</v>
       </c>
       <c r="M105" t="s" s="3">
         <v>105</v>
@@ -11207,7 +11204,7 @@
         <v>40</v>
       </c>
       <c r="P105" t="s" s="7">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="Q105" t="s" s="3">
         <v>92</v>
@@ -11218,7 +11215,7 @@
         <v>17</v>
       </c>
       <c r="B106" t="s" s="3">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C106" s="4">
         <v>34926</v>
@@ -11230,10 +11227,10 @@
         <v>85985627162</v>
       </c>
       <c r="F106" t="s" s="3">
+        <v>725</v>
+      </c>
+      <c r="G106" t="s" s="3">
         <v>726</v>
-      </c>
-      <c r="G106" t="s" s="3">
-        <v>727</v>
       </c>
       <c r="H106" s="4">
         <v>33780</v>
@@ -11245,13 +11242,13 @@
         <v>85987314749</v>
       </c>
       <c r="K106" t="s" s="3">
+        <v>727</v>
+      </c>
+      <c r="L106" t="s" s="3">
         <v>728</v>
       </c>
-      <c r="L106" t="s" s="3">
-        <v>729</v>
-      </c>
       <c r="M106" t="s" s="3">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="N106" s="5">
         <v>60867470</v>
@@ -11271,22 +11268,22 @@
         <v>43</v>
       </c>
       <c r="B107" t="s" s="3">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C107" s="4">
         <v>24999</v>
       </c>
       <c r="D107" t="s" s="7">
+        <v>730</v>
+      </c>
+      <c r="E107" t="s" s="7">
         <v>731</v>
       </c>
-      <c r="E107" t="s" s="7">
+      <c r="F107" t="s" s="3">
         <v>732</v>
       </c>
-      <c r="F107" t="s" s="3">
+      <c r="G107" t="s" s="3">
         <v>733</v>
-      </c>
-      <c r="G107" t="s" s="3">
-        <v>734</v>
       </c>
       <c r="H107" s="4">
         <v>26854</v>
@@ -11295,16 +11292,16 @@
         <v>48069710306</v>
       </c>
       <c r="J107" t="s" s="3">
+        <v>734</v>
+      </c>
+      <c r="K107" t="s" s="3">
         <v>735</v>
       </c>
-      <c r="K107" t="s" s="3">
+      <c r="L107" t="s" s="3">
         <v>736</v>
       </c>
-      <c r="L107" t="s" s="3">
+      <c r="M107" t="s" s="3">
         <v>737</v>
-      </c>
-      <c r="M107" t="s" s="3">
-        <v>738</v>
       </c>
       <c r="N107" s="5">
         <v>61700000</v>
@@ -11324,22 +11321,22 @@
         <v>17</v>
       </c>
       <c r="B108" t="s" s="3">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C108" s="4">
         <v>32648</v>
       </c>
       <c r="D108" t="s" s="7">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E108" s="5">
         <v>85996205011</v>
       </c>
       <c r="F108" t="s" s="3">
+        <v>740</v>
+      </c>
+      <c r="G108" t="s" s="3">
         <v>741</v>
-      </c>
-      <c r="G108" t="s" s="3">
-        <v>742</v>
       </c>
       <c r="H108" s="4">
         <v>30034</v>
@@ -11351,16 +11348,16 @@
         <v>85997415011</v>
       </c>
       <c r="K108" t="s" s="3">
+        <v>742</v>
+      </c>
+      <c r="L108" t="s" s="3">
         <v>743</v>
-      </c>
-      <c r="L108" t="s" s="3">
-        <v>744</v>
       </c>
       <c r="M108" t="s" s="3">
         <v>24</v>
       </c>
       <c r="N108" t="s" s="7">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="O108" t="s" s="7">
         <v>40</v>
@@ -11377,40 +11374,40 @@
         <v>17</v>
       </c>
       <c r="B109" t="s" s="3">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C109" s="4">
         <v>26657</v>
       </c>
       <c r="D109" t="s" s="7">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E109" s="5">
         <v>85999850131</v>
       </c>
       <c r="F109" t="s" s="3">
+        <v>747</v>
+      </c>
+      <c r="G109" t="s" s="3">
         <v>748</v>
-      </c>
-      <c r="G109" t="s" s="3">
-        <v>749</v>
       </c>
       <c r="H109" s="4">
         <v>26385</v>
       </c>
       <c r="I109" t="s" s="3">
+        <v>749</v>
+      </c>
+      <c r="J109" t="s" s="3">
         <v>750</v>
       </c>
-      <c r="J109" t="s" s="3">
+      <c r="K109" t="s" s="3">
         <v>751</v>
       </c>
-      <c r="K109" t="s" s="3">
+      <c r="L109" t="s" s="3">
         <v>752</v>
       </c>
-      <c r="L109" t="s" s="3">
+      <c r="M109" t="s" s="3">
         <v>753</v>
-      </c>
-      <c r="M109" t="s" s="3">
-        <v>754</v>
       </c>
       <c r="N109" s="8">
         <v>60511445</v>
@@ -11430,7 +11427,7 @@
         <v>17</v>
       </c>
       <c r="B110" t="s" s="3">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C110" s="4">
         <v>33917</v>
@@ -11442,10 +11439,10 @@
         <v>85997686968</v>
       </c>
       <c r="F110" t="s" s="3">
+        <v>755</v>
+      </c>
+      <c r="G110" t="s" s="3">
         <v>756</v>
-      </c>
-      <c r="G110" t="s" s="3">
-        <v>757</v>
       </c>
       <c r="H110" s="4">
         <v>33561</v>
@@ -11457,13 +11454,13 @@
         <v>85985120315</v>
       </c>
       <c r="K110" t="s" s="3">
+        <v>757</v>
+      </c>
+      <c r="L110" t="s" s="3">
         <v>758</v>
       </c>
-      <c r="L110" t="s" s="3">
+      <c r="M110" t="s" s="3">
         <v>759</v>
-      </c>
-      <c r="M110" t="s" s="3">
-        <v>760</v>
       </c>
       <c r="N110" s="5">
         <v>60822285</v>
@@ -11483,43 +11480,43 @@
         <v>17</v>
       </c>
       <c r="B111" t="s" s="3">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C111" s="4">
         <v>30529</v>
       </c>
       <c r="D111" t="s" s="7">
+        <v>761</v>
+      </c>
+      <c r="E111" t="s" s="7">
         <v>762</v>
       </c>
-      <c r="E111" t="s" s="7">
+      <c r="F111" t="s" s="3">
         <v>763</v>
       </c>
-      <c r="F111" t="s" s="3">
+      <c r="G111" t="s" s="3">
         <v>764</v>
-      </c>
-      <c r="G111" t="s" s="3">
-        <v>765</v>
       </c>
       <c r="H111" s="4">
         <v>28598</v>
       </c>
       <c r="I111" t="s" s="3">
+        <v>765</v>
+      </c>
+      <c r="J111" t="s" s="3">
         <v>766</v>
       </c>
-      <c r="J111" t="s" s="3">
+      <c r="K111" t="s" s="3">
         <v>767</v>
       </c>
-      <c r="K111" t="s" s="3">
+      <c r="L111" t="s" s="3">
         <v>768</v>
-      </c>
-      <c r="L111" t="s" s="3">
-        <v>769</v>
       </c>
       <c r="M111" t="s" s="3">
         <v>64</v>
       </c>
       <c r="N111" t="s" s="7">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="O111" t="s" s="7">
         <v>26</v>
@@ -11536,7 +11533,7 @@
         <v>17</v>
       </c>
       <c r="B112" t="s" s="3">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C112" s="5">
         <v>1012002</v>
@@ -11548,10 +11545,10 @@
         <v>85981583776</v>
       </c>
       <c r="F112" t="s" s="3">
+        <v>771</v>
+      </c>
+      <c r="G112" t="s" s="3">
         <v>772</v>
-      </c>
-      <c r="G112" t="s" s="3">
-        <v>773</v>
       </c>
       <c r="H112" s="4">
         <v>37821</v>
@@ -11563,13 +11560,13 @@
         <v>85997903516</v>
       </c>
       <c r="K112" t="s" s="3">
+        <v>773</v>
+      </c>
+      <c r="L112" t="s" s="3">
         <v>774</v>
       </c>
-      <c r="L112" t="s" s="3">
-        <v>775</v>
-      </c>
       <c r="M112" t="s" s="3">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="N112" s="5">
         <v>60872561</v>
@@ -11589,22 +11586,22 @@
         <v>17</v>
       </c>
       <c r="B113" t="s" s="3">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C113" s="4">
         <v>31075</v>
       </c>
       <c r="D113" t="s" s="7">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E113" s="5">
         <v>85987032425</v>
       </c>
       <c r="F113" t="s" s="3">
+        <v>777</v>
+      </c>
+      <c r="G113" t="s" s="3">
         <v>778</v>
-      </c>
-      <c r="G113" t="s" s="3">
-        <v>779</v>
       </c>
       <c r="H113" s="4">
         <v>32682</v>
@@ -11616,16 +11613,16 @@
         <v>85988683050</v>
       </c>
       <c r="K113" t="s" s="3">
+        <v>779</v>
+      </c>
+      <c r="L113" t="s" s="3">
         <v>780</v>
       </c>
-      <c r="L113" t="s" s="3">
+      <c r="M113" t="s" s="3">
         <v>781</v>
       </c>
-      <c r="M113" t="s" s="3">
+      <c r="N113" t="s" s="7">
         <v>782</v>
-      </c>
-      <c r="N113" t="s" s="7">
-        <v>783</v>
       </c>
       <c r="O113" t="s" s="7">
         <v>26</v>
@@ -11642,7 +11639,7 @@
         <v>17</v>
       </c>
       <c r="B114" t="s" s="3">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C114" s="4">
         <v>31662</v>
@@ -11651,34 +11648,34 @@
         <v>1844770346</v>
       </c>
       <c r="E114" t="s" s="7">
+        <v>784</v>
+      </c>
+      <c r="F114" t="s" s="3">
         <v>785</v>
       </c>
-      <c r="F114" t="s" s="3">
+      <c r="G114" t="s" s="3">
         <v>786</v>
-      </c>
-      <c r="G114" t="s" s="3">
-        <v>787</v>
       </c>
       <c r="H114" s="4">
         <v>30446</v>
       </c>
       <c r="I114" t="s" s="3">
+        <v>787</v>
+      </c>
+      <c r="J114" t="s" s="3">
         <v>788</v>
       </c>
-      <c r="J114" t="s" s="3">
+      <c r="K114" t="s" s="3">
         <v>789</v>
       </c>
-      <c r="K114" t="s" s="3">
+      <c r="L114" t="s" s="3">
         <v>790</v>
       </c>
-      <c r="L114" t="s" s="3">
+      <c r="M114" t="s" s="3">
+        <v>497</v>
+      </c>
+      <c r="N114" t="s" s="7">
         <v>791</v>
-      </c>
-      <c r="M114" t="s" s="3">
-        <v>498</v>
-      </c>
-      <c r="N114" t="s" s="7">
-        <v>792</v>
       </c>
       <c r="O114" t="s" s="7">
         <v>142</v>
@@ -11695,7 +11692,7 @@
         <v>17</v>
       </c>
       <c r="B115" t="s" s="3">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C115" s="4">
         <v>31931</v>
@@ -11707,10 +11704,10 @@
         <v>85999050128</v>
       </c>
       <c r="F115" t="s" s="3">
+        <v>793</v>
+      </c>
+      <c r="G115" t="s" s="3">
         <v>794</v>
-      </c>
-      <c r="G115" t="s" s="3">
-        <v>795</v>
       </c>
       <c r="H115" s="4">
         <v>33287</v>
@@ -11722,13 +11719,13 @@
         <v>85999050129</v>
       </c>
       <c r="K115" t="s" s="3">
+        <v>795</v>
+      </c>
+      <c r="L115" t="s" s="3">
         <v>796</v>
       </c>
-      <c r="L115" t="s" s="3">
-        <v>797</v>
-      </c>
       <c r="M115" t="s" s="3">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="N115" s="5">
         <v>60411136</v>
@@ -11748,7 +11745,7 @@
         <v>17</v>
       </c>
       <c r="B116" t="s" s="3">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C116" s="4">
         <v>29394</v>
@@ -11757,13 +11754,13 @@
         <v>65389808304</v>
       </c>
       <c r="E116" t="s" s="7">
+        <v>798</v>
+      </c>
+      <c r="F116" t="s" s="3">
         <v>799</v>
       </c>
-      <c r="F116" t="s" s="3">
+      <c r="G116" t="s" s="3">
         <v>800</v>
-      </c>
-      <c r="G116" t="s" s="3">
-        <v>801</v>
       </c>
       <c r="H116" s="4">
         <v>32433</v>
@@ -11772,13 +11769,13 @@
         <v>2413182381</v>
       </c>
       <c r="J116" t="s" s="3">
+        <v>801</v>
+      </c>
+      <c r="K116" t="s" s="3">
+        <v>799</v>
+      </c>
+      <c r="L116" t="s" s="3">
         <v>802</v>
-      </c>
-      <c r="K116" t="s" s="3">
-        <v>800</v>
-      </c>
-      <c r="L116" t="s" s="3">
-        <v>803</v>
       </c>
       <c r="M116" t="s" s="3">
         <v>279</v>
@@ -11801,7 +11798,7 @@
         <v>17</v>
       </c>
       <c r="B117" t="s" s="3">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C117" s="4">
         <v>34078</v>
@@ -11813,10 +11810,10 @@
         <v>85987365037</v>
       </c>
       <c r="F117" t="s" s="3">
+        <v>804</v>
+      </c>
+      <c r="G117" t="s" s="3">
         <v>805</v>
-      </c>
-      <c r="G117" t="s" s="3">
-        <v>806</v>
       </c>
       <c r="H117" s="4">
         <v>33901</v>
@@ -11828,13 +11825,13 @@
         <v>85986413202</v>
       </c>
       <c r="K117" t="s" s="3">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="L117" t="s" s="3">
+        <v>806</v>
+      </c>
+      <c r="M117" t="s" s="3">
         <v>807</v>
-      </c>
-      <c r="M117" t="s" s="3">
-        <v>808</v>
       </c>
       <c r="N117" s="5">
         <v>60181470</v>
@@ -11854,7 +11851,7 @@
         <v>17</v>
       </c>
       <c r="B118" t="s" s="3">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C118" s="5">
         <v>5111993</v>
@@ -11866,10 +11863,10 @@
         <v>85997607617</v>
       </c>
       <c r="F118" t="s" s="3">
+        <v>809</v>
+      </c>
+      <c r="G118" t="s" s="3">
         <v>810</v>
-      </c>
-      <c r="G118" t="s" s="3">
-        <v>811</v>
       </c>
       <c r="H118" s="4">
         <v>34485</v>
@@ -11881,13 +11878,13 @@
         <v>85996980670</v>
       </c>
       <c r="K118" t="s" s="3">
+        <v>811</v>
+      </c>
+      <c r="L118" t="s" s="3">
         <v>812</v>
       </c>
-      <c r="L118" t="s" s="3">
+      <c r="M118" t="s" s="3">
         <v>813</v>
-      </c>
-      <c r="M118" t="s" s="3">
-        <v>814</v>
       </c>
       <c r="N118" s="5">
         <v>60332530</v>
@@ -11896,7 +11893,7 @@
         <v>26</v>
       </c>
       <c r="P118" t="s" s="7">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="Q118" t="s" s="3">
         <v>92</v>
@@ -11907,7 +11904,7 @@
         <v>17</v>
       </c>
       <c r="B119" t="s" s="3">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C119" s="5">
         <v>18011980</v>
@@ -11919,7 +11916,7 @@
         <v>85991184131</v>
       </c>
       <c r="F119" t="s" s="3">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="G119" t="s" s="3">
         <v>276</v>
@@ -11934,13 +11931,13 @@
         <v>85999963510</v>
       </c>
       <c r="K119" t="s" s="3">
+        <v>816</v>
+      </c>
+      <c r="L119" t="s" s="3">
         <v>817</v>
       </c>
-      <c r="L119" t="s" s="3">
+      <c r="M119" t="s" s="3">
         <v>818</v>
-      </c>
-      <c r="M119" t="s" s="3">
-        <v>819</v>
       </c>
       <c r="N119" s="5">
         <v>60824000</v>
@@ -11960,7 +11957,7 @@
         <v>17</v>
       </c>
       <c r="B120" t="s" s="3">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C120" s="4">
         <v>30148</v>
@@ -11972,10 +11969,10 @@
         <v>85981866847</v>
       </c>
       <c r="F120" t="s" s="3">
+        <v>820</v>
+      </c>
+      <c r="G120" t="s" s="3">
         <v>821</v>
-      </c>
-      <c r="G120" t="s" s="3">
-        <v>822</v>
       </c>
       <c r="H120" s="4">
         <v>29178</v>
@@ -11987,16 +11984,16 @@
         <v>85999377919</v>
       </c>
       <c r="K120" t="s" s="3">
+        <v>822</v>
+      </c>
+      <c r="L120" t="s" s="3">
         <v>823</v>
       </c>
-      <c r="L120" t="s" s="3">
+      <c r="M120" t="s" s="3">
         <v>824</v>
       </c>
-      <c r="M120" t="s" s="3">
+      <c r="N120" t="s" s="7">
         <v>825</v>
-      </c>
-      <c r="N120" t="s" s="7">
-        <v>826</v>
       </c>
       <c r="O120" t="s" s="7">
         <v>26</v>
@@ -12013,7 +12010,7 @@
         <v>17</v>
       </c>
       <c r="B121" t="s" s="3">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C121" s="5">
         <v>7041978</v>
@@ -12025,10 +12022,10 @@
         <v>85988327744</v>
       </c>
       <c r="F121" t="s" s="3">
+        <v>827</v>
+      </c>
+      <c r="G121" t="s" s="3">
         <v>828</v>
-      </c>
-      <c r="G121" t="s" s="3">
-        <v>829</v>
       </c>
       <c r="H121" s="4">
         <v>29445</v>
@@ -12040,16 +12037,16 @@
         <v>85999491323</v>
       </c>
       <c r="K121" t="s" s="3">
+        <v>829</v>
+      </c>
+      <c r="L121" t="s" s="3">
         <v>830</v>
       </c>
-      <c r="L121" t="s" s="3">
+      <c r="M121" t="s" s="3">
         <v>831</v>
       </c>
-      <c r="M121" t="s" s="3">
+      <c r="N121" t="s" s="7">
         <v>832</v>
-      </c>
-      <c r="N121" t="s" s="7">
-        <v>833</v>
       </c>
       <c r="O121" t="s" s="7">
         <v>40</v>
@@ -12066,43 +12063,43 @@
         <v>65</v>
       </c>
       <c r="B122" t="s" s="3">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C122" s="4">
         <v>33416</v>
       </c>
       <c r="D122" t="s" s="7">
+        <v>834</v>
+      </c>
+      <c r="E122" t="s" s="7">
         <v>835</v>
       </c>
-      <c r="E122" t="s" s="7">
+      <c r="F122" t="s" s="3">
         <v>836</v>
       </c>
-      <c r="F122" t="s" s="3">
+      <c r="G122" t="s" s="3">
         <v>837</v>
-      </c>
-      <c r="G122" t="s" s="3">
-        <v>838</v>
       </c>
       <c r="H122" s="4">
         <v>32857</v>
       </c>
       <c r="I122" t="s" s="3">
+        <v>838</v>
+      </c>
+      <c r="J122" t="s" s="3">
         <v>839</v>
       </c>
-      <c r="J122" t="s" s="3">
+      <c r="K122" t="s" s="3">
         <v>840</v>
       </c>
-      <c r="K122" t="s" s="3">
+      <c r="L122" t="s" s="3">
         <v>841</v>
       </c>
-      <c r="L122" t="s" s="3">
+      <c r="M122" t="s" s="3">
         <v>842</v>
       </c>
-      <c r="M122" t="s" s="3">
+      <c r="N122" t="s" s="7">
         <v>843</v>
-      </c>
-      <c r="N122" t="s" s="7">
-        <v>844</v>
       </c>
       <c r="O122" t="s" s="7">
         <v>40</v>
@@ -12119,7 +12116,7 @@
         <v>17</v>
       </c>
       <c r="B123" t="s" s="3">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C123" s="5">
         <v>28101992</v>
@@ -12131,10 +12128,10 @@
         <v>85988963953</v>
       </c>
       <c r="F123" t="s" s="3">
+        <v>845</v>
+      </c>
+      <c r="G123" t="s" s="3">
         <v>846</v>
-      </c>
-      <c r="G123" t="s" s="3">
-        <v>847</v>
       </c>
       <c r="H123" s="4">
         <v>34688</v>
@@ -12146,13 +12143,13 @@
         <v>85997607775</v>
       </c>
       <c r="K123" t="s" s="3">
+        <v>847</v>
+      </c>
+      <c r="L123" t="s" s="3">
         <v>848</v>
       </c>
-      <c r="L123" t="s" s="3">
+      <c r="M123" t="s" s="3">
         <v>849</v>
-      </c>
-      <c r="M123" t="s" s="3">
-        <v>850</v>
       </c>
       <c r="N123" s="5">
         <v>60192160</v>
@@ -12172,7 +12169,7 @@
         <v>65</v>
       </c>
       <c r="B124" t="s" s="3">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C124" s="4">
         <v>34390</v>
@@ -12184,10 +12181,10 @@
         <v>85999688153</v>
       </c>
       <c r="F124" t="s" s="3">
+        <v>851</v>
+      </c>
+      <c r="G124" t="s" s="3">
         <v>852</v>
-      </c>
-      <c r="G124" t="s" s="3">
-        <v>853</v>
       </c>
       <c r="H124" s="4">
         <v>33002</v>
@@ -12199,10 +12196,10 @@
         <v>85981738855</v>
       </c>
       <c r="K124" t="s" s="3">
+        <v>853</v>
+      </c>
+      <c r="L124" t="s" s="3">
         <v>854</v>
-      </c>
-      <c r="L124" t="s" s="3">
-        <v>855</v>
       </c>
       <c r="M124" t="s" s="3">
         <v>71</v>
@@ -12225,7 +12222,7 @@
         <v>17</v>
       </c>
       <c r="B125" t="s" s="3">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C125" s="4">
         <v>30065</v>
@@ -12237,10 +12234,10 @@
         <v>85997284410</v>
       </c>
       <c r="F125" t="s" s="3">
+        <v>856</v>
+      </c>
+      <c r="G125" t="s" s="3">
         <v>857</v>
-      </c>
-      <c r="G125" t="s" s="3">
-        <v>858</v>
       </c>
       <c r="H125" s="4">
         <v>34920</v>
@@ -12252,13 +12249,13 @@
         <v>85996303047</v>
       </c>
       <c r="K125" t="s" s="3">
+        <v>858</v>
+      </c>
+      <c r="L125" t="s" s="3">
         <v>859</v>
       </c>
-      <c r="L125" t="s" s="3">
-        <v>860</v>
-      </c>
       <c r="M125" t="s" s="3">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N125" s="5">
         <v>60420750</v>
@@ -12278,43 +12275,43 @@
         <v>17</v>
       </c>
       <c r="B126" t="s" s="3">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C126" s="4">
         <v>27171</v>
       </c>
       <c r="D126" t="s" s="7">
+        <v>861</v>
+      </c>
+      <c r="E126" t="s" s="7">
         <v>862</v>
       </c>
-      <c r="E126" t="s" s="7">
+      <c r="F126" t="s" s="3">
         <v>863</v>
       </c>
-      <c r="F126" t="s" s="3">
+      <c r="G126" t="s" s="3">
         <v>864</v>
-      </c>
-      <c r="G126" t="s" s="3">
-        <v>865</v>
       </c>
       <c r="H126" s="4">
         <v>31793</v>
       </c>
       <c r="I126" t="s" s="3">
+        <v>865</v>
+      </c>
+      <c r="J126" t="s" s="3">
         <v>866</v>
       </c>
-      <c r="J126" t="s" s="3">
+      <c r="K126" t="s" s="3">
         <v>867</v>
       </c>
-      <c r="K126" t="s" s="3">
+      <c r="L126" t="s" s="3">
         <v>868</v>
       </c>
-      <c r="L126" t="s" s="3">
+      <c r="M126" t="s" s="3">
         <v>869</v>
       </c>
-      <c r="M126" t="s" s="3">
+      <c r="N126" t="s" s="7">
         <v>870</v>
-      </c>
-      <c r="N126" t="s" s="7">
-        <v>871</v>
       </c>
       <c r="O126" t="s" s="7">
         <v>40</v>
@@ -12331,7 +12328,7 @@
         <v>17</v>
       </c>
       <c r="B127" t="s" s="3">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C127" s="4">
         <v>32505</v>
@@ -12340,13 +12337,13 @@
         <v>4099089320</v>
       </c>
       <c r="E127" t="s" s="7">
+        <v>872</v>
+      </c>
+      <c r="F127" t="s" s="3">
         <v>873</v>
       </c>
-      <c r="F127" t="s" s="3">
+      <c r="G127" t="s" s="3">
         <v>874</v>
-      </c>
-      <c r="G127" t="s" s="3">
-        <v>875</v>
       </c>
       <c r="H127" s="4">
         <v>34856</v>
@@ -12355,13 +12352,13 @@
         <v>60807527351</v>
       </c>
       <c r="J127" t="s" s="3">
+        <v>875</v>
+      </c>
+      <c r="K127" t="s" s="3">
         <v>876</v>
       </c>
-      <c r="K127" t="s" s="3">
+      <c r="L127" t="s" s="3">
         <v>877</v>
-      </c>
-      <c r="L127" t="s" s="3">
-        <v>878</v>
       </c>
       <c r="M127" t="s" s="3">
         <v>325</v>
@@ -12373,7 +12370,7 @@
         <v>40</v>
       </c>
       <c r="P127" t="s" s="7">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Q127" t="s" s="3">
         <v>92</v>
@@ -12384,7 +12381,7 @@
         <v>17</v>
       </c>
       <c r="B128" t="s" s="3">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C128" s="5">
         <v>5021993</v>
@@ -12396,10 +12393,10 @@
         <v>85992605454</v>
       </c>
       <c r="F128" t="s" s="3">
+        <v>879</v>
+      </c>
+      <c r="G128" t="s" s="3">
         <v>880</v>
-      </c>
-      <c r="G128" t="s" s="3">
-        <v>881</v>
       </c>
       <c r="H128" s="4">
         <v>34382</v>
@@ -12411,10 +12408,10 @@
         <v>85921543302</v>
       </c>
       <c r="K128" t="s" s="3">
+        <v>881</v>
+      </c>
+      <c r="L128" t="s" s="3">
         <v>882</v>
-      </c>
-      <c r="L128" t="s" s="3">
-        <v>883</v>
       </c>
       <c r="M128" t="s" s="3">
         <v>196</v>
@@ -12434,10 +12431,10 @@
     </row>
     <row r="129" ht="16" customHeight="1">
       <c r="A129" t="s" s="3">
+        <v>883</v>
+      </c>
+      <c r="B129" t="s" s="3">
         <v>884</v>
-      </c>
-      <c r="B129" t="s" s="3">
-        <v>885</v>
       </c>
       <c r="C129" s="4">
         <v>29476</v>
@@ -12449,10 +12446,10 @@
         <v>85994378997</v>
       </c>
       <c r="F129" t="s" s="3">
+        <v>885</v>
+      </c>
+      <c r="G129" t="s" s="3">
         <v>886</v>
-      </c>
-      <c r="G129" t="s" s="3">
-        <v>887</v>
       </c>
       <c r="H129" s="4">
         <v>31315</v>
@@ -12464,13 +12461,13 @@
         <v>85992100567</v>
       </c>
       <c r="K129" t="s" s="3">
+        <v>887</v>
+      </c>
+      <c r="L129" t="s" s="3">
         <v>888</v>
       </c>
-      <c r="L129" t="s" s="3">
+      <c r="M129" t="s" s="3">
         <v>889</v>
-      </c>
-      <c r="M129" t="s" s="3">
-        <v>890</v>
       </c>
       <c r="N129" s="5">
         <v>61880000</v>
@@ -12490,7 +12487,7 @@
         <v>17</v>
       </c>
       <c r="B130" t="s" s="3">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C130" s="4">
         <v>35132</v>
@@ -12502,28 +12499,28 @@
         <v>85992819917</v>
       </c>
       <c r="F130" t="s" s="3">
+        <v>891</v>
+      </c>
+      <c r="G130" t="s" s="3">
         <v>892</v>
-      </c>
-      <c r="G130" t="s" s="3">
-        <v>893</v>
       </c>
       <c r="H130" s="4">
         <v>32670</v>
       </c>
       <c r="I130" t="s" s="3">
+        <v>893</v>
+      </c>
+      <c r="J130" t="s" s="3">
         <v>894</v>
       </c>
-      <c r="J130" t="s" s="3">
+      <c r="K130" t="s" s="3">
         <v>895</v>
       </c>
-      <c r="K130" t="s" s="3">
+      <c r="L130" t="s" s="3">
         <v>896</v>
       </c>
-      <c r="L130" t="s" s="3">
-        <v>897</v>
-      </c>
       <c r="M130" t="s" s="3">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="N130" s="8">
         <v>60545272</v>
@@ -12543,22 +12540,22 @@
         <v>17</v>
       </c>
       <c r="B131" t="s" s="3">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C131" s="5">
         <v>5111998</v>
       </c>
       <c r="D131" t="s" s="7">
+        <v>898</v>
+      </c>
+      <c r="E131" t="s" s="7">
         <v>899</v>
       </c>
-      <c r="E131" t="s" s="7">
+      <c r="F131" t="s" s="3">
         <v>900</v>
       </c>
-      <c r="F131" t="s" s="3">
+      <c r="G131" t="s" s="3">
         <v>901</v>
-      </c>
-      <c r="G131" t="s" s="3">
-        <v>902</v>
       </c>
       <c r="H131" s="4">
         <v>36818</v>
@@ -12570,13 +12567,13 @@
         <v>85986264755</v>
       </c>
       <c r="K131" t="s" s="3">
+        <v>902</v>
+      </c>
+      <c r="L131" t="s" s="3">
         <v>903</v>
       </c>
-      <c r="L131" t="s" s="3">
+      <c r="M131" t="s" s="3">
         <v>904</v>
-      </c>
-      <c r="M131" t="s" s="3">
-        <v>905</v>
       </c>
       <c r="N131" s="5">
         <v>60870130</v>
@@ -12585,7 +12582,7 @@
         <v>58</v>
       </c>
       <c r="P131" t="s" s="7">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Q131" t="s" s="3">
         <v>51</v>
@@ -12596,43 +12593,43 @@
         <v>17</v>
       </c>
       <c r="B132" t="s" s="3">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C132" s="4">
         <v>27546</v>
       </c>
       <c r="D132" t="s" s="7">
+        <v>906</v>
+      </c>
+      <c r="E132" t="s" s="7">
         <v>907</v>
       </c>
-      <c r="E132" t="s" s="7">
+      <c r="F132" t="s" s="3">
         <v>908</v>
       </c>
-      <c r="F132" t="s" s="3">
+      <c r="G132" t="s" s="3">
         <v>909</v>
-      </c>
-      <c r="G132" t="s" s="3">
-        <v>910</v>
       </c>
       <c r="H132" s="4">
         <v>30904</v>
       </c>
       <c r="I132" t="s" s="3">
+        <v>910</v>
+      </c>
+      <c r="J132" t="s" s="3">
         <v>911</v>
       </c>
-      <c r="J132" t="s" s="3">
+      <c r="K132" t="s" s="3">
         <v>912</v>
       </c>
-      <c r="K132" t="s" s="3">
+      <c r="L132" t="s" s="3">
         <v>913</v>
-      </c>
-      <c r="L132" t="s" s="3">
-        <v>914</v>
       </c>
       <c r="M132" t="s" s="3">
         <v>279</v>
       </c>
       <c r="N132" t="s" s="7">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="O132" t="s" s="7">
         <v>26</v>
@@ -12649,7 +12646,7 @@
         <v>17</v>
       </c>
       <c r="B133" t="s" s="3">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C133" s="5">
         <v>3051988</v>
@@ -12661,10 +12658,10 @@
         <v>85988474795</v>
       </c>
       <c r="F133" t="s" s="3">
+        <v>916</v>
+      </c>
+      <c r="G133" t="s" s="3">
         <v>917</v>
-      </c>
-      <c r="G133" t="s" s="3">
-        <v>918</v>
       </c>
       <c r="H133" s="4">
         <v>34085</v>
@@ -12676,13 +12673,13 @@
         <v>85985218521</v>
       </c>
       <c r="K133" t="s" s="3">
+        <v>918</v>
+      </c>
+      <c r="L133" t="s" s="3">
         <v>919</v>
       </c>
-      <c r="L133" t="s" s="3">
+      <c r="M133" t="s" s="3">
         <v>920</v>
-      </c>
-      <c r="M133" t="s" s="3">
-        <v>921</v>
       </c>
       <c r="N133" s="5">
         <v>60442611</v>
@@ -12702,7 +12699,7 @@
         <v>17</v>
       </c>
       <c r="B134" t="s" s="3">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C134" s="4">
         <v>28015</v>
@@ -12714,10 +12711,10 @@
         <v>85988955555</v>
       </c>
       <c r="F134" t="s" s="3">
+        <v>922</v>
+      </c>
+      <c r="G134" t="s" s="3">
         <v>923</v>
-      </c>
-      <c r="G134" t="s" s="3">
-        <v>924</v>
       </c>
       <c r="H134" s="4">
         <v>33568</v>
@@ -12729,10 +12726,10 @@
         <v>85998256645</v>
       </c>
       <c r="K134" t="s" s="3">
+        <v>924</v>
+      </c>
+      <c r="L134" t="s" s="3">
         <v>925</v>
-      </c>
-      <c r="L134" t="s" s="3">
-        <v>926</v>
       </c>
       <c r="M134" t="s" s="3">
         <v>325</v>
@@ -12755,7 +12752,7 @@
         <v>17</v>
       </c>
       <c r="B135" t="s" s="3">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C135" s="4">
         <v>30892</v>
@@ -12767,10 +12764,10 @@
         <v>85998480362</v>
       </c>
       <c r="F135" t="s" s="3">
+        <v>927</v>
+      </c>
+      <c r="G135" t="s" s="3">
         <v>928</v>
-      </c>
-      <c r="G135" t="s" s="3">
-        <v>929</v>
       </c>
       <c r="H135" s="4">
         <v>31118</v>
@@ -12782,13 +12779,13 @@
         <v>85996701806</v>
       </c>
       <c r="K135" t="s" s="3">
+        <v>929</v>
+      </c>
+      <c r="L135" t="s" s="3">
         <v>930</v>
       </c>
-      <c r="L135" t="s" s="3">
+      <c r="M135" t="s" s="3">
         <v>931</v>
-      </c>
-      <c r="M135" t="s" s="3">
-        <v>932</v>
       </c>
       <c r="N135" s="5">
         <v>60833045</v>
@@ -12808,7 +12805,7 @@
         <v>17</v>
       </c>
       <c r="B136" t="s" s="3">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C136" s="5">
         <v>5111989</v>
@@ -12820,10 +12817,10 @@
         <v>85981330588</v>
       </c>
       <c r="F136" t="s" s="3">
+        <v>933</v>
+      </c>
+      <c r="G136" t="s" s="3">
         <v>934</v>
-      </c>
-      <c r="G136" t="s" s="3">
-        <v>935</v>
       </c>
       <c r="H136" s="4">
         <v>33213</v>
@@ -12835,13 +12832,13 @@
         <v>85987537777</v>
       </c>
       <c r="K136" t="s" s="3">
+        <v>935</v>
+      </c>
+      <c r="L136" t="s" s="3">
         <v>936</v>
       </c>
-      <c r="L136" t="s" s="3">
-        <v>937</v>
-      </c>
       <c r="M136" t="s" s="3">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="N136" s="5">
         <v>60810160</v>
@@ -12850,7 +12847,7 @@
         <v>26</v>
       </c>
       <c r="P136" t="s" s="7">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="Q136" t="s" s="3">
         <v>73</v>
@@ -12861,7 +12858,7 @@
         <v>43</v>
       </c>
       <c r="B137" t="s" s="3">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C137" s="4">
         <v>28314</v>
@@ -12870,13 +12867,13 @@
         <v>82938466315</v>
       </c>
       <c r="E137" t="s" s="7">
+        <v>938</v>
+      </c>
+      <c r="F137" t="s" s="3">
         <v>939</v>
       </c>
-      <c r="F137" t="s" s="3">
+      <c r="G137" t="s" s="3">
         <v>940</v>
-      </c>
-      <c r="G137" t="s" s="3">
-        <v>941</v>
       </c>
       <c r="H137" s="4">
         <v>31102</v>
@@ -12885,13 +12882,13 @@
         <v>66929210315</v>
       </c>
       <c r="J137" t="s" s="3">
+        <v>941</v>
+      </c>
+      <c r="K137" t="s" s="3">
         <v>942</v>
       </c>
-      <c r="K137" t="s" s="3">
+      <c r="L137" t="s" s="3">
         <v>943</v>
-      </c>
-      <c r="L137" t="s" s="3">
-        <v>944</v>
       </c>
       <c r="M137" t="s" s="3">
         <v>43</v>
@@ -12914,7 +12911,7 @@
         <v>17</v>
       </c>
       <c r="B138" t="s" s="3">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C138" s="4">
         <v>33434</v>
@@ -12926,10 +12923,10 @@
         <v>21997422992</v>
       </c>
       <c r="F138" t="s" s="3">
+        <v>945</v>
+      </c>
+      <c r="G138" t="s" s="3">
         <v>946</v>
-      </c>
-      <c r="G138" t="s" s="3">
-        <v>947</v>
       </c>
       <c r="H138" s="4">
         <v>33852</v>
@@ -12941,13 +12938,13 @@
         <v>85997853772</v>
       </c>
       <c r="K138" t="s" s="3">
+        <v>947</v>
+      </c>
+      <c r="L138" t="s" s="3">
         <v>948</v>
       </c>
-      <c r="L138" t="s" s="3">
-        <v>949</v>
-      </c>
       <c r="M138" t="s" s="3">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="N138" s="5">
         <v>60851460</v>
@@ -12967,7 +12964,7 @@
         <v>17</v>
       </c>
       <c r="B139" t="s" s="3">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C139" s="4">
         <v>30442</v>
@@ -12976,34 +12973,34 @@
         <v>66712173353</v>
       </c>
       <c r="E139" t="s" s="7">
+        <v>950</v>
+      </c>
+      <c r="F139" t="s" s="3">
         <v>951</v>
       </c>
-      <c r="F139" t="s" s="3">
+      <c r="G139" t="s" s="3">
         <v>952</v>
-      </c>
-      <c r="G139" t="s" s="3">
-        <v>953</v>
       </c>
       <c r="H139" s="4">
         <v>34990</v>
       </c>
       <c r="I139" t="s" s="3">
+        <v>953</v>
+      </c>
+      <c r="J139" t="s" s="3">
         <v>954</v>
       </c>
-      <c r="J139" t="s" s="3">
+      <c r="K139" t="s" s="3">
         <v>955</v>
       </c>
-      <c r="K139" t="s" s="3">
+      <c r="L139" t="s" s="3">
         <v>956</v>
       </c>
-      <c r="L139" t="s" s="3">
+      <c r="M139" t="s" s="3">
+        <v>400</v>
+      </c>
+      <c r="N139" t="s" s="7">
         <v>957</v>
-      </c>
-      <c r="M139" t="s" s="3">
-        <v>401</v>
-      </c>
-      <c r="N139" t="s" s="7">
-        <v>958</v>
       </c>
       <c r="O139" t="s" s="7">
         <v>58</v>
@@ -13020,7 +13017,7 @@
         <v>17</v>
       </c>
       <c r="B140" t="s" s="3">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C140" s="4">
         <v>30352</v>
@@ -13029,31 +13026,31 @@
         <v>563575328</v>
       </c>
       <c r="E140" t="s" s="7">
+        <v>959</v>
+      </c>
+      <c r="F140" t="s" s="3">
         <v>960</v>
       </c>
-      <c r="F140" t="s" s="3">
+      <c r="G140" t="s" s="3">
         <v>961</v>
-      </c>
-      <c r="G140" t="s" s="3">
-        <v>962</v>
       </c>
       <c r="H140" s="4">
         <v>33444</v>
       </c>
       <c r="I140" t="s" s="3">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="J140" s="6">
         <v>85997319504</v>
       </c>
       <c r="K140" t="s" s="3">
+        <v>963</v>
+      </c>
+      <c r="L140" t="s" s="3">
         <v>964</v>
       </c>
-      <c r="L140" t="s" s="3">
+      <c r="M140" t="s" s="3">
         <v>965</v>
-      </c>
-      <c r="M140" t="s" s="3">
-        <v>966</v>
       </c>
       <c r="N140" s="5">
         <v>60440775</v>
@@ -13073,7 +13070,7 @@
         <v>17</v>
       </c>
       <c r="B141" t="s" s="3">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C141" s="4">
         <v>32767</v>
@@ -13085,10 +13082,10 @@
         <v>85992101707</v>
       </c>
       <c r="F141" t="s" s="3">
+        <v>967</v>
+      </c>
+      <c r="G141" t="s" s="3">
         <v>968</v>
-      </c>
-      <c r="G141" t="s" s="3">
-        <v>969</v>
       </c>
       <c r="H141" s="4">
         <v>32302</v>
@@ -13100,16 +13097,16 @@
         <v>85997686816</v>
       </c>
       <c r="K141" t="s" s="3">
+        <v>969</v>
+      </c>
+      <c r="L141" t="s" s="3">
         <v>970</v>
-      </c>
-      <c r="L141" t="s" s="3">
-        <v>971</v>
       </c>
       <c r="M141" t="s" s="3">
         <v>24</v>
       </c>
       <c r="N141" t="s" s="7">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="O141" t="s" s="7">
         <v>26</v>
@@ -13126,7 +13123,7 @@
         <v>17</v>
       </c>
       <c r="B142" t="s" s="3">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C142" s="4">
         <v>33977</v>
@@ -13138,10 +13135,10 @@
         <v>85997661469</v>
       </c>
       <c r="F142" t="s" s="3">
+        <v>973</v>
+      </c>
+      <c r="G142" t="s" s="3">
         <v>974</v>
-      </c>
-      <c r="G142" t="s" s="3">
-        <v>975</v>
       </c>
       <c r="H142" s="4">
         <v>32470</v>
@@ -13153,13 +13150,13 @@
         <v>85991829031</v>
       </c>
       <c r="K142" t="s" s="3">
+        <v>975</v>
+      </c>
+      <c r="L142" t="s" s="3">
         <v>976</v>
       </c>
-      <c r="L142" t="s" s="3">
-        <v>977</v>
-      </c>
       <c r="M142" t="s" s="3">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="N142" s="5">
         <v>60871210</v>
@@ -13179,40 +13176,40 @@
         <v>17</v>
       </c>
       <c r="B143" t="s" s="3">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C143" s="4">
         <v>33699</v>
       </c>
       <c r="D143" t="s" s="7">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E143" s="5">
         <v>85992697480</v>
       </c>
       <c r="F143" t="s" s="3">
+        <v>979</v>
+      </c>
+      <c r="G143" t="s" s="3">
         <v>980</v>
-      </c>
-      <c r="G143" t="s" s="3">
-        <v>981</v>
       </c>
       <c r="H143" s="4">
         <v>36826</v>
       </c>
       <c r="I143" t="s" s="3">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="J143" s="6">
         <v>85991928386</v>
       </c>
       <c r="K143" t="s" s="3">
+        <v>982</v>
+      </c>
+      <c r="L143" t="s" s="3">
         <v>983</v>
       </c>
-      <c r="L143" t="s" s="3">
+      <c r="M143" t="s" s="3">
         <v>984</v>
-      </c>
-      <c r="M143" t="s" s="3">
-        <v>985</v>
       </c>
       <c r="N143" s="5">
         <v>60183017</v>
@@ -13232,7 +13229,7 @@
         <v>17</v>
       </c>
       <c r="B144" t="s" s="3">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C144" s="5">
         <v>15032004</v>
@@ -13244,10 +13241,10 @@
         <v>85996875762</v>
       </c>
       <c r="F144" t="s" s="3">
+        <v>986</v>
+      </c>
+      <c r="G144" t="s" s="3">
         <v>987</v>
-      </c>
-      <c r="G144" t="s" s="3">
-        <v>988</v>
       </c>
       <c r="H144" s="4">
         <v>29181</v>
@@ -13259,13 +13256,13 @@
         <v>85988961600</v>
       </c>
       <c r="K144" t="s" s="3">
+        <v>988</v>
+      </c>
+      <c r="L144" t="s" s="3">
         <v>989</v>
       </c>
-      <c r="L144" t="s" s="3">
+      <c r="M144" t="s" s="3">
         <v>990</v>
-      </c>
-      <c r="M144" t="s" s="3">
-        <v>991</v>
       </c>
       <c r="N144" s="5">
         <v>60125071</v>
@@ -13285,7 +13282,7 @@
         <v>17</v>
       </c>
       <c r="B145" t="s" s="3">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C145" s="4">
         <v>26200</v>
@@ -13297,10 +13294,10 @@
         <v>85988234951</v>
       </c>
       <c r="F145" t="s" s="3">
+        <v>992</v>
+      </c>
+      <c r="G145" t="s" s="3">
         <v>993</v>
-      </c>
-      <c r="G145" t="s" s="3">
-        <v>994</v>
       </c>
       <c r="H145" s="4">
         <v>25979</v>
@@ -13312,13 +13309,13 @@
         <v>85986122566</v>
       </c>
       <c r="K145" t="s" s="3">
+        <v>994</v>
+      </c>
+      <c r="L145" t="s" s="3">
         <v>995</v>
       </c>
-      <c r="L145" t="s" s="3">
+      <c r="M145" t="s" s="3">
         <v>996</v>
-      </c>
-      <c r="M145" t="s" s="3">
-        <v>997</v>
       </c>
       <c r="N145" s="5">
         <v>60410444</v>
@@ -13338,7 +13335,7 @@
         <v>17</v>
       </c>
       <c r="B146" t="s" s="3">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C146" s="4">
         <v>35149</v>
@@ -13350,10 +13347,10 @@
         <v>85989271613</v>
       </c>
       <c r="F146" t="s" s="3">
+        <v>998</v>
+      </c>
+      <c r="G146" t="s" s="3">
         <v>999</v>
-      </c>
-      <c r="G146" t="s" s="3">
-        <v>1000</v>
       </c>
       <c r="H146" s="4">
         <v>35445</v>
@@ -13365,13 +13362,13 @@
         <v>85986055759</v>
       </c>
       <c r="K146" t="s" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L146" t="s" s="3">
         <v>1001</v>
       </c>
-      <c r="L146" t="s" s="3">
-        <v>1002</v>
-      </c>
       <c r="M146" t="s" s="3">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="N146" s="5">
         <v>61760001</v>
@@ -13391,22 +13388,22 @@
         <v>17</v>
       </c>
       <c r="B147" t="s" s="3">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C147" s="4">
         <v>34651</v>
       </c>
       <c r="D147" t="s" s="7">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E147" s="5">
         <v>85986992713</v>
       </c>
       <c r="F147" t="s" s="3">
+        <v>1004</v>
+      </c>
+      <c r="G147" t="s" s="3">
         <v>1005</v>
-      </c>
-      <c r="G147" t="s" s="3">
-        <v>1006</v>
       </c>
       <c r="H147" s="4">
         <v>34950</v>
@@ -13418,13 +13415,13 @@
         <v>85996563631</v>
       </c>
       <c r="K147" t="s" s="3">
+        <v>1006</v>
+      </c>
+      <c r="L147" t="s" s="3">
         <v>1007</v>
       </c>
-      <c r="L147" t="s" s="3">
+      <c r="M147" t="s" s="3">
         <v>1008</v>
-      </c>
-      <c r="M147" t="s" s="3">
-        <v>1009</v>
       </c>
       <c r="N147" s="5">
         <v>60175442</v>
@@ -13433,7 +13430,7 @@
         <v>26</v>
       </c>
       <c r="P147" t="s" s="7">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Q147" t="s" s="3">
         <v>51</v>
@@ -13444,7 +13441,7 @@
         <v>17</v>
       </c>
       <c r="B148" t="s" s="3">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C148" s="4">
         <v>27391</v>
@@ -13453,13 +13450,13 @@
         <v>58964355334</v>
       </c>
       <c r="E148" t="s" s="7">
+        <v>1010</v>
+      </c>
+      <c r="F148" t="s" s="3">
         <v>1011</v>
       </c>
-      <c r="F148" t="s" s="3">
+      <c r="G148" t="s" s="3">
         <v>1012</v>
-      </c>
-      <c r="G148" t="s" s="3">
-        <v>1013</v>
       </c>
       <c r="H148" s="4">
         <v>29727</v>
@@ -13468,16 +13465,16 @@
         <v>64216942334</v>
       </c>
       <c r="J148" t="s" s="3">
+        <v>1013</v>
+      </c>
+      <c r="K148" t="s" s="3">
         <v>1014</v>
       </c>
-      <c r="K148" t="s" s="3">
+      <c r="L148" t="s" s="3">
         <v>1015</v>
       </c>
-      <c r="L148" t="s" s="3">
-        <v>1016</v>
-      </c>
       <c r="M148" t="s" s="3">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N148" s="5">
         <v>60520207</v>
@@ -13497,7 +13494,7 @@
         <v>17</v>
       </c>
       <c r="B149" t="s" s="3">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C149" s="5">
         <v>2091986</v>
@@ -13509,10 +13506,10 @@
         <v>85998350209</v>
       </c>
       <c r="F149" t="s" s="3">
+        <v>1017</v>
+      </c>
+      <c r="G149" t="s" s="3">
         <v>1018</v>
-      </c>
-      <c r="G149" t="s" s="3">
-        <v>1019</v>
       </c>
       <c r="H149" s="4">
         <v>35581</v>
@@ -13524,10 +13521,10 @@
         <v>85984414823</v>
       </c>
       <c r="K149" t="s" s="3">
+        <v>1019</v>
+      </c>
+      <c r="L149" t="s" s="3">
         <v>1020</v>
-      </c>
-      <c r="L149" t="s" s="3">
-        <v>1021</v>
       </c>
       <c r="M149" t="s" s="3">
         <v>79</v>
@@ -13550,7 +13547,7 @@
         <v>17</v>
       </c>
       <c r="B150" t="s" s="3">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C150" s="4">
         <v>33699</v>
@@ -13562,31 +13559,31 @@
         <v>85989286980</v>
       </c>
       <c r="F150" t="s" s="3">
+        <v>1022</v>
+      </c>
+      <c r="G150" t="s" s="3">
         <v>1023</v>
-      </c>
-      <c r="G150" t="s" s="3">
-        <v>1024</v>
       </c>
       <c r="H150" s="4">
         <v>34031</v>
       </c>
       <c r="I150" t="s" s="3">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="J150" s="6">
         <v>85989286980</v>
       </c>
       <c r="K150" t="s" s="3">
+        <v>1025</v>
+      </c>
+      <c r="L150" t="s" s="3">
         <v>1026</v>
       </c>
-      <c r="L150" t="s" s="3">
+      <c r="M150" t="s" s="3">
+        <v>432</v>
+      </c>
+      <c r="N150" t="s" s="7">
         <v>1027</v>
-      </c>
-      <c r="M150" t="s" s="3">
-        <v>433</v>
-      </c>
-      <c r="N150" t="s" s="7">
-        <v>1028</v>
       </c>
       <c r="O150" t="s" s="7">
         <v>40</v>
@@ -13603,7 +13600,7 @@
         <v>17</v>
       </c>
       <c r="B151" t="s" s="3">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C151" s="4">
         <v>33238</v>
@@ -13615,10 +13612,10 @@
         <v>85992824623</v>
       </c>
       <c r="F151" t="s" s="3">
+        <v>1029</v>
+      </c>
+      <c r="G151" t="s" s="3">
         <v>1030</v>
-      </c>
-      <c r="G151" t="s" s="3">
-        <v>1031</v>
       </c>
       <c r="H151" s="4">
         <v>35522</v>
@@ -13630,13 +13627,13 @@
         <v>85994245618</v>
       </c>
       <c r="K151" t="s" s="3">
+        <v>1031</v>
+      </c>
+      <c r="L151" t="s" s="3">
         <v>1032</v>
       </c>
-      <c r="L151" t="s" s="3">
+      <c r="M151" t="s" s="3">
         <v>1033</v>
-      </c>
-      <c r="M151" t="s" s="3">
-        <v>1034</v>
       </c>
       <c r="N151" s="5">
         <v>60170240</v>
@@ -13653,10 +13650,10 @@
     </row>
     <row r="152" ht="16" customHeight="1">
       <c r="A152" t="s" s="3">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B152" t="s" s="3">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C152" s="4">
         <v>33926</v>
@@ -13668,10 +13665,10 @@
         <v>85992438559</v>
       </c>
       <c r="F152" t="s" s="3">
+        <v>1035</v>
+      </c>
+      <c r="G152" t="s" s="3">
         <v>1036</v>
-      </c>
-      <c r="G152" t="s" s="3">
-        <v>1037</v>
       </c>
       <c r="H152" s="4">
         <v>33769</v>
@@ -13683,13 +13680,13 @@
         <v>85989575754</v>
       </c>
       <c r="K152" t="s" s="3">
+        <v>1037</v>
+      </c>
+      <c r="L152" t="s" s="3">
         <v>1038</v>
       </c>
-      <c r="L152" t="s" s="3">
+      <c r="M152" t="s" s="3">
         <v>1039</v>
-      </c>
-      <c r="M152" t="s" s="3">
-        <v>1040</v>
       </c>
       <c r="N152" s="5">
         <v>61880000</v>
@@ -13709,7 +13706,7 @@
         <v>17</v>
       </c>
       <c r="B153" t="s" s="3">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C153" s="4">
         <v>28745</v>
@@ -13721,10 +13718,10 @@
         <v>85999209058</v>
       </c>
       <c r="F153" t="s" s="3">
+        <v>1041</v>
+      </c>
+      <c r="G153" t="s" s="3">
         <v>1042</v>
-      </c>
-      <c r="G153" t="s" s="3">
-        <v>1043</v>
       </c>
       <c r="H153" s="4">
         <v>34855</v>
@@ -13736,13 +13733,13 @@
         <v>85987826235</v>
       </c>
       <c r="K153" t="s" s="3">
+        <v>1043</v>
+      </c>
+      <c r="L153" t="s" s="3">
         <v>1044</v>
       </c>
-      <c r="L153" t="s" s="3">
-        <v>1045</v>
-      </c>
       <c r="M153" t="s" s="3">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="N153" s="5">
         <v>60525345</v>
@@ -13762,40 +13759,40 @@
         <v>65</v>
       </c>
       <c r="B154" t="s" s="3">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C154" s="4">
         <v>33406</v>
       </c>
       <c r="D154" t="s" s="7">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="E154" s="5">
         <v>85984267086</v>
       </c>
       <c r="F154" t="s" s="3">
+        <v>1047</v>
+      </c>
+      <c r="G154" t="s" s="3">
         <v>1048</v>
-      </c>
-      <c r="G154" t="s" s="3">
-        <v>1049</v>
       </c>
       <c r="H154" s="4">
         <v>34263</v>
       </c>
       <c r="I154" t="s" s="3">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="J154" s="6">
         <v>85988092259</v>
       </c>
       <c r="K154" t="s" s="3">
+        <v>1050</v>
+      </c>
+      <c r="L154" t="s" s="3">
         <v>1051</v>
       </c>
-      <c r="L154" t="s" s="3">
+      <c r="M154" t="s" s="3">
         <v>1052</v>
-      </c>
-      <c r="M154" t="s" s="3">
-        <v>1053</v>
       </c>
       <c r="N154" s="5">
         <v>61761390</v>
@@ -13815,7 +13812,7 @@
         <v>17</v>
       </c>
       <c r="B155" t="s" s="3">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C155" s="4">
         <v>31923</v>
@@ -13827,10 +13824,10 @@
         <v>85997663930</v>
       </c>
       <c r="F155" t="s" s="3">
+        <v>1054</v>
+      </c>
+      <c r="G155" t="s" s="3">
         <v>1055</v>
-      </c>
-      <c r="G155" t="s" s="3">
-        <v>1056</v>
       </c>
       <c r="H155" s="4">
         <v>35473</v>
@@ -13842,10 +13839,10 @@
         <v>88996504704</v>
       </c>
       <c r="K155" t="s" s="3">
+        <v>1056</v>
+      </c>
+      <c r="L155" t="s" s="3">
         <v>1057</v>
-      </c>
-      <c r="L155" t="s" s="3">
-        <v>1058</v>
       </c>
       <c r="M155" t="s" s="3">
         <v>273</v>
@@ -13868,43 +13865,43 @@
         <v>17</v>
       </c>
       <c r="B156" t="s" s="3">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C156" s="4">
         <v>33890</v>
       </c>
       <c r="D156" t="s" s="7">
+        <v>1059</v>
+      </c>
+      <c r="E156" t="s" s="7">
         <v>1060</v>
       </c>
-      <c r="E156" t="s" s="7">
+      <c r="F156" t="s" s="3">
         <v>1061</v>
       </c>
-      <c r="F156" t="s" s="3">
+      <c r="G156" t="s" s="3">
         <v>1062</v>
-      </c>
-      <c r="G156" t="s" s="3">
-        <v>1063</v>
       </c>
       <c r="H156" s="4">
         <v>33902</v>
       </c>
       <c r="I156" t="s" s="3">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="J156" s="6">
         <v>85996186779</v>
       </c>
       <c r="K156" t="s" s="3">
+        <v>1064</v>
+      </c>
+      <c r="L156" t="s" s="3">
         <v>1065</v>
-      </c>
-      <c r="L156" t="s" s="3">
-        <v>1066</v>
       </c>
       <c r="M156" t="s" s="3">
         <v>201</v>
       </c>
       <c r="N156" t="s" s="7">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="O156" t="s" s="7">
         <v>26</v>
@@ -13921,7 +13918,7 @@
         <v>65</v>
       </c>
       <c r="B157" t="s" s="3">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C157" s="4">
         <v>33148</v>
@@ -13933,10 +13930,10 @@
         <v>85996968468</v>
       </c>
       <c r="F157" t="s" s="3">
+        <v>1067</v>
+      </c>
+      <c r="G157" t="s" s="3">
         <v>1068</v>
-      </c>
-      <c r="G157" t="s" s="3">
-        <v>1069</v>
       </c>
       <c r="H157" s="4">
         <v>32741</v>
@@ -13948,10 +13945,10 @@
         <v>85981489701</v>
       </c>
       <c r="K157" t="s" s="3">
+        <v>1069</v>
+      </c>
+      <c r="L157" t="s" s="3">
         <v>1070</v>
-      </c>
-      <c r="L157" t="s" s="3">
-        <v>1071</v>
       </c>
       <c r="M157" t="s" s="3">
         <v>332</v>
@@ -13963,7 +13960,7 @@
         <v>58</v>
       </c>
       <c r="P157" t="s" s="7">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Q157" t="s" s="3">
         <v>51</v>
@@ -13974,7 +13971,7 @@
         <v>17</v>
       </c>
       <c r="B158" t="s" s="3">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C158" s="4">
         <v>33575</v>
@@ -13986,10 +13983,10 @@
         <v>85985859991</v>
       </c>
       <c r="F158" t="s" s="3">
+        <v>1072</v>
+      </c>
+      <c r="G158" t="s" s="3">
         <v>1073</v>
-      </c>
-      <c r="G158" t="s" s="3">
-        <v>1074</v>
       </c>
       <c r="H158" s="4">
         <v>35160</v>
@@ -14001,13 +13998,13 @@
         <v>85985906617</v>
       </c>
       <c r="K158" t="s" s="3">
+        <v>1074</v>
+      </c>
+      <c r="L158" t="s" s="3">
         <v>1075</v>
       </c>
-      <c r="L158" t="s" s="3">
+      <c r="M158" t="s" s="3">
         <v>1076</v>
-      </c>
-      <c r="M158" t="s" s="3">
-        <v>1077</v>
       </c>
       <c r="N158" s="5">
         <v>60761345</v>
@@ -14027,7 +14024,7 @@
         <v>65</v>
       </c>
       <c r="B159" t="s" s="3">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C159" s="4">
         <v>31886</v>
@@ -14039,10 +14036,10 @@
         <v>85992007979</v>
       </c>
       <c r="F159" t="s" s="3">
+        <v>1078</v>
+      </c>
+      <c r="G159" t="s" s="3">
         <v>1079</v>
-      </c>
-      <c r="G159" t="s" s="3">
-        <v>1080</v>
       </c>
       <c r="H159" s="4">
         <v>35687</v>
@@ -14054,13 +14051,13 @@
         <v>85991623236</v>
       </c>
       <c r="K159" t="s" s="3">
+        <v>1080</v>
+      </c>
+      <c r="L159" t="s" s="3">
         <v>1081</v>
       </c>
-      <c r="L159" t="s" s="3">
-        <v>1082</v>
-      </c>
       <c r="M159" t="s" s="3">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="N159" s="5">
         <v>61771800</v>
@@ -14080,7 +14077,7 @@
         <v>17</v>
       </c>
       <c r="B160" t="s" s="3">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C160" s="5">
         <v>7011993</v>
@@ -14092,10 +14089,10 @@
         <v>85998352109</v>
       </c>
       <c r="F160" t="s" s="3">
+        <v>1083</v>
+      </c>
+      <c r="G160" t="s" s="3">
         <v>1084</v>
-      </c>
-      <c r="G160" t="s" s="3">
-        <v>1085</v>
       </c>
       <c r="H160" s="4">
         <v>1051995</v>
@@ -14107,13 +14104,13 @@
         <v>85998352109</v>
       </c>
       <c r="K160" t="s" s="3">
+        <v>1085</v>
+      </c>
+      <c r="L160" t="s" s="3">
         <v>1086</v>
       </c>
-      <c r="L160" t="s" s="3">
-        <v>1087</v>
-      </c>
       <c r="M160" t="s" s="3">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="N160" s="5">
         <v>60355337</v>
@@ -14133,7 +14130,7 @@
         <v>17</v>
       </c>
       <c r="B161" t="s" s="3">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C161" s="4">
         <v>35419</v>
@@ -14145,10 +14142,10 @@
         <v>85988850406</v>
       </c>
       <c r="F161" t="s" s="3">
+        <v>1088</v>
+      </c>
+      <c r="G161" t="s" s="3">
         <v>1089</v>
-      </c>
-      <c r="G161" t="s" s="3">
-        <v>1090</v>
       </c>
       <c r="H161" s="4">
         <v>36018</v>
@@ -14160,13 +14157,13 @@
         <v>85992314713</v>
       </c>
       <c r="K161" t="s" s="3">
+        <v>1090</v>
+      </c>
+      <c r="L161" t="s" s="3">
         <v>1091</v>
       </c>
-      <c r="L161" t="s" s="3">
-        <v>1092</v>
-      </c>
       <c r="M161" t="s" s="3">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="N161" s="5">
         <v>60541575</v>
@@ -14186,43 +14183,43 @@
         <v>17</v>
       </c>
       <c r="B162" t="s" s="3">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C162" s="4">
         <v>35672</v>
       </c>
       <c r="D162" t="s" s="7">
+        <v>1093</v>
+      </c>
+      <c r="E162" t="s" s="7">
         <v>1094</v>
       </c>
-      <c r="E162" t="s" s="7">
+      <c r="F162" t="s" s="3">
         <v>1095</v>
       </c>
-      <c r="F162" t="s" s="3">
+      <c r="G162" t="s" s="3">
         <v>1096</v>
-      </c>
-      <c r="G162" t="s" s="3">
-        <v>1097</v>
       </c>
       <c r="H162" s="4">
         <v>35535</v>
       </c>
       <c r="I162" t="s" s="3">
+        <v>1097</v>
+      </c>
+      <c r="J162" t="s" s="3">
         <v>1098</v>
       </c>
-      <c r="J162" t="s" s="3">
+      <c r="K162" t="s" s="3">
         <v>1099</v>
       </c>
-      <c r="K162" t="s" s="3">
+      <c r="L162" t="s" s="3">
         <v>1100</v>
-      </c>
-      <c r="L162" t="s" s="3">
-        <v>1101</v>
       </c>
       <c r="M162" t="s" s="3">
         <v>64</v>
       </c>
       <c r="N162" t="s" s="7">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="O162" t="s" s="7">
         <v>249</v>
@@ -14239,7 +14236,7 @@
         <v>17</v>
       </c>
       <c r="B163" t="s" s="3">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C163" s="4">
         <v>31688</v>
@@ -14251,10 +14248,10 @@
         <v>88998153010</v>
       </c>
       <c r="F163" t="s" s="3">
+        <v>1103</v>
+      </c>
+      <c r="G163" t="s" s="3">
         <v>1104</v>
-      </c>
-      <c r="G163" t="s" s="3">
-        <v>1105</v>
       </c>
       <c r="H163" s="4">
         <v>32222</v>
@@ -14266,13 +14263,13 @@
         <v>85997547287</v>
       </c>
       <c r="K163" t="s" s="3">
+        <v>1105</v>
+      </c>
+      <c r="L163" t="s" s="3">
         <v>1106</v>
       </c>
-      <c r="L163" t="s" s="3">
+      <c r="M163" t="s" s="3">
         <v>1107</v>
-      </c>
-      <c r="M163" t="s" s="3">
-        <v>1108</v>
       </c>
       <c r="N163" s="5">
         <v>61760850</v>
@@ -14289,10 +14286,10 @@
     </row>
     <row r="164" ht="16" customHeight="1">
       <c r="A164" t="s" s="3">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B164" t="s" s="3">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="C164" s="4">
         <v>32054</v>
@@ -14304,10 +14301,10 @@
         <v>85998304412</v>
       </c>
       <c r="F164" t="s" s="3">
+        <v>1109</v>
+      </c>
+      <c r="G164" t="s" s="3">
         <v>1110</v>
-      </c>
-      <c r="G164" t="s" s="3">
-        <v>1111</v>
       </c>
       <c r="H164" s="4">
         <v>33736</v>
@@ -14319,13 +14316,13 @@
         <v>85981558868</v>
       </c>
       <c r="K164" t="s" s="3">
+        <v>1111</v>
+      </c>
+      <c r="L164" t="s" s="3">
         <v>1112</v>
       </c>
-      <c r="L164" t="s" s="3">
-        <v>1113</v>
-      </c>
       <c r="M164" t="s" s="3">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="N164" s="5">
         <v>61884715</v>
@@ -14345,37 +14342,37 @@
         <v>17</v>
       </c>
       <c r="B165" t="s" s="3">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C165" s="4">
         <v>37222</v>
       </c>
       <c r="D165" t="s" s="7">
+        <v>1114</v>
+      </c>
+      <c r="E165" t="s" s="7">
         <v>1115</v>
       </c>
-      <c r="E165" t="s" s="7">
+      <c r="F165" t="s" s="3">
         <v>1116</v>
       </c>
-      <c r="F165" t="s" s="3">
+      <c r="G165" t="s" s="3">
         <v>1117</v>
-      </c>
-      <c r="G165" t="s" s="3">
-        <v>1118</v>
       </c>
       <c r="H165" s="4">
         <v>37595</v>
       </c>
       <c r="I165" t="s" s="3">
+        <v>1118</v>
+      </c>
+      <c r="J165" t="s" s="3">
         <v>1119</v>
       </c>
-      <c r="J165" t="s" s="3">
+      <c r="K165" t="s" s="3">
         <v>1120</v>
       </c>
-      <c r="K165" t="s" s="3">
+      <c r="L165" t="s" s="3">
         <v>1121</v>
-      </c>
-      <c r="L165" t="s" s="3">
-        <v>1122</v>
       </c>
       <c r="M165" t="s" s="3">
         <v>241</v>
@@ -14398,7 +14395,7 @@
         <v>17</v>
       </c>
       <c r="B166" t="s" s="3">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C166" s="4">
         <v>30493</v>
@@ -14410,10 +14407,10 @@
         <v>85986006238</v>
       </c>
       <c r="F166" t="s" s="3">
+        <v>1123</v>
+      </c>
+      <c r="G166" t="s" s="3">
         <v>1124</v>
-      </c>
-      <c r="G166" t="s" s="3">
-        <v>1125</v>
       </c>
       <c r="H166" s="4">
         <v>32005</v>
@@ -14425,13 +14422,13 @@
         <v>85987399159</v>
       </c>
       <c r="K166" t="s" s="3">
+        <v>1125</v>
+      </c>
+      <c r="L166" t="s" s="3">
         <v>1126</v>
       </c>
-      <c r="L166" t="s" s="3">
-        <v>1127</v>
-      </c>
       <c r="M166" t="s" s="3">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="N166" s="5">
         <v>60748266</v>
@@ -14451,7 +14448,7 @@
         <v>301</v>
       </c>
       <c r="B167" t="s" s="3">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C167" s="4">
         <v>30976</v>
@@ -14463,10 +14460,10 @@
         <v>85881196168</v>
       </c>
       <c r="F167" t="s" s="3">
+        <v>1128</v>
+      </c>
+      <c r="G167" t="s" s="3">
         <v>1129</v>
-      </c>
-      <c r="G167" t="s" s="3">
-        <v>1130</v>
       </c>
       <c r="H167" s="4">
         <v>35218</v>
@@ -14478,13 +14475,13 @@
         <v>85984191115</v>
       </c>
       <c r="K167" t="s" s="3">
+        <v>1130</v>
+      </c>
+      <c r="L167" t="s" s="3">
         <v>1131</v>
       </c>
-      <c r="L167" t="s" s="3">
+      <c r="M167" t="s" s="3">
         <v>1132</v>
-      </c>
-      <c r="M167" t="s" s="3">
-        <v>1133</v>
       </c>
       <c r="N167" s="5">
         <v>61900670</v>
@@ -14504,7 +14501,7 @@
         <v>65</v>
       </c>
       <c r="B168" t="s" s="3">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="C168" s="4">
         <v>32489</v>
@@ -14516,10 +14513,10 @@
         <v>85988644959</v>
       </c>
       <c r="F168" t="s" s="3">
+        <v>1134</v>
+      </c>
+      <c r="G168" t="s" s="3">
         <v>1135</v>
-      </c>
-      <c r="G168" t="s" s="3">
-        <v>1136</v>
       </c>
       <c r="H168" s="4">
         <v>32745</v>
@@ -14531,13 +14528,13 @@
         <v>85997704340</v>
       </c>
       <c r="K168" t="s" s="3">
+        <v>1136</v>
+      </c>
+      <c r="L168" t="s" s="3">
         <v>1137</v>
       </c>
-      <c r="L168" t="s" s="3">
+      <c r="M168" t="s" s="3">
         <v>1138</v>
-      </c>
-      <c r="M168" t="s" s="3">
-        <v>1139</v>
       </c>
       <c r="N168" s="5">
         <v>60831665</v>
@@ -14557,7 +14554,7 @@
         <v>17</v>
       </c>
       <c r="B169" t="s" s="3">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C169" s="4">
         <v>35010</v>
@@ -14566,13 +14563,13 @@
         <v>60809308380</v>
       </c>
       <c r="E169" t="s" s="7">
+        <v>1140</v>
+      </c>
+      <c r="F169" t="s" s="3">
         <v>1141</v>
       </c>
-      <c r="F169" t="s" s="3">
+      <c r="G169" t="s" s="3">
         <v>1142</v>
-      </c>
-      <c r="G169" t="s" s="3">
-        <v>1143</v>
       </c>
       <c r="H169" s="4">
         <v>35144</v>
@@ -14581,13 +14578,13 @@
         <v>6620951384</v>
       </c>
       <c r="J169" t="s" s="3">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="K169" t="s" s="3">
+        <v>1143</v>
+      </c>
+      <c r="L169" t="s" s="3">
         <v>1144</v>
-      </c>
-      <c r="L169" t="s" s="3">
-        <v>1145</v>
       </c>
       <c r="M169" t="s" s="3">
         <v>286</v>
@@ -14610,7 +14607,7 @@
         <v>17</v>
       </c>
       <c r="B170" t="s" s="3">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C170" s="5">
         <v>21041992</v>
@@ -14622,10 +14619,10 @@
         <v>85981526066</v>
       </c>
       <c r="F170" t="s" s="3">
+        <v>1146</v>
+      </c>
+      <c r="G170" t="s" s="3">
         <v>1147</v>
-      </c>
-      <c r="G170" t="s" s="3">
-        <v>1148</v>
       </c>
       <c r="H170" s="4">
         <v>2051993</v>
@@ -14637,16 +14634,16 @@
         <v>85999496429</v>
       </c>
       <c r="K170" t="s" s="3">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="L170" t="s" s="3">
+        <v>1148</v>
+      </c>
+      <c r="M170" t="s" s="3">
+        <v>1033</v>
+      </c>
+      <c r="N170" t="s" s="7">
         <v>1149</v>
-      </c>
-      <c r="M170" t="s" s="3">
-        <v>1034</v>
-      </c>
-      <c r="N170" t="s" s="7">
-        <v>1150</v>
       </c>
       <c r="O170" t="s" s="7">
         <v>26</v>
@@ -14663,7 +14660,7 @@
         <v>17</v>
       </c>
       <c r="B171" t="s" s="3">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="C171" s="4">
         <v>29569</v>
@@ -14675,10 +14672,10 @@
         <v>85988161338</v>
       </c>
       <c r="F171" t="s" s="3">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G171" t="s" s="3">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H171" s="4">
         <v>33748</v>
@@ -14690,13 +14687,13 @@
         <v>85984256783</v>
       </c>
       <c r="K171" t="s" s="3">
+        <v>1152</v>
+      </c>
+      <c r="L171" t="s" s="3">
         <v>1153</v>
       </c>
-      <c r="L171" t="s" s="3">
+      <c r="M171" t="s" s="3">
         <v>1154</v>
-      </c>
-      <c r="M171" t="s" s="3">
-        <v>1155</v>
       </c>
       <c r="N171" s="5">
         <v>60766180</v>
@@ -14716,43 +14713,43 @@
         <v>65</v>
       </c>
       <c r="B172" t="s" s="3">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C172" s="4">
         <v>30592</v>
       </c>
       <c r="D172" t="s" s="7">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="E172" s="5">
         <v>85988582848</v>
       </c>
       <c r="F172" t="s" s="3">
+        <v>1157</v>
+      </c>
+      <c r="G172" t="s" s="3">
         <v>1158</v>
-      </c>
-      <c r="G172" t="s" s="3">
-        <v>1159</v>
       </c>
       <c r="H172" s="4">
         <v>31449</v>
       </c>
       <c r="I172" t="s" s="3">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="J172" s="6">
         <v>85991400722</v>
       </c>
       <c r="K172" t="s" s="3">
+        <v>1160</v>
+      </c>
+      <c r="L172" t="s" s="3">
         <v>1161</v>
-      </c>
-      <c r="L172" t="s" s="3">
-        <v>1162</v>
       </c>
       <c r="M172" t="s" s="3">
         <v>71</v>
       </c>
       <c r="N172" t="s" s="7">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="O172" t="s" s="7">
         <v>58</v>
@@ -14769,7 +14766,7 @@
         <v>17</v>
       </c>
       <c r="B173" t="s" s="3">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C173" s="4">
         <v>30839</v>
@@ -14781,10 +14778,10 @@
         <v>85986453319</v>
       </c>
       <c r="F173" t="s" s="3">
+        <v>1164</v>
+      </c>
+      <c r="G173" t="s" s="3">
         <v>1165</v>
-      </c>
-      <c r="G173" t="s" s="3">
-        <v>1166</v>
       </c>
       <c r="H173" s="4">
         <v>34075</v>
@@ -14796,10 +14793,10 @@
         <v>85989492421</v>
       </c>
       <c r="K173" t="s" s="3">
+        <v>1166</v>
+      </c>
+      <c r="L173" t="s" s="3">
         <v>1167</v>
-      </c>
-      <c r="L173" t="s" s="3">
-        <v>1168</v>
       </c>
       <c r="M173" t="s" s="3">
         <v>24</v>
@@ -14822,37 +14819,37 @@
         <v>17</v>
       </c>
       <c r="B174" t="s" s="3">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C174" s="4">
         <v>31400</v>
       </c>
       <c r="D174" t="s" s="7">
+        <v>1169</v>
+      </c>
+      <c r="E174" t="s" s="7">
         <v>1170</v>
       </c>
-      <c r="E174" t="s" s="7">
+      <c r="F174" t="s" s="3">
         <v>1171</v>
       </c>
-      <c r="F174" t="s" s="3">
+      <c r="G174" t="s" s="3">
         <v>1172</v>
-      </c>
-      <c r="G174" t="s" s="3">
-        <v>1173</v>
       </c>
       <c r="H174" s="4">
         <v>33098</v>
       </c>
       <c r="I174" t="s" s="3">
+        <v>1173</v>
+      </c>
+      <c r="J174" t="s" s="3">
         <v>1174</v>
       </c>
-      <c r="J174" t="s" s="3">
+      <c r="K174" t="s" s="3">
         <v>1175</v>
       </c>
-      <c r="K174" t="s" s="3">
+      <c r="L174" t="s" s="3">
         <v>1176</v>
-      </c>
-      <c r="L174" t="s" s="3">
-        <v>1177</v>
       </c>
       <c r="M174" t="s" s="3">
         <v>267</v>
@@ -14875,7 +14872,7 @@
         <v>17</v>
       </c>
       <c r="B175" t="s" s="3">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C175" s="4">
         <v>28630</v>
@@ -14884,13 +14881,13 @@
         <v>80706347315</v>
       </c>
       <c r="E175" t="s" s="7">
+        <v>1178</v>
+      </c>
+      <c r="F175" t="s" s="3">
         <v>1179</v>
       </c>
-      <c r="F175" t="s" s="3">
+      <c r="G175" t="s" s="3">
         <v>1180</v>
-      </c>
-      <c r="G175" t="s" s="3">
-        <v>1181</v>
       </c>
       <c r="H175" s="4">
         <v>27586</v>
@@ -14899,19 +14896,19 @@
         <v>62600699368</v>
       </c>
       <c r="J175" t="s" s="3">
+        <v>1181</v>
+      </c>
+      <c r="K175" t="s" s="3">
         <v>1182</v>
       </c>
-      <c r="K175" t="s" s="3">
+      <c r="L175" t="s" s="3">
         <v>1183</v>
-      </c>
-      <c r="L175" t="s" s="3">
-        <v>1184</v>
       </c>
       <c r="M175" t="s" s="3">
         <v>286</v>
       </c>
       <c r="N175" t="s" s="7">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="O175" t="s" s="7">
         <v>40</v>
@@ -14928,7 +14925,7 @@
         <v>17</v>
       </c>
       <c r="B176" t="s" s="3">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C176" s="4">
         <v>35159</v>
@@ -14940,10 +14937,10 @@
         <v>85988226685</v>
       </c>
       <c r="F176" t="s" s="3">
+        <v>1186</v>
+      </c>
+      <c r="G176" t="s" s="3">
         <v>1187</v>
-      </c>
-      <c r="G176" t="s" s="3">
-        <v>1188</v>
       </c>
       <c r="H176" s="4">
         <v>34784</v>
@@ -14955,13 +14952,13 @@
         <v>85992252424</v>
       </c>
       <c r="K176" t="s" s="3">
+        <v>1188</v>
+      </c>
+      <c r="L176" t="s" s="3">
         <v>1189</v>
       </c>
-      <c r="L176" t="s" s="3">
-        <v>1190</v>
-      </c>
       <c r="M176" t="s" s="3">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="N176" s="5">
         <v>60192050</v>
@@ -14981,7 +14978,7 @@
         <v>17</v>
       </c>
       <c r="B177" t="s" s="3">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C177" s="4">
         <v>31903</v>
@@ -14993,10 +14990,10 @@
         <v>85991529074</v>
       </c>
       <c r="F177" t="s" s="3">
+        <v>1191</v>
+      </c>
+      <c r="G177" t="s" s="3">
         <v>1192</v>
-      </c>
-      <c r="G177" t="s" s="3">
-        <v>1193</v>
       </c>
       <c r="H177" s="4">
         <v>33170</v>
@@ -15008,10 +15005,10 @@
         <v>85985506666</v>
       </c>
       <c r="K177" t="s" s="3">
+        <v>1193</v>
+      </c>
+      <c r="L177" t="s" s="3">
         <v>1194</v>
-      </c>
-      <c r="L177" t="s" s="3">
-        <v>1195</v>
       </c>
       <c r="M177" t="s" s="3">
         <v>325</v>
@@ -15023,7 +15020,7 @@
         <v>26</v>
       </c>
       <c r="P177" t="s" s="7">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="Q177" t="s" s="3">
         <v>28</v>
@@ -15034,7 +15031,7 @@
         <v>17</v>
       </c>
       <c r="B178" t="s" s="3">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C178" s="4">
         <v>35588</v>
@@ -15046,10 +15043,10 @@
         <v>88997370042</v>
       </c>
       <c r="F178" t="s" s="3">
+        <v>1196</v>
+      </c>
+      <c r="G178" t="s" s="3">
         <v>1197</v>
-      </c>
-      <c r="G178" t="s" s="3">
-        <v>1198</v>
       </c>
       <c r="H178" s="4">
         <v>32063</v>
@@ -15061,10 +15058,10 @@
         <v>88999001386</v>
       </c>
       <c r="K178" t="s" s="3">
+        <v>1198</v>
+      </c>
+      <c r="L178" t="s" s="3">
         <v>1199</v>
-      </c>
-      <c r="L178" t="s" s="3">
-        <v>1200</v>
       </c>
       <c r="M178" t="s" s="3">
         <v>279</v>
@@ -15087,7 +15084,7 @@
         <v>17</v>
       </c>
       <c r="B179" t="s" s="3">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C179" s="4">
         <v>29555</v>
@@ -15096,13 +15093,13 @@
         <v>61588601315</v>
       </c>
       <c r="E179" t="s" s="7">
+        <v>1201</v>
+      </c>
+      <c r="F179" t="s" s="3">
         <v>1202</v>
       </c>
-      <c r="F179" t="s" s="3">
+      <c r="G179" t="s" s="3">
         <v>1203</v>
-      </c>
-      <c r="G179" t="s" s="3">
-        <v>1204</v>
       </c>
       <c r="H179" s="4">
         <v>27517</v>
@@ -15114,13 +15111,13 @@
         <v>85994250023</v>
       </c>
       <c r="K179" t="s" s="3">
+        <v>1204</v>
+      </c>
+      <c r="L179" t="s" s="3">
         <v>1205</v>
       </c>
-      <c r="L179" t="s" s="3">
+      <c r="M179" t="s" s="3">
         <v>1206</v>
-      </c>
-      <c r="M179" t="s" s="3">
-        <v>1207</v>
       </c>
       <c r="N179" s="5">
         <v>60431088</v>
@@ -15140,7 +15137,7 @@
         <v>17</v>
       </c>
       <c r="B180" t="s" s="3">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C180" s="5">
         <v>5081980</v>
@@ -15152,10 +15149,10 @@
         <v>85992617875</v>
       </c>
       <c r="F180" t="s" s="3">
+        <v>1208</v>
+      </c>
+      <c r="G180" t="s" s="3">
         <v>1209</v>
-      </c>
-      <c r="G180" t="s" s="3">
-        <v>1210</v>
       </c>
       <c r="H180" s="4">
         <v>28978</v>
@@ -15167,10 +15164,10 @@
         <v>85989568283</v>
       </c>
       <c r="K180" t="s" s="3">
+        <v>1210</v>
+      </c>
+      <c r="L180" t="s" s="3">
         <v>1211</v>
-      </c>
-      <c r="L180" t="s" s="3">
-        <v>1212</v>
       </c>
       <c r="M180" t="s" s="3">
         <v>201</v>
@@ -15193,7 +15190,7 @@
         <v>17</v>
       </c>
       <c r="B181" t="s" s="3">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C181" s="4">
         <v>32721</v>
@@ -15205,10 +15202,10 @@
         <v>85986901000</v>
       </c>
       <c r="F181" t="s" s="3">
+        <v>1213</v>
+      </c>
+      <c r="G181" t="s" s="3">
         <v>1214</v>
-      </c>
-      <c r="G181" t="s" s="3">
-        <v>1215</v>
       </c>
       <c r="H181" s="4">
         <v>33633</v>
@@ -15220,13 +15217,13 @@
         <v>85989904006</v>
       </c>
       <c r="K181" t="s" s="3">
+        <v>1215</v>
+      </c>
+      <c r="L181" t="s" s="3">
         <v>1216</v>
       </c>
-      <c r="L181" t="s" s="3">
+      <c r="M181" t="s" s="3">
         <v>1217</v>
-      </c>
-      <c r="M181" t="s" s="3">
-        <v>1218</v>
       </c>
       <c r="N181" s="5">
         <v>60752320</v>
@@ -15246,43 +15243,43 @@
         <v>17</v>
       </c>
       <c r="B182" t="s" s="3">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C182" s="4">
         <v>45742</v>
       </c>
       <c r="D182" t="s" s="7">
+        <v>1219</v>
+      </c>
+      <c r="E182" t="s" s="7">
         <v>1220</v>
       </c>
-      <c r="E182" t="s" s="7">
+      <c r="F182" t="s" s="3">
         <v>1221</v>
       </c>
-      <c r="F182" t="s" s="3">
+      <c r="G182" t="s" s="3">
         <v>1222</v>
-      </c>
-      <c r="G182" t="s" s="3">
-        <v>1223</v>
       </c>
       <c r="H182" s="4">
         <v>33787</v>
       </c>
       <c r="I182" t="s" s="3">
+        <v>1223</v>
+      </c>
+      <c r="J182" t="s" s="3">
         <v>1224</v>
       </c>
-      <c r="J182" t="s" s="3">
+      <c r="K182" t="s" s="3">
         <v>1225</v>
       </c>
-      <c r="K182" t="s" s="3">
+      <c r="L182" t="s" s="3">
         <v>1226</v>
-      </c>
-      <c r="L182" t="s" s="3">
-        <v>1227</v>
       </c>
       <c r="M182" t="s" s="3">
         <v>300</v>
       </c>
       <c r="N182" t="s" s="7">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="O182" t="s" s="7">
         <v>26</v>
@@ -15299,7 +15296,7 @@
         <v>17</v>
       </c>
       <c r="B183" t="s" s="3">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C183" s="4">
         <v>30175</v>
@@ -15311,25 +15308,25 @@
         <v>85988297559</v>
       </c>
       <c r="F183" t="s" s="3">
+        <v>1229</v>
+      </c>
+      <c r="G183" t="s" s="3">
         <v>1230</v>
-      </c>
-      <c r="G183" t="s" s="3">
-        <v>1231</v>
       </c>
       <c r="H183" s="4">
         <v>28335</v>
       </c>
       <c r="I183" t="s" s="3">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="J183" s="6">
         <v>85996462699</v>
       </c>
       <c r="K183" t="s" s="3">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="L183" t="s" s="3">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="M183" t="s" s="3">
         <v>38</v>
@@ -15341,7 +15338,7 @@
         <v>249</v>
       </c>
       <c r="P183" t="s" s="7">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Q183" t="s" s="3">
         <v>42</v>
@@ -15352,7 +15349,7 @@
         <v>65</v>
       </c>
       <c r="B184" t="s" s="3">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C184" s="4">
         <v>33317</v>
@@ -15364,10 +15361,10 @@
         <v>85996891005</v>
       </c>
       <c r="F184" t="s" s="3">
+        <v>1234</v>
+      </c>
+      <c r="G184" t="s" s="3">
         <v>1235</v>
-      </c>
-      <c r="G184" t="s" s="3">
-        <v>1236</v>
       </c>
       <c r="H184" s="4">
         <v>33141</v>
@@ -15379,13 +15376,13 @@
         <v>85981653254</v>
       </c>
       <c r="K184" t="s" s="3">
+        <v>1236</v>
+      </c>
+      <c r="L184" t="s" s="3">
         <v>1237</v>
       </c>
-      <c r="L184" t="s" s="3">
-        <v>1238</v>
-      </c>
       <c r="M184" t="s" s="3">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N184" s="5">
         <v>71773550</v>
@@ -15405,7 +15402,7 @@
         <v>17</v>
       </c>
       <c r="B185" t="s" s="3">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="C185" s="4">
         <v>31488</v>
@@ -15417,10 +15414,10 @@
         <v>85999704375</v>
       </c>
       <c r="F185" t="s" s="3">
+        <v>1239</v>
+      </c>
+      <c r="G185" t="s" s="3">
         <v>1240</v>
-      </c>
-      <c r="G185" t="s" s="3">
-        <v>1241</v>
       </c>
       <c r="H185" s="4">
         <v>31789</v>
@@ -15432,10 +15429,10 @@
         <v>85996070424</v>
       </c>
       <c r="K185" t="s" s="3">
+        <v>1241</v>
+      </c>
+      <c r="L185" t="s" s="3">
         <v>1242</v>
-      </c>
-      <c r="L185" t="s" s="3">
-        <v>1243</v>
       </c>
       <c r="M185" t="s" s="3">
         <v>127</v>
@@ -15458,22 +15455,22 @@
         <v>65</v>
       </c>
       <c r="B186" t="s" s="3">
+        <v>1243</v>
+      </c>
+      <c r="C186" t="s" s="7">
         <v>1244</v>
-      </c>
-      <c r="C186" t="s" s="7">
-        <v>1245</v>
       </c>
       <c r="D186" s="5">
         <v>905880374</v>
       </c>
       <c r="E186" t="s" s="7">
+        <v>1245</v>
+      </c>
+      <c r="F186" t="s" s="3">
         <v>1246</v>
       </c>
-      <c r="F186" t="s" s="3">
+      <c r="G186" t="s" s="3">
         <v>1247</v>
-      </c>
-      <c r="G186" t="s" s="3">
-        <v>1248</v>
       </c>
       <c r="H186" s="4">
         <v>32435</v>
@@ -15482,16 +15479,16 @@
         <v>3670534385</v>
       </c>
       <c r="J186" t="s" s="3">
+        <v>1248</v>
+      </c>
+      <c r="K186" t="s" s="3">
+        <v>1246</v>
+      </c>
+      <c r="L186" t="s" s="3">
         <v>1249</v>
       </c>
-      <c r="K186" t="s" s="3">
-        <v>1247</v>
-      </c>
-      <c r="L186" t="s" s="3">
+      <c r="M186" t="s" s="3">
         <v>1250</v>
-      </c>
-      <c r="M186" t="s" s="3">
-        <v>1251</v>
       </c>
       <c r="N186" s="5">
         <v>61778230</v>
@@ -15500,7 +15497,7 @@
         <v>40</v>
       </c>
       <c r="P186" t="s" s="7">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Q186" t="s" s="3">
         <v>42</v>
@@ -15511,7 +15508,7 @@
         <v>17</v>
       </c>
       <c r="B187" t="s" s="3">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C187" s="4">
         <v>36060</v>
@@ -15523,10 +15520,10 @@
         <v>85994244264</v>
       </c>
       <c r="F187" t="s" s="3">
+        <v>1252</v>
+      </c>
+      <c r="G187" t="s" s="3">
         <v>1253</v>
-      </c>
-      <c r="G187" t="s" s="3">
-        <v>1254</v>
       </c>
       <c r="H187" s="4">
         <v>37608</v>
@@ -15538,10 +15535,10 @@
         <v>85994492530</v>
       </c>
       <c r="K187" t="s" s="3">
+        <v>1254</v>
+      </c>
+      <c r="L187" t="s" s="3">
         <v>1255</v>
-      </c>
-      <c r="L187" t="s" s="3">
-        <v>1256</v>
       </c>
       <c r="M187" t="s" s="3">
         <v>286</v>
@@ -15564,7 +15561,7 @@
         <v>17</v>
       </c>
       <c r="B188" t="s" s="3">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C188" s="5">
         <v>1011986</v>
@@ -15576,10 +15573,10 @@
         <v>85981010830</v>
       </c>
       <c r="F188" t="s" s="3">
+        <v>1257</v>
+      </c>
+      <c r="G188" t="s" s="3">
         <v>1258</v>
-      </c>
-      <c r="G188" t="s" s="3">
-        <v>1259</v>
       </c>
       <c r="H188" s="4">
         <v>2081985</v>
@@ -15591,10 +15588,10 @@
         <v>85987295591</v>
       </c>
       <c r="K188" t="s" s="3">
+        <v>1259</v>
+      </c>
+      <c r="L188" t="s" s="3">
         <v>1260</v>
-      </c>
-      <c r="L188" t="s" s="3">
-        <v>1261</v>
       </c>
       <c r="M188" t="s" s="3">
         <v>273</v>
@@ -15617,7 +15614,7 @@
         <v>17</v>
       </c>
       <c r="B189" t="s" s="3">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C189" s="4">
         <v>35990</v>
@@ -15629,10 +15626,10 @@
         <v>85999253927</v>
       </c>
       <c r="F189" t="s" s="3">
+        <v>1262</v>
+      </c>
+      <c r="G189" t="s" s="3">
         <v>1263</v>
-      </c>
-      <c r="G189" t="s" s="3">
-        <v>1264</v>
       </c>
       <c r="H189" s="4">
         <v>36231</v>
@@ -15644,13 +15641,13 @@
         <v>85999567085</v>
       </c>
       <c r="K189" t="s" s="3">
+        <v>1264</v>
+      </c>
+      <c r="L189" t="s" s="3">
         <v>1265</v>
       </c>
-      <c r="L189" t="s" s="3">
-        <v>1266</v>
-      </c>
       <c r="M189" t="s" s="3">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="N189" s="5">
         <v>60192330</v>
@@ -15670,7 +15667,7 @@
         <v>17</v>
       </c>
       <c r="B190" t="s" s="3">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C190" s="5">
         <v>13081971</v>
@@ -15682,10 +15679,10 @@
         <v>85987751584</v>
       </c>
       <c r="F190" t="s" s="3">
+        <v>1267</v>
+      </c>
+      <c r="G190" t="s" s="3">
         <v>1268</v>
-      </c>
-      <c r="G190" t="s" s="3">
-        <v>1269</v>
       </c>
       <c r="H190" s="4">
         <v>30230</v>
@@ -15697,13 +15694,13 @@
         <v>85997682107</v>
       </c>
       <c r="K190" t="s" s="3">
+        <v>1269</v>
+      </c>
+      <c r="L190" t="s" s="3">
         <v>1270</v>
       </c>
-      <c r="L190" t="s" s="3">
-        <v>1271</v>
-      </c>
       <c r="M190" t="s" s="3">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="N190" s="5">
         <v>60840385</v>
@@ -15723,7 +15720,7 @@
         <v>65</v>
       </c>
       <c r="B191" t="s" s="3">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C191" s="4">
         <v>35459</v>
@@ -15732,13 +15729,13 @@
         <v>3164823150</v>
       </c>
       <c r="E191" t="s" s="7">
+        <v>1272</v>
+      </c>
+      <c r="F191" t="s" s="3">
         <v>1273</v>
       </c>
-      <c r="F191" t="s" s="3">
+      <c r="G191" t="s" s="3">
         <v>1274</v>
-      </c>
-      <c r="G191" t="s" s="3">
-        <v>1275</v>
       </c>
       <c r="H191" s="4">
         <v>34421</v>
@@ -15750,10 +15747,10 @@
         <v>85991034052</v>
       </c>
       <c r="K191" t="s" s="3">
+        <v>1275</v>
+      </c>
+      <c r="L191" t="s" s="3">
         <v>1276</v>
-      </c>
-      <c r="L191" t="s" s="3">
-        <v>1277</v>
       </c>
       <c r="M191" t="s" s="3">
         <v>293</v>
@@ -15776,43 +15773,43 @@
         <v>65</v>
       </c>
       <c r="B192" t="s" s="3">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C192" s="4">
         <v>30913</v>
       </c>
       <c r="D192" t="s" s="7">
+        <v>1278</v>
+      </c>
+      <c r="E192" t="s" s="7">
         <v>1279</v>
       </c>
-      <c r="E192" t="s" s="7">
+      <c r="F192" t="s" s="3">
         <v>1280</v>
       </c>
-      <c r="F192" t="s" s="3">
-        <v>1281</v>
-      </c>
       <c r="G192" t="s" s="3">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="H192" s="4">
         <v>25131</v>
       </c>
       <c r="I192" t="s" s="3">
+        <v>1281</v>
+      </c>
+      <c r="J192" t="s" s="3">
+        <v>1279</v>
+      </c>
+      <c r="K192" t="s" s="3">
         <v>1282</v>
       </c>
-      <c r="J192" t="s" s="3">
-        <v>1280</v>
-      </c>
-      <c r="K192" t="s" s="3">
+      <c r="L192" t="s" s="3">
         <v>1283</v>
       </c>
-      <c r="L192" t="s" s="3">
+      <c r="M192" t="s" s="3">
         <v>1284</v>
       </c>
-      <c r="M192" t="s" s="3">
+      <c r="N192" t="s" s="7">
         <v>1285</v>
-      </c>
-      <c r="N192" t="s" s="7">
-        <v>1286</v>
       </c>
       <c r="O192" t="s" s="7">
         <v>26</v>
@@ -15829,7 +15826,7 @@
         <v>17</v>
       </c>
       <c r="B193" t="s" s="3">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C193" s="4">
         <v>35027</v>
@@ -15841,10 +15838,10 @@
         <v>85998589820</v>
       </c>
       <c r="F193" t="s" s="3">
+        <v>1287</v>
+      </c>
+      <c r="G193" t="s" s="3">
         <v>1288</v>
-      </c>
-      <c r="G193" t="s" s="3">
-        <v>1289</v>
       </c>
       <c r="H193" s="4">
         <v>35898</v>
@@ -15856,13 +15853,13 @@
         <v>85989290410</v>
       </c>
       <c r="K193" t="s" s="3">
+        <v>1289</v>
+      </c>
+      <c r="L193" t="s" s="3">
         <v>1290</v>
       </c>
-      <c r="L193" t="s" s="3">
+      <c r="M193" t="s" s="3">
         <v>1291</v>
-      </c>
-      <c r="M193" t="s" s="3">
-        <v>1292</v>
       </c>
       <c r="N193" s="5">
         <v>60440080</v>
@@ -15871,7 +15868,7 @@
         <v>26</v>
       </c>
       <c r="P193" t="s" s="7">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Q193" t="s" s="3">
         <v>42</v>
@@ -15882,7 +15879,7 @@
         <v>43</v>
       </c>
       <c r="B194" t="s" s="3">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="C194" s="4">
         <v>31869</v>
@@ -15891,13 +15888,13 @@
         <v>3308993370</v>
       </c>
       <c r="E194" t="s" s="7">
+        <v>1293</v>
+      </c>
+      <c r="F194" t="s" s="3">
         <v>1294</v>
       </c>
-      <c r="F194" t="s" s="3">
+      <c r="G194" t="s" s="3">
         <v>1295</v>
-      </c>
-      <c r="G194" t="s" s="3">
-        <v>1296</v>
       </c>
       <c r="H194" s="4">
         <v>32412</v>
@@ -15909,10 +15906,10 @@
         <v>85987065800</v>
       </c>
       <c r="K194" t="s" s="3">
+        <v>1296</v>
+      </c>
+      <c r="L194" t="s" s="3">
         <v>1297</v>
-      </c>
-      <c r="L194" t="s" s="3">
-        <v>1298</v>
       </c>
       <c r="M194" t="s" s="3">
         <v>50</v>
@@ -15935,7 +15932,7 @@
         <v>17</v>
       </c>
       <c r="B195" t="s" s="3">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="C195" s="5">
         <v>14061972</v>
@@ -15947,10 +15944,10 @@
         <v>85987403131</v>
       </c>
       <c r="F195" t="s" s="3">
+        <v>1299</v>
+      </c>
+      <c r="G195" t="s" s="3">
         <v>1300</v>
-      </c>
-      <c r="G195" t="s" s="3">
-        <v>1301</v>
       </c>
       <c r="H195" s="4">
         <v>29293</v>
@@ -15962,16 +15959,16 @@
         <v>85992848942</v>
       </c>
       <c r="K195" t="s" s="3">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="L195" t="s" s="3">
+        <v>1301</v>
+      </c>
+      <c r="M195" t="s" s="3">
+        <v>824</v>
+      </c>
+      <c r="N195" t="s" s="7">
         <v>1302</v>
-      </c>
-      <c r="M195" t="s" s="3">
-        <v>825</v>
-      </c>
-      <c r="N195" t="s" s="7">
-        <v>1303</v>
       </c>
       <c r="O195" t="s" s="7">
         <v>142</v>
@@ -15988,7 +15985,7 @@
         <v>17</v>
       </c>
       <c r="B196" t="s" s="3">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="C196" s="4">
         <v>35785</v>
@@ -16000,10 +15997,10 @@
         <v>88998549895</v>
       </c>
       <c r="F196" t="s" s="3">
+        <v>1304</v>
+      </c>
+      <c r="G196" t="s" s="3">
         <v>1305</v>
-      </c>
-      <c r="G196" t="s" s="3">
-        <v>1306</v>
       </c>
       <c r="H196" s="4">
         <v>34786</v>
@@ -16015,13 +16012,13 @@
         <v>86995876088</v>
       </c>
       <c r="K196" t="s" s="3">
+        <v>1306</v>
+      </c>
+      <c r="L196" t="s" s="3">
         <v>1307</v>
       </c>
-      <c r="L196" t="s" s="3">
-        <v>1308</v>
-      </c>
       <c r="M196" t="s" s="3">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="N196" s="5">
         <v>60135410</v>
@@ -16038,10 +16035,10 @@
     </row>
     <row r="197" ht="16" customHeight="1">
       <c r="A197" t="s" s="3">
+        <v>1308</v>
+      </c>
+      <c r="B197" t="s" s="3">
         <v>1309</v>
-      </c>
-      <c r="B197" t="s" s="3">
-        <v>1310</v>
       </c>
       <c r="C197" s="5">
         <v>1121977</v>
@@ -16053,10 +16050,10 @@
         <v>85988468328</v>
       </c>
       <c r="F197" t="s" s="3">
+        <v>1310</v>
+      </c>
+      <c r="G197" t="s" s="3">
         <v>1311</v>
-      </c>
-      <c r="G197" t="s" s="3">
-        <v>1312</v>
       </c>
       <c r="H197" s="4">
         <v>28937</v>
@@ -16068,13 +16065,13 @@
         <v>85985610761</v>
       </c>
       <c r="K197" t="s" s="3">
+        <v>1312</v>
+      </c>
+      <c r="L197" t="s" s="3">
         <v>1313</v>
       </c>
-      <c r="L197" t="s" s="3">
+      <c r="M197" t="s" s="3">
         <v>1314</v>
-      </c>
-      <c r="M197" t="s" s="3">
-        <v>1315</v>
       </c>
       <c r="N197" s="5">
         <v>61814902</v>
@@ -16094,7 +16091,7 @@
         <v>17</v>
       </c>
       <c r="B198" t="s" s="3">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="C198" s="4">
         <v>31732</v>
@@ -16106,10 +16103,10 @@
         <v>8897856622</v>
       </c>
       <c r="F198" t="s" s="3">
+        <v>1316</v>
+      </c>
+      <c r="G198" t="s" s="3">
         <v>1317</v>
-      </c>
-      <c r="G198" t="s" s="3">
-        <v>1318</v>
       </c>
       <c r="H198" s="4">
         <v>31732</v>
@@ -16121,13 +16118,13 @@
         <v>85986633765</v>
       </c>
       <c r="K198" t="s" s="3">
+        <v>1318</v>
+      </c>
+      <c r="L198" t="s" s="3">
         <v>1319</v>
       </c>
-      <c r="L198" t="s" s="3">
-        <v>1320</v>
-      </c>
       <c r="M198" t="s" s="3">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="N198" s="5">
         <v>60840270</v>
@@ -16147,7 +16144,7 @@
         <v>17</v>
       </c>
       <c r="B199" t="s" s="3">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="C199" s="4">
         <v>29165</v>
@@ -16159,10 +16156,10 @@
         <v>85981551531</v>
       </c>
       <c r="F199" t="s" s="3">
+        <v>1321</v>
+      </c>
+      <c r="G199" t="s" s="3">
         <v>1322</v>
-      </c>
-      <c r="G199" t="s" s="3">
-        <v>1323</v>
       </c>
       <c r="H199" s="4">
         <v>27362</v>
@@ -16174,13 +16171,13 @@
         <v>85981651531</v>
       </c>
       <c r="K199" t="s" s="3">
+        <v>1323</v>
+      </c>
+      <c r="L199" t="s" s="3">
         <v>1324</v>
       </c>
-      <c r="L199" t="s" s="3">
-        <v>1325</v>
-      </c>
       <c r="M199" t="s" s="3">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="N199" s="5">
         <v>60831310</v>
@@ -16200,7 +16197,7 @@
         <v>65</v>
       </c>
       <c r="B200" t="s" s="3">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="C200" s="5">
         <v>6101986</v>
@@ -16212,10 +16209,10 @@
         <v>85985452271</v>
       </c>
       <c r="F200" t="s" s="3">
+        <v>1326</v>
+      </c>
+      <c r="G200" t="s" s="3">
         <v>1327</v>
-      </c>
-      <c r="G200" t="s" s="3">
-        <v>1328</v>
       </c>
       <c r="H200" s="4">
         <v>31339</v>
@@ -16227,13 +16224,13 @@
         <v>85988014800</v>
       </c>
       <c r="K200" t="s" s="3">
+        <v>1328</v>
+      </c>
+      <c r="L200" t="s" s="3">
         <v>1329</v>
       </c>
-      <c r="L200" t="s" s="3">
-        <v>1330</v>
-      </c>
       <c r="M200" t="s" s="3">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="N200" s="5">
         <v>61760880</v>
@@ -16253,7 +16250,7 @@
         <v>17</v>
       </c>
       <c r="B201" t="s" s="3">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C201" s="5">
         <v>6041996</v>
@@ -16265,10 +16262,10 @@
         <v>85997771020</v>
       </c>
       <c r="F201" t="s" s="3">
+        <v>1331</v>
+      </c>
+      <c r="G201" t="s" s="3">
         <v>1332</v>
-      </c>
-      <c r="G201" t="s" s="3">
-        <v>1333</v>
       </c>
       <c r="H201" s="4">
         <v>2081999</v>
@@ -16280,13 +16277,13 @@
         <v>85998499981</v>
       </c>
       <c r="K201" t="s" s="3">
+        <v>1333</v>
+      </c>
+      <c r="L201" t="s" s="3">
         <v>1334</v>
       </c>
-      <c r="L201" t="s" s="3">
+      <c r="M201" t="s" s="3">
         <v>1335</v>
-      </c>
-      <c r="M201" t="s" s="3">
-        <v>1336</v>
       </c>
       <c r="N201" s="5">
         <v>60751260</v>
@@ -16306,7 +16303,7 @@
         <v>17</v>
       </c>
       <c r="B202" t="s" s="3">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="C202" s="4">
         <v>32818</v>
@@ -16315,13 +16312,13 @@
         <v>5030289321</v>
       </c>
       <c r="E202" t="s" s="7">
+        <v>1337</v>
+      </c>
+      <c r="F202" t="s" s="3">
         <v>1338</v>
       </c>
-      <c r="F202" t="s" s="3">
+      <c r="G202" t="s" s="3">
         <v>1339</v>
-      </c>
-      <c r="G202" t="s" s="3">
-        <v>1340</v>
       </c>
       <c r="H202" s="4">
         <v>33809</v>
@@ -16333,13 +16330,13 @@
         <v>85991397560</v>
       </c>
       <c r="K202" t="s" s="3">
+        <v>1340</v>
+      </c>
+      <c r="L202" t="s" s="3">
         <v>1341</v>
       </c>
-      <c r="L202" t="s" s="3">
+      <c r="M202" t="s" s="3">
         <v>1342</v>
-      </c>
-      <c r="M202" t="s" s="3">
-        <v>1343</v>
       </c>
       <c r="N202" s="5">
         <v>60831075</v>
@@ -16359,7 +16356,7 @@
         <v>17</v>
       </c>
       <c r="B203" t="s" s="3">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="C203" s="4">
         <v>30173</v>
@@ -16368,10 +16365,10 @@
         <v>65886534334</v>
       </c>
       <c r="E203" t="s" s="7">
+        <v>1344</v>
+      </c>
+      <c r="F203" t="s" s="3">
         <v>1345</v>
-      </c>
-      <c r="F203" t="s" s="3">
-        <v>1346</v>
       </c>
       <c r="G203" t="s" s="3">
         <v>276</v>
@@ -16383,13 +16380,13 @@
         <v>1769335307</v>
       </c>
       <c r="J203" t="s" s="3">
+        <v>1346</v>
+      </c>
+      <c r="K203" t="s" s="3">
         <v>1347</v>
       </c>
-      <c r="K203" t="s" s="3">
+      <c r="L203" t="s" s="3">
         <v>1348</v>
-      </c>
-      <c r="L203" t="s" s="3">
-        <v>1349</v>
       </c>
       <c r="M203" t="s" s="3">
         <v>231</v>
@@ -16412,7 +16409,7 @@
         <v>17</v>
       </c>
       <c r="B204" t="s" s="3">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="C204" s="5">
         <v>11101991</v>
@@ -16424,10 +16421,10 @@
         <v>85987133688</v>
       </c>
       <c r="F204" t="s" s="3">
+        <v>1350</v>
+      </c>
+      <c r="G204" t="s" s="3">
         <v>1351</v>
-      </c>
-      <c r="G204" t="s" s="3">
-        <v>1352</v>
       </c>
       <c r="H204" s="4">
         <v>34580</v>
@@ -16439,10 +16436,10 @@
         <v>85986744523</v>
       </c>
       <c r="K204" t="s" s="3">
+        <v>1352</v>
+      </c>
+      <c r="L204" t="s" s="3">
         <v>1353</v>
-      </c>
-      <c r="L204" t="s" s="3">
-        <v>1354</v>
       </c>
       <c r="M204" t="s" s="3">
         <v>196</v>
@@ -16465,7 +16462,7 @@
         <v>43</v>
       </c>
       <c r="B205" t="s" s="3">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="C205" s="4">
         <v>34127</v>
@@ -16474,13 +16471,13 @@
         <v>60454170386</v>
       </c>
       <c r="E205" t="s" s="7">
+        <v>1355</v>
+      </c>
+      <c r="F205" t="s" s="3">
         <v>1356</v>
       </c>
-      <c r="F205" t="s" s="3">
+      <c r="G205" t="s" s="3">
         <v>1357</v>
-      </c>
-      <c r="G205" t="s" s="3">
-        <v>1358</v>
       </c>
       <c r="H205" s="4">
         <v>35738</v>
@@ -16489,13 +16486,13 @@
         <v>46157352</v>
       </c>
       <c r="J205" t="s" s="3">
+        <v>1358</v>
+      </c>
+      <c r="K205" t="s" s="3">
         <v>1359</v>
       </c>
-      <c r="K205" t="s" s="3">
+      <c r="L205" t="s" s="3">
         <v>1360</v>
-      </c>
-      <c r="L205" t="s" s="3">
-        <v>1361</v>
       </c>
       <c r="M205" t="s" s="3">
         <v>231</v>
@@ -16507,7 +16504,7 @@
         <v>142</v>
       </c>
       <c r="P205" t="s" s="7">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="Q205" t="s" s="3">
         <v>42</v>
@@ -16518,7 +16515,7 @@
         <v>17</v>
       </c>
       <c r="B206" t="s" s="3">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="C206" s="4">
         <v>28781</v>
@@ -16530,10 +16527,10 @@
         <v>85999976226</v>
       </c>
       <c r="F206" t="s" s="3">
+        <v>1363</v>
+      </c>
+      <c r="G206" t="s" s="3">
         <v>1364</v>
-      </c>
-      <c r="G206" t="s" s="3">
-        <v>1365</v>
       </c>
       <c r="H206" s="4">
         <v>32155</v>
@@ -16545,10 +16542,10 @@
         <v>85999976326</v>
       </c>
       <c r="K206" t="s" s="3">
+        <v>1365</v>
+      </c>
+      <c r="L206" t="s" s="3">
         <v>1366</v>
-      </c>
-      <c r="L206" t="s" s="3">
-        <v>1367</v>
       </c>
       <c r="M206" t="s" s="3">
         <v>241</v>
@@ -16571,7 +16568,7 @@
         <v>17</v>
       </c>
       <c r="B207" t="s" s="3">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="C207" s="4">
         <v>32798</v>
@@ -16583,10 +16580,10 @@
         <v>85988127713</v>
       </c>
       <c r="F207" t="s" s="3">
+        <v>1368</v>
+      </c>
+      <c r="G207" t="s" s="3">
         <v>1369</v>
-      </c>
-      <c r="G207" t="s" s="3">
-        <v>1370</v>
       </c>
       <c r="H207" s="4">
         <v>33962</v>
@@ -16598,13 +16595,13 @@
         <v>85985270014</v>
       </c>
       <c r="K207" t="s" s="3">
+        <v>1370</v>
+      </c>
+      <c r="L207" t="s" s="3">
         <v>1371</v>
       </c>
-      <c r="L207" t="s" s="3">
+      <c r="M207" t="s" s="3">
         <v>1372</v>
-      </c>
-      <c r="M207" t="s" s="3">
-        <v>1373</v>
       </c>
       <c r="N207" s="5">
         <v>60878055</v>
@@ -16624,7 +16621,7 @@
         <v>17</v>
       </c>
       <c r="B208" t="s" s="3">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="C208" s="4">
         <v>35542</v>
@@ -16636,10 +16633,10 @@
         <v>85992041010</v>
       </c>
       <c r="F208" t="s" s="3">
+        <v>1374</v>
+      </c>
+      <c r="G208" t="s" s="3">
         <v>1375</v>
-      </c>
-      <c r="G208" t="s" s="3">
-        <v>1376</v>
       </c>
       <c r="H208" s="4">
         <v>35768</v>
@@ -16651,13 +16648,13 @@
         <v>85999318699</v>
       </c>
       <c r="K208" t="s" s="3">
+        <v>1376</v>
+      </c>
+      <c r="L208" t="s" s="3">
         <v>1377</v>
       </c>
-      <c r="L208" t="s" s="3">
-        <v>1378</v>
-      </c>
       <c r="M208" t="s" s="3">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="N208" s="5">
         <v>60192079</v>
@@ -16666,7 +16663,7 @@
         <v>26</v>
       </c>
       <c r="P208" t="s" s="7">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Q208" t="s" s="3">
         <v>42</v>
@@ -16677,7 +16674,7 @@
         <v>17</v>
       </c>
       <c r="B209" t="s" s="3">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="C209" s="4">
         <v>31598</v>
@@ -16686,13 +16683,13 @@
         <v>1046603337</v>
       </c>
       <c r="E209" t="s" s="7">
+        <v>1379</v>
+      </c>
+      <c r="F209" t="s" s="3">
         <v>1380</v>
       </c>
-      <c r="F209" t="s" s="3">
+      <c r="G209" t="s" s="3">
         <v>1381</v>
-      </c>
-      <c r="G209" t="s" s="3">
-        <v>1382</v>
       </c>
       <c r="H209" s="4">
         <v>30823</v>
@@ -16701,19 +16698,19 @@
         <v>696977362</v>
       </c>
       <c r="J209" t="s" s="3">
+        <v>1382</v>
+      </c>
+      <c r="K209" t="s" s="3">
         <v>1383</v>
       </c>
-      <c r="K209" t="s" s="3">
+      <c r="L209" t="s" s="3">
         <v>1384</v>
       </c>
-      <c r="L209" t="s" s="3">
+      <c r="M209" t="s" s="3">
+        <v>1138</v>
+      </c>
+      <c r="N209" t="s" s="7">
         <v>1385</v>
-      </c>
-      <c r="M209" t="s" s="3">
-        <v>1139</v>
-      </c>
-      <c r="N209" t="s" s="7">
-        <v>1386</v>
       </c>
       <c r="O209" t="s" s="7">
         <v>142</v>
@@ -16730,7 +16727,7 @@
         <v>17</v>
       </c>
       <c r="B210" t="s" s="3">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="C210" s="4">
         <v>34848</v>
@@ -16742,10 +16739,10 @@
         <v>85987354099</v>
       </c>
       <c r="F210" t="s" s="3">
+        <v>1387</v>
+      </c>
+      <c r="G210" t="s" s="3">
         <v>1388</v>
-      </c>
-      <c r="G210" t="s" s="3">
-        <v>1389</v>
       </c>
       <c r="H210" s="4">
         <v>35416</v>
@@ -16757,13 +16754,13 @@
         <v>85997570669</v>
       </c>
       <c r="K210" t="s" s="3">
+        <v>1389</v>
+      </c>
+      <c r="L210" t="s" s="3">
         <v>1390</v>
       </c>
-      <c r="L210" t="s" s="3">
-        <v>1391</v>
-      </c>
       <c r="M210" t="s" s="3">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N210" s="5">
         <v>60520590</v>
@@ -16783,22 +16780,22 @@
         <v>17</v>
       </c>
       <c r="B211" t="s" s="3">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="C211" s="5">
         <v>13091995</v>
       </c>
       <c r="D211" t="s" s="7">
+        <v>1392</v>
+      </c>
+      <c r="E211" t="s" s="7">
         <v>1393</v>
       </c>
-      <c r="E211" t="s" s="7">
+      <c r="F211" t="s" s="3">
         <v>1394</v>
       </c>
-      <c r="F211" t="s" s="3">
+      <c r="G211" t="s" s="3">
         <v>1395</v>
-      </c>
-      <c r="G211" t="s" s="3">
-        <v>1396</v>
       </c>
       <c r="H211" s="4">
         <v>35721</v>
@@ -16810,10 +16807,10 @@
         <v>85996424460</v>
       </c>
       <c r="K211" t="s" s="3">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="L211" t="s" s="3">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="M211" t="s" s="3">
         <v>24</v>
@@ -16836,7 +16833,7 @@
         <v>65</v>
       </c>
       <c r="B212" t="s" s="3">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="C212" s="4">
         <v>32395</v>
@@ -16845,13 +16842,13 @@
         <v>98943170300</v>
       </c>
       <c r="E212" t="s" s="7">
+        <v>1398</v>
+      </c>
+      <c r="F212" t="s" s="3">
         <v>1399</v>
       </c>
-      <c r="F212" t="s" s="3">
+      <c r="G212" t="s" s="3">
         <v>1400</v>
-      </c>
-      <c r="G212" t="s" s="3">
-        <v>1401</v>
       </c>
       <c r="H212" s="4">
         <v>33281</v>
@@ -16860,13 +16857,13 @@
         <v>4302046392</v>
       </c>
       <c r="J212" t="s" s="3">
+        <v>1401</v>
+      </c>
+      <c r="K212" t="s" s="3">
         <v>1402</v>
       </c>
-      <c r="K212" t="s" s="3">
+      <c r="L212" t="s" s="3">
         <v>1403</v>
-      </c>
-      <c r="L212" t="s" s="3">
-        <v>1404</v>
       </c>
       <c r="M212" t="s" s="3">
         <v>71</v>
@@ -16889,7 +16886,7 @@
         <v>17</v>
       </c>
       <c r="B213" t="s" s="3">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="C213" s="4">
         <v>33910</v>
@@ -16901,10 +16898,10 @@
         <v>85997708040</v>
       </c>
       <c r="F213" t="s" s="3">
+        <v>1405</v>
+      </c>
+      <c r="G213" t="s" s="3">
         <v>1406</v>
-      </c>
-      <c r="G213" t="s" s="3">
-        <v>1407</v>
       </c>
       <c r="H213" s="4">
         <v>33910</v>
@@ -16913,16 +16910,16 @@
         <v>795246307</v>
       </c>
       <c r="J213" t="s" s="3">
+        <v>1407</v>
+      </c>
+      <c r="K213" t="s" s="3">
         <v>1408</v>
       </c>
-      <c r="K213" t="s" s="3">
+      <c r="L213" t="s" s="3">
         <v>1409</v>
       </c>
-      <c r="L213" t="s" s="3">
-        <v>1410</v>
-      </c>
       <c r="M213" t="s" s="3">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="N213" s="5">
         <v>60831160</v>
@@ -16942,7 +16939,7 @@
         <v>17</v>
       </c>
       <c r="B214" t="s" s="3">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="C214" s="5">
         <v>17041988</v>
@@ -16954,10 +16951,10 @@
         <v>85986862429</v>
       </c>
       <c r="F214" t="s" s="3">
+        <v>1411</v>
+      </c>
+      <c r="G214" t="s" s="3">
         <v>1412</v>
-      </c>
-      <c r="G214" t="s" s="3">
-        <v>1413</v>
       </c>
       <c r="H214" s="4">
         <v>33829</v>
@@ -16969,16 +16966,16 @@
         <v>85988853558</v>
       </c>
       <c r="K214" t="s" s="3">
+        <v>1413</v>
+      </c>
+      <c r="L214" t="s" s="3">
         <v>1414</v>
       </c>
-      <c r="L214" t="s" s="3">
+      <c r="M214" t="s" s="3">
+        <v>781</v>
+      </c>
+      <c r="N214" t="s" s="7">
         <v>1415</v>
-      </c>
-      <c r="M214" t="s" s="3">
-        <v>782</v>
-      </c>
-      <c r="N214" t="s" s="7">
-        <v>1416</v>
       </c>
       <c r="O214" t="s" s="7">
         <v>40</v>
@@ -16995,7 +16992,7 @@
         <v>17</v>
       </c>
       <c r="B215" t="s" s="3">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C215" s="4">
         <v>34060</v>
@@ -17007,10 +17004,10 @@
         <v>85996502168</v>
       </c>
       <c r="F215" t="s" s="3">
+        <v>1417</v>
+      </c>
+      <c r="G215" t="s" s="3">
         <v>1418</v>
-      </c>
-      <c r="G215" t="s" s="3">
-        <v>1419</v>
       </c>
       <c r="H215" s="4">
         <v>34901</v>
@@ -17022,10 +17019,10 @@
         <v>85989621720</v>
       </c>
       <c r="K215" t="s" s="3">
+        <v>1419</v>
+      </c>
+      <c r="L215" t="s" s="3">
         <v>1420</v>
-      </c>
-      <c r="L215" t="s" s="3">
-        <v>1421</v>
       </c>
       <c r="M215" t="s" s="3">
         <v>201</v>
@@ -17048,7 +17045,7 @@
         <v>17</v>
       </c>
       <c r="B216" t="s" s="3">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="C216" s="5">
         <v>17081999</v>
@@ -17057,13 +17054,13 @@
         <v>4612638310</v>
       </c>
       <c r="E216" t="s" s="7">
+        <v>1422</v>
+      </c>
+      <c r="F216" t="s" s="3">
         <v>1423</v>
       </c>
-      <c r="F216" t="s" s="3">
+      <c r="G216" t="s" s="3">
         <v>1424</v>
-      </c>
-      <c r="G216" t="s" s="3">
-        <v>1425</v>
       </c>
       <c r="H216" s="4">
         <v>32634</v>
@@ -17075,13 +17072,13 @@
         <v>85999880305</v>
       </c>
       <c r="K216" t="s" s="3">
+        <v>1425</v>
+      </c>
+      <c r="L216" t="s" s="3">
         <v>1426</v>
       </c>
-      <c r="L216" t="s" s="3">
-        <v>1427</v>
-      </c>
       <c r="M216" t="s" s="3">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="N216" s="5">
         <v>60822520</v>
@@ -17090,7 +17087,7 @@
         <v>40</v>
       </c>
       <c r="P216" t="s" s="7">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Q216" t="s" s="3">
         <v>42</v>
@@ -17101,22 +17098,22 @@
         <v>17</v>
       </c>
       <c r="B217" t="s" s="3">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="C217" s="4">
         <v>29990</v>
       </c>
       <c r="D217" t="s" s="7">
+        <v>1428</v>
+      </c>
+      <c r="E217" t="s" s="7">
         <v>1429</v>
       </c>
-      <c r="E217" t="s" s="7">
+      <c r="F217" t="s" s="3">
         <v>1430</v>
       </c>
-      <c r="F217" t="s" s="3">
+      <c r="G217" t="s" s="3">
         <v>1431</v>
-      </c>
-      <c r="G217" t="s" s="3">
-        <v>1432</v>
       </c>
       <c r="H217" s="4">
         <v>34247</v>
@@ -17125,16 +17122,16 @@
         <v>3292821312</v>
       </c>
       <c r="J217" t="s" s="3">
+        <v>1432</v>
+      </c>
+      <c r="K217" t="s" s="3">
         <v>1433</v>
       </c>
-      <c r="K217" t="s" s="3">
+      <c r="L217" t="s" s="3">
         <v>1434</v>
       </c>
-      <c r="L217" t="s" s="3">
-        <v>1435</v>
-      </c>
       <c r="M217" t="s" s="3">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="N217" s="5">
         <v>60192072</v>
@@ -17154,43 +17151,43 @@
         <v>17</v>
       </c>
       <c r="B218" t="s" s="3">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="C218" s="4">
         <v>37368</v>
       </c>
       <c r="D218" t="s" s="7">
+        <v>1436</v>
+      </c>
+      <c r="E218" t="s" s="7">
         <v>1437</v>
       </c>
-      <c r="E218" t="s" s="7">
+      <c r="F218" t="s" s="3">
         <v>1438</v>
       </c>
-      <c r="F218" t="s" s="3">
+      <c r="G218" t="s" s="3">
         <v>1439</v>
-      </c>
-      <c r="G218" t="s" s="3">
-        <v>1440</v>
       </c>
       <c r="H218" s="4">
         <v>36328</v>
       </c>
       <c r="I218" t="s" s="3">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="J218" s="6">
         <v>85985345633</v>
       </c>
       <c r="K218" t="s" s="3">
+        <v>1441</v>
+      </c>
+      <c r="L218" t="s" s="3">
         <v>1442</v>
       </c>
-      <c r="L218" t="s" s="3">
+      <c r="M218" t="s" s="3">
+        <v>371</v>
+      </c>
+      <c r="N218" t="s" s="7">
         <v>1443</v>
-      </c>
-      <c r="M218" t="s" s="3">
-        <v>372</v>
-      </c>
-      <c r="N218" t="s" s="7">
-        <v>1444</v>
       </c>
       <c r="O218" t="s" s="7">
         <v>26</v>
@@ -17207,7 +17204,7 @@
         <v>17</v>
       </c>
       <c r="B219" t="s" s="3">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="C219" s="5">
         <v>10111983</v>
@@ -17219,10 +17216,10 @@
         <v>85986861503</v>
       </c>
       <c r="F219" t="s" s="3">
+        <v>1445</v>
+      </c>
+      <c r="G219" t="s" s="3">
         <v>1446</v>
-      </c>
-      <c r="G219" t="s" s="3">
-        <v>1447</v>
       </c>
       <c r="H219" s="4">
         <v>33964</v>
@@ -17234,13 +17231,13 @@
         <v>86997662815</v>
       </c>
       <c r="K219" t="s" s="3">
+        <v>1447</v>
+      </c>
+      <c r="L219" t="s" s="3">
         <v>1448</v>
       </c>
-      <c r="L219" t="s" s="3">
-        <v>1449</v>
-      </c>
       <c r="M219" t="s" s="3">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="N219" s="5">
         <v>60124101</v>
@@ -17257,10 +17254,10 @@
     </row>
     <row r="220" ht="16" customHeight="1">
       <c r="A220" t="s" s="3">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="B220" t="s" s="3">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="C220" s="4">
         <v>35545</v>
@@ -17269,13 +17266,13 @@
         <v>6567426314</v>
       </c>
       <c r="E220" t="s" s="7">
+        <v>1450</v>
+      </c>
+      <c r="F220" t="s" s="3">
         <v>1451</v>
       </c>
-      <c r="F220" t="s" s="3">
+      <c r="G220" t="s" s="3">
         <v>1452</v>
-      </c>
-      <c r="G220" t="s" s="3">
-        <v>1453</v>
       </c>
       <c r="H220" s="4">
         <v>35123</v>
@@ -17287,13 +17284,13 @@
         <v>85991006019</v>
       </c>
       <c r="K220" t="s" s="3">
+        <v>1453</v>
+      </c>
+      <c r="L220" t="s" s="3">
         <v>1454</v>
       </c>
-      <c r="L220" t="s" s="3">
+      <c r="M220" t="s" s="3">
         <v>1455</v>
-      </c>
-      <c r="M220" t="s" s="3">
-        <v>1456</v>
       </c>
       <c r="N220" s="5">
         <v>61814901</v>
@@ -17313,7 +17310,7 @@
         <v>17</v>
       </c>
       <c r="B221" t="s" s="3">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="C221" s="5">
         <v>29081970</v>
@@ -17325,10 +17322,10 @@
         <v>85999316759</v>
       </c>
       <c r="F221" t="s" s="3">
+        <v>1457</v>
+      </c>
+      <c r="G221" t="s" s="3">
         <v>1458</v>
-      </c>
-      <c r="G221" t="s" s="3">
-        <v>1459</v>
       </c>
       <c r="H221" s="4">
         <v>25124</v>
@@ -17340,13 +17337,13 @@
         <v>85999316759</v>
       </c>
       <c r="K221" t="s" s="3">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="L221" t="s" s="3">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="M221" t="s" s="3">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="N221" s="5">
         <v>60745530</v>
@@ -17363,52 +17360,52 @@
     </row>
     <row r="222" ht="16" customHeight="1">
       <c r="A222" t="s" s="3">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B222" t="s" s="3">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="C222" s="4">
         <v>36875</v>
       </c>
       <c r="D222" t="s" s="7">
+        <v>1461</v>
+      </c>
+      <c r="E222" t="s" s="7">
         <v>1462</v>
       </c>
-      <c r="E222" t="s" s="7">
+      <c r="F222" t="s" s="3">
         <v>1463</v>
       </c>
-      <c r="F222" t="s" s="3">
+      <c r="G222" t="s" s="3">
         <v>1464</v>
-      </c>
-      <c r="G222" t="s" s="3">
-        <v>1465</v>
       </c>
       <c r="H222" s="4">
         <v>37437</v>
       </c>
       <c r="I222" t="s" s="3">
+        <v>1465</v>
+      </c>
+      <c r="J222" t="s" s="3">
         <v>1466</v>
       </c>
-      <c r="J222" t="s" s="3">
+      <c r="K222" t="s" s="3">
         <v>1467</v>
       </c>
-      <c r="K222" t="s" s="3">
+      <c r="L222" t="s" s="3">
         <v>1468</v>
       </c>
-      <c r="L222" t="s" s="3">
+      <c r="M222" t="s" s="3">
         <v>1469</v>
       </c>
-      <c r="M222" t="s" s="3">
+      <c r="N222" t="s" s="7">
         <v>1470</v>
-      </c>
-      <c r="N222" t="s" s="7">
-        <v>1471</v>
       </c>
       <c r="O222" t="s" s="7">
         <v>26</v>
       </c>
       <c r="P222" t="s" s="7">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Q222" s="9"/>
     </row>
@@ -17417,7 +17414,7 @@
         <v>17</v>
       </c>
       <c r="B223" t="s" s="3">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="C223" s="4">
         <v>28176</v>
@@ -17426,13 +17423,13 @@
         <v>73946931391</v>
       </c>
       <c r="E223" t="s" s="7">
+        <v>1472</v>
+      </c>
+      <c r="F223" t="s" s="3">
         <v>1473</v>
       </c>
-      <c r="F223" t="s" s="3">
+      <c r="G223" t="s" s="3">
         <v>1474</v>
-      </c>
-      <c r="G223" t="s" s="3">
-        <v>1475</v>
       </c>
       <c r="H223" s="4">
         <v>30074</v>
@@ -17441,19 +17438,19 @@
         <v>92216617334</v>
       </c>
       <c r="J223" t="s" s="3">
+        <v>1475</v>
+      </c>
+      <c r="K223" t="s" s="3">
         <v>1476</v>
       </c>
-      <c r="K223" t="s" s="3">
+      <c r="L223" t="s" s="3">
         <v>1477</v>
       </c>
-      <c r="L223" t="s" s="3">
+      <c r="M223" t="s" s="3">
         <v>1478</v>
       </c>
-      <c r="M223" t="s" s="3">
+      <c r="N223" t="s" s="7">
         <v>1479</v>
-      </c>
-      <c r="N223" t="s" s="7">
-        <v>1480</v>
       </c>
       <c r="O223" t="s" s="7">
         <v>26</v>
@@ -17468,7 +17465,7 @@
         <v>17</v>
       </c>
       <c r="B224" t="s" s="3">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="C224" s="4">
         <v>32325</v>
@@ -17480,10 +17477,10 @@
         <v>85998141298</v>
       </c>
       <c r="F224" t="s" s="3">
+        <v>1481</v>
+      </c>
+      <c r="G224" t="s" s="3">
         <v>1482</v>
-      </c>
-      <c r="G224" t="s" s="3">
-        <v>1483</v>
       </c>
       <c r="H224" s="4">
         <v>33863</v>
@@ -17495,13 +17492,13 @@
         <v>85997150028</v>
       </c>
       <c r="K224" t="s" s="3">
+        <v>1483</v>
+      </c>
+      <c r="L224" t="s" s="3">
         <v>1484</v>
       </c>
-      <c r="L224" t="s" s="3">
+      <c r="M224" t="s" s="3">
         <v>1485</v>
-      </c>
-      <c r="M224" t="s" s="3">
-        <v>1486</v>
       </c>
       <c r="N224" s="5">
         <v>60840120</v>
@@ -17510,7 +17507,7 @@
         <v>142</v>
       </c>
       <c r="P224" t="s" s="7">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Q224" s="9"/>
     </row>
